--- a/Data_file/import_SO1.xlsx
+++ b/Data_file/import_SO1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="146">
   <si>
     <t>date_order</t>
   </si>
@@ -39,9 +39,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>validity_date</t>
-  </si>
-  <si>
     <t>partner_shipping_id</t>
   </si>
   <si>
@@ -54,165 +51,420 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>SO-0215165</t>
-  </si>
-  <si>
-    <t>บริษัท บ้านสุขภัณฑ์และวัสดุ จำกัด สำนักงานใหญ่</t>
-  </si>
-  <si>
-    <t>102/199 ม.5 ถ.เฉลิมพระเกียรติ ร.9 ต.รัษฎา อ.เมืองภูเก็ต จ.ภูเก็ต 83000</t>
-  </si>
-  <si>
-    <t>ML0038100</t>
-  </si>
-  <si>
-    <t>MI170 ARCADIA ก๊อกผสมติดอ่างอาบน้ำ พร้อมฝักบัวสายอ่อน (PRM-DBSM1D-LD-11ACP-CP)</t>
-  </si>
-  <si>
-    <t>Thawatchai</t>
-  </si>
-  <si>
-    <t>SO-0212496</t>
-  </si>
-  <si>
-    <t>บริษัท ยุ่ยล้ง โฮมเอ็กซ์เพิร์ท จำกัด สำนักงานใหญ่</t>
-  </si>
-  <si>
-    <t>โครงการ ลัคกี้โกลเด้นแลนด์</t>
-  </si>
-  <si>
-    <t>FD0009A100</t>
-  </si>
-  <si>
-    <t>FD009 ตะแกรงดักกลิ่น กรอบสี่เหลี่ยม หน้าแปลน 4 นิ้ว ใช้สำหรับสวมท่อขนาด 2 นิ้ว (T556-1)</t>
-  </si>
-  <si>
-    <t>SO-0214412</t>
-  </si>
-  <si>
-    <t>บริษัท สุราษฎร์สุขภัณฑ์เทรดดิ้ง จำกัด (สำนักงานใหญ่)</t>
-  </si>
-  <si>
-    <t>141/64-71 ม.5 ต.บางกุ้ง อ.เมืองสุราษฎร์ธานี จ.สุราษฏร์ธานี 84000</t>
-  </si>
-  <si>
-    <t>LFU0650G107</t>
-  </si>
-  <si>
-    <t>LFU65071G เฟอร์นิเจอร์ กันน้ำ 100% พร้อมอ่างล้างหน้า ขนาด 71 ซม. สีลายไม้เข้ม (PP36)</t>
-  </si>
-  <si>
-    <t>SO-0213693</t>
-  </si>
-  <si>
-    <t>บริษัท  คลีนิคสุขภัณฑ์ จำกัด สำนักงานใหญ่</t>
-  </si>
-  <si>
-    <t>4008 ตำบลอ่าวใหญ่ อำเภอเมืองตราด ตราด 23000_x000D_
-(POG6708-0039) มาตาเพียร์ ตราด</t>
-  </si>
-  <si>
-    <t>WD0001A100</t>
-  </si>
-  <si>
-    <t>WD01 ท่อน้ำทิ้งแบบกระปุก (HR 0860)</t>
-  </si>
-  <si>
-    <t>MA0462C211</t>
-  </si>
-  <si>
-    <t>MA462N อ่างล้างหน้า ชนิดแขวนผนังพร้อมขาตั้งแขวน สีขาว (A169)</t>
-  </si>
-  <si>
     <t>WB0004A100</t>
   </si>
   <si>
     <t>WB04 สะดืออ่างล้างหน้าแบบกด (ฝาใหญ่) (มีรูน้ำล้น) LB 8371</t>
   </si>
   <si>
-    <t>SO-0221137</t>
-  </si>
-  <si>
-    <t>บริษัท เอสซีจีโฮม รีเทล จำกัด สำนักงานใหญ่</t>
-  </si>
-  <si>
-    <t>ติดจองโครงการ สุธาทิพย์ แกรนด์คูลี่ ส่งหน้างาน สถานที่จัดส่ง บจก. บ้านสุธาทิพย์ 216 หมู่ที่ 4 คลองแห หาดใหญ่ สงขลา 90110 _x000D_
-โทร 061-1759517 คุณโบว์ (เสมียน)</t>
-  </si>
-  <si>
-    <t>SP00662100</t>
-  </si>
-  <si>
-    <t>SP66  สายฉีดชำระ โครเมี่ยม</t>
-  </si>
-  <si>
-    <t>ACS03602100</t>
-  </si>
-  <si>
-    <t>ACS0360-2 ราวแขวนผ้าแบบคู่ สแตนเลส 60 ซม.  (1122)</t>
-  </si>
-  <si>
-    <t>FCA0097100</t>
-  </si>
-  <si>
-    <t>FCA97M ก๊อกผสมอ่างล้างหน้า ทรงโค้ง</t>
-  </si>
-  <si>
-    <t>SO-0150337</t>
-  </si>
-  <si>
     <t>บริษัท บุญถาวร อินเตอร์เนชั่นแนล จำกัด  สำนักงานใหญ่</t>
   </si>
   <si>
-    <t>โครงการวิมานแก้วลำลูกกา - คลอง7</t>
-  </si>
-  <si>
-    <t>MT00681110</t>
-  </si>
-  <si>
-    <t>MT68(ECO) โถสุขภัณฑ์สองชิ้น (ฝา Slow Close)</t>
-  </si>
-  <si>
-    <t>AC0051101</t>
-  </si>
-  <si>
-    <t>AC51  โซล่า  ที่ใส่กระดาษทิชชู    ขาว</t>
-  </si>
-  <si>
-    <t>RS00003101</t>
-  </si>
-  <si>
-    <t>RS03 (SP) ชุดสายฉีดชำระ โครเมี่ยม (EPDM)</t>
-  </si>
-  <si>
     <t>team_id</t>
   </si>
   <si>
     <t>note</t>
   </si>
   <si>
-    <t>Regional project</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> บ้านสุขภัณฑ์และวัสดุ</t>
-  </si>
-  <si>
-    <t>ลัคกี้โกลเด้นแลนด์</t>
-  </si>
-  <si>
-    <t>บรรจงเฮาส์</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ธารเทวี12 ท่าเรือตราด</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> สุธาทิพย์ แกรนด์คูลี่</t>
-  </si>
-  <si>
-    <t>Metro project</t>
-  </si>
-  <si>
-    <t>วิมานแก้ว ลำลุกกา</t>
+    <t>commitment_date</t>
+  </si>
+  <si>
+    <t>client_order_ref</t>
+  </si>
+  <si>
+    <t>pricelist_id</t>
+  </si>
+  <si>
+    <t>warehouse_id</t>
+  </si>
+  <si>
+    <t>SO-0173291</t>
+  </si>
+  <si>
+    <t>PO6410-0072</t>
+  </si>
+  <si>
+    <t>บริษัท ดี.พี.เซรามิคส์ จำกัด. (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>โครงการบริทาเนีย ติวานนท์-ราชพฤกษ์</t>
+  </si>
+  <si>
+    <t>Default THB pricelist (THB)</t>
+  </si>
+  <si>
+    <t>สินค้าสำเร็จรูป 1</t>
+  </si>
+  <si>
+    <t>ACS0021100</t>
+  </si>
+  <si>
+    <t>ACS21 ที่ใส่กระดาษชำระสแตนเลส (ไม่มีฝา) พร้อมที่วางของ</t>
+  </si>
+  <si>
+    <t>METRO 2</t>
+  </si>
+  <si>
+    <t>บริทาเนีย ติวานนท์</t>
+  </si>
+  <si>
+    <t>SO-0174016</t>
+  </si>
+  <si>
+    <t>PO6410-0290</t>
+  </si>
+  <si>
+    <t>บริษัท มาเจสติกโฮมธนวัช จำกัด. (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>โครงการ แกรนด์บริทาเนีย วงแหวน รามอินทรา ป.69</t>
+  </si>
+  <si>
+    <t>บริทาเนียรามอินทรา</t>
+  </si>
+  <si>
+    <t>SO-0174025</t>
+  </si>
+  <si>
+    <t>PO6410-0294</t>
+  </si>
+  <si>
+    <t>โครงการ แกรนด์บริทาเนีย วงแหวน รามอินทรา ป.70</t>
+  </si>
+  <si>
+    <t>SO-0175197</t>
+  </si>
+  <si>
+    <t>PO6411-0467</t>
+  </si>
+  <si>
+    <t>โครงการแกรนด์ บริทาเนีย พระราม 9 - กรุงเทพกรีฑา  ป.68_x000D_
+คุณบอย086-139-3089</t>
+  </si>
+  <si>
+    <t>บริทาเนีย พระราม 9</t>
+  </si>
+  <si>
+    <t>SO-0175198</t>
+  </si>
+  <si>
+    <t>PO6411-0472</t>
+  </si>
+  <si>
+    <t>โครงการแกรนด์ บริทาเนีย พระราม 9 - กรุงเทพกรีฑา  ป.69_x000D_
+คุณบอย086-139-3089</t>
+  </si>
+  <si>
+    <t>SO-0175562</t>
+  </si>
+  <si>
+    <t>PO6411-0528</t>
+  </si>
+  <si>
+    <t>โตรงการแกรนด์ บริทาเนีย พระราม 9-กรุงเทพกรีฑา แปลง66</t>
+  </si>
+  <si>
+    <t>บริทาเนียพระราม 9</t>
+  </si>
+  <si>
+    <t>SO-0175563</t>
+  </si>
+  <si>
+    <t>PO6411-0533</t>
+  </si>
+  <si>
+    <t>โตรงการแกรนด์ บริทาเนีย พระราม 9-กรุงเทพกรีฑา แปลง67</t>
+  </si>
+  <si>
+    <t>SO-0179867</t>
+  </si>
+  <si>
+    <t>0000004937</t>
+  </si>
+  <si>
+    <t>บริษัท อินเตอร์โฮมแคร์ จำกัด สำนักงานใหญ่.</t>
+  </si>
+  <si>
+    <t>1768  ถนนเทพรัตน แขวงบางนาใต้ เขตบางนา กรุงเทพมหานคร 10260</t>
+  </si>
+  <si>
+    <t>SP0103100</t>
+  </si>
+  <si>
+    <t>SP103 ท่อน้ำทิ้งอ่างล้างหน้ารูปตัว P ยาว 350 มม.</t>
+  </si>
+  <si>
+    <t>METRO 4</t>
+  </si>
+  <si>
+    <t>Hulse</t>
+  </si>
+  <si>
+    <t>SO-0180172</t>
+  </si>
+  <si>
+    <t>7100051336</t>
+  </si>
+  <si>
+    <t>ส่งต่อโครงการ HULSE  รามอินทรา117   Type 5.7  สำนักงานขาย  ติดต่อคุณเจนวิทย์ 098-440-9882</t>
+  </si>
+  <si>
+    <t>MSP017800</t>
+  </si>
+  <si>
+    <t>SP178 ก๊อกสนามชุบโครเมี่ยม (VT JBL-6169)</t>
+  </si>
+  <si>
+    <t>HULSEรามอินทรา</t>
+  </si>
+  <si>
+    <t>ACS0031100</t>
+  </si>
+  <si>
+    <t>ACS31 ที่ใส่กระดาษชำระสแตนเลส (มีฝา)</t>
+  </si>
+  <si>
+    <t>SPV0005100</t>
+  </si>
+  <si>
+    <t>SPV05  วาล์วเปิด-ปิดน้ำ ใช้กับสุขภัณฑ์ทุกรุ่น</t>
+  </si>
+  <si>
+    <t>SO-0182071</t>
+  </si>
+  <si>
+    <t>7100053542</t>
+  </si>
+  <si>
+    <t>โครงการโมทีฟ ทาวน์</t>
+  </si>
+  <si>
+    <t>LFU43AQC160</t>
+  </si>
+  <si>
+    <t>LFU43058P#A LaFur Rivulet ตู้เฟอร์นิเจอร์ กันน้ำ 100% ขนาด 58ซม. สีเทาอ่อนอมน้ำตาล</t>
+  </si>
+  <si>
+    <t>MOTI TOWN</t>
+  </si>
+  <si>
+    <t>LFU034AC071</t>
+  </si>
+  <si>
+    <t>LFU34045G LaFur Rivulet ตู้เฟอร์นิเจอร์ กันน้ำ 100%+อ่างล้างหน้า ขนาด 45 ซม. สีลายไม้เข้ม</t>
+  </si>
+  <si>
+    <t>MA0523C110</t>
+  </si>
+  <si>
+    <t>MA523 อ่างล้างหน้า ชนิดวางบนเคาน์เตอร์ สีขาว</t>
+  </si>
+  <si>
+    <t>MO0032101</t>
+  </si>
+  <si>
+    <t>MO32  โถสุขภัณฑ์ชิ้นเดียว สีขาว (ฝา Slow Close)</t>
+  </si>
+  <si>
+    <t>SO-0182072</t>
+  </si>
+  <si>
+    <t>7100053545</t>
+  </si>
+  <si>
+    <t>MO00501310</t>
+  </si>
+  <si>
+    <t>MO50 (IE03)  โถสุขภัณฑ์ชิ้นเดียว สีขาว พร้อมฝารองนั่งไฟฟ้า (ELECTRIC)</t>
+  </si>
+  <si>
+    <t>SO-0182832</t>
+  </si>
+  <si>
+    <t>5700638834</t>
+  </si>
+  <si>
+    <t>บริษัท แสนสิริ จำกัด (มหาชน) สำนักงานใหญ่</t>
+  </si>
+  <si>
+    <t>โครงการเศรษฐสิริ วัชรพล  แปลง 95 Type M299_x000D_
+ทีมติดตั้ง</t>
+  </si>
+  <si>
+    <t>LA0039HC58</t>
+  </si>
+  <si>
+    <t>LA39080KHG (SP-1) อ่างล้างหน้าอะครีลิค พร้อมตู้เฟอร์ ขนาด 80 ซม. สีเทา HG23 + สีขาว PP19</t>
+  </si>
+  <si>
+    <t>METRO 3</t>
+  </si>
+  <si>
+    <t>เศรษฐสิริวัชรพล</t>
+  </si>
+  <si>
+    <t>LA0039GC58</t>
+  </si>
+  <si>
+    <t>LA39070KHG (SP1) อ่างล้างหน้าอะครีลิค พร้อมตู้เฟอร์ ขนาด 70 ซม. สีเทา HG23 + สีขาว PP19</t>
+  </si>
+  <si>
+    <t>LA015O540C</t>
+  </si>
+  <si>
+    <t>LA15150KHG (SP3) อ่างล้างหน้าอะครีลิค พร้อมตู้เฟอร์ ขนาด150 ซม. สีขาว (PP19) + สีเทา(HG23)</t>
+  </si>
+  <si>
+    <t>SO-0182833</t>
+  </si>
+  <si>
+    <t>5700638833</t>
+  </si>
+  <si>
+    <t>โครงการเศรษฐสิริ วัชรพล  แปลง 94 Type M299_x000D_
+ทีมติดตั้ง</t>
+  </si>
+  <si>
+    <t>SO-0182834</t>
+  </si>
+  <si>
+    <t>5700661657</t>
+  </si>
+  <si>
+    <t>โครงการเศรษฐสิริ วัชรพล  แปลง 110 Type S189_x000D_
+ทีมติดตั้ง</t>
+  </si>
+  <si>
+    <t>SO-0184889</t>
+  </si>
+  <si>
+    <t>0000001045</t>
+  </si>
+  <si>
+    <t>PJ.แกรนด์ บริทาเนีย บางนา กม.35 แปลง10</t>
+  </si>
+  <si>
+    <t>Thiraya</t>
+  </si>
+  <si>
+    <t>SO-0184905</t>
+  </si>
+  <si>
+    <t>7100056819</t>
+  </si>
+  <si>
+    <t>โครงการ โมทีฟ ทาวน์</t>
+  </si>
+  <si>
+    <t>AC0013100</t>
+  </si>
+  <si>
+    <t>AC13 ที่วางสบู่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MOTI TOWN</t>
+  </si>
+  <si>
+    <t>LFU0640300</t>
+  </si>
+  <si>
+    <t>LFU64060F เฟอร์นิเจอร์กันน้ำ 100% พร้อมอ่างล้างหน้า ขนาด 60 ซม.สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>SO-0188465</t>
+  </si>
+  <si>
+    <t>7100061913</t>
+  </si>
+  <si>
+    <t>โครงการ Hulse รามอินทรา 117</t>
+  </si>
+  <si>
+    <t>Hulse รามอินทรา 117</t>
+  </si>
+  <si>
+    <t>MO00691110</t>
+  </si>
+  <si>
+    <t>MO69(ECO) โถสุขภัณฑ์ชิ้นเดียว (ฝา Slow Close) สีขาว</t>
+  </si>
+  <si>
+    <t>FCA0001100</t>
+  </si>
+  <si>
+    <t>FCA01C ก๊อกเดี่ยวอ่างล้างหน้า (GF-1614)</t>
+  </si>
+  <si>
+    <t>SP00212100</t>
+  </si>
+  <si>
+    <t>SP212 ฝักบัวอาบน้ำโครมเมี่ยม 1 ฟังก์ชั่น แบบกลม</t>
+  </si>
+  <si>
+    <t>LFP0500D7L97A</t>
+  </si>
+  <si>
+    <t>LFP50047U7 (SP1-L) ตู้เฟอร์นิเจอร์ กันชื้น พร้อมอ่างล้างหน้า ขนาด 53 ซม. สีลายไม้อ่อน บานเปิดซ้าย</t>
+  </si>
+  <si>
+    <t>RS00006110</t>
+  </si>
+  <si>
+    <t>RS06 ชุดสายฉีดชำระ</t>
+  </si>
+  <si>
+    <t>SO-0188855</t>
+  </si>
+  <si>
+    <t>POW65100005</t>
+  </si>
+  <si>
+    <t>บริษัท พี พี เซรามิค (รามอินทรา) จำกัด. (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>106 ถ.รามอินทรา แขวงมีนบุรี เขตมีนบุรี กทม. 10510</t>
+  </si>
+  <si>
+    <t>LG056R23J</t>
+  </si>
+  <si>
+    <t>LG56120U (R-AL) อ่างล้างหน้าวัสดุสังเคราะห์ (Co-marble)พร้อมตู้เฟอร์ ขนาด 120 ซม. สีลายไม้อ่อน(FM01)</t>
+  </si>
+  <si>
+    <t>บริษัทพีพีเซรามิค</t>
+  </si>
+  <si>
+    <t>LG025L223</t>
+  </si>
+  <si>
+    <t>LG25090F (SP3-L) อ่างล้างหน้า (Co-marble) พร้อมตู้เฟอร์ ขนาด 90 ซม. สีลายไม้อ่อน</t>
+  </si>
+  <si>
+    <t>SO-0190389</t>
+  </si>
+  <si>
+    <t>PON-010000456815</t>
+  </si>
+  <si>
+    <t>บริษัท แกรนด์โฮมมาร์ท จำกัดสาขาบางบัวทอง(สาขาที่ 00009)</t>
+  </si>
+  <si>
+    <t>โครงการบริทาเนีย ทาวน์ บางนา กม.17 (BTN20) Block059,Unit000</t>
+  </si>
+  <si>
+    <t>บริทาเนีย บางนา</t>
+  </si>
+  <si>
+    <t>SO-0191150</t>
+  </si>
+  <si>
+    <t>PON-010200311762</t>
+  </si>
+  <si>
+    <t>โครงการ บริทาเนีย โฮม บางนา กม.17 (BTN19) Block000 Unit215</t>
+  </si>
+  <si>
+    <t>บริทาเนียโฮมบางนา</t>
   </si>
 </sst>
 </file>
@@ -332,7 +584,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -364,6 +616,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1496,950 +1754,1823 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M489"/>
+  <dimension ref="A1:O489"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="14" width="16.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.33203125" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="12" customWidth="1"/>
+    <col min="4" max="14" width="16.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1">
+    <row r="1" spans="1:15" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="63.95" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44474</v>
+      </c>
+      <c r="C2" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="5">
+        <v>298</v>
+      </c>
+      <c r="L2" s="5">
+        <v>294.5</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="63.6" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44494</v>
+      </c>
+      <c r="C3" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5">
+        <v>294.5</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="49.7" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44494</v>
+      </c>
+      <c r="C4" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="5">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5">
+        <v>294.5</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="49.7" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4">
+        <v>44523</v>
+      </c>
+      <c r="C5" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>294.5</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="49.7" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44523</v>
+      </c>
+      <c r="C6" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>294.5</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="61.7" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44529</v>
+      </c>
+      <c r="C7" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="5">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5">
+        <v>294.5</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="49.7" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44529</v>
+      </c>
+      <c r="C8" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5">
+        <v>294.5</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="49.7" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44641</v>
+      </c>
+      <c r="C9" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>266</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="49.7" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44624</v>
+      </c>
+      <c r="C10" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5">
+        <v>275.5</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="49.7" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44624</v>
+      </c>
+      <c r="C11" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3</v>
+      </c>
+      <c r="L11" s="5">
+        <v>152</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="49.7" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4">
+        <v>44624</v>
+      </c>
+      <c r="C12" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5">
+        <v>370.5</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="49.7" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="4">
+        <v>44679</v>
+      </c>
+      <c r="C13" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="5">
+        <v>110</v>
+      </c>
+      <c r="L13" s="5">
+        <v>4655</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="77.650000000000006" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44679</v>
+      </c>
+      <c r="C14" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="5">
+        <v>111</v>
+      </c>
+      <c r="L14" s="5">
+        <v>4655</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="77.650000000000006" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4">
+        <v>44679</v>
+      </c>
+      <c r="C15" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="5">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="L15" s="5">
+        <v>2327.5</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="63.6" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="4">
+        <v>44679</v>
+      </c>
+      <c r="C16" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="5">
+        <v>222</v>
+      </c>
+      <c r="L16" s="5">
+        <v>4465</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="48" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="4">
+        <v>44679</v>
+      </c>
+      <c r="C17" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="5">
+        <v>111</v>
+      </c>
+      <c r="L17" s="5">
+        <v>14155</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="48" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="4">
+        <v>44601</v>
+      </c>
+      <c r="C18" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>9700</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="47.65" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="4">
+        <v>44601</v>
+      </c>
+      <c r="C19" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="5">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="L19" s="5">
+        <v>8528</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="48" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44601</v>
+      </c>
+      <c r="C20" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>19800</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="48" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44601</v>
+      </c>
+      <c r="C21" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2</v>
+      </c>
+      <c r="L21" s="5">
+        <v>8528</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="48" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44601</v>
+      </c>
+      <c r="C22" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>19800</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="48" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44601</v>
+      </c>
+      <c r="C23" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <v>9700</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="48" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44601</v>
+      </c>
+      <c r="C24" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="5">
+        <v>2</v>
+      </c>
+      <c r="L24" s="5">
+        <v>9700</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="49.7" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44601</v>
+      </c>
+      <c r="C25" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="5">
+        <v>2</v>
+      </c>
+      <c r="L25" s="5">
+        <v>8528</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="49.7" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44361</v>
+      </c>
+      <c r="C26" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="5">
+        <v>4</v>
+      </c>
+      <c r="L26" s="5">
+        <v>294.5</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="60" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="4">
+        <v>44740</v>
+      </c>
+      <c r="C27" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="5">
+        <v>217</v>
+      </c>
+      <c r="L27" s="5">
+        <v>332.5</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="60" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="4">
+        <v>44740</v>
+      </c>
+      <c r="C28" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="5">
+        <v>111</v>
+      </c>
+      <c r="L28" s="5">
+        <v>4275</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="35.65" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="4">
+        <v>44832</v>
+      </c>
+      <c r="C29" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="5">
+        <v>182</v>
+      </c>
+      <c r="L29" s="5">
+        <v>152</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="35.65" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="4">
+        <v>44832</v>
+      </c>
+      <c r="C30" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="5">
+        <v>212</v>
+      </c>
+      <c r="L30" s="5">
+        <v>3325.0000000000005</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="62.1" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="4">
+        <v>44832</v>
+      </c>
+      <c r="C31" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="5">
+        <v>182</v>
+      </c>
+      <c r="L31" s="5">
+        <v>190</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="62.1" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44832</v>
+      </c>
+      <c r="C32" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="5">
+        <v>182</v>
+      </c>
+      <c r="L32" s="5">
+        <v>655.5</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="62.1" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="4">
+        <v>44832</v>
+      </c>
+      <c r="C33" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K33" s="5">
+        <v>169</v>
+      </c>
+      <c r="L33" s="5">
+        <v>313.5</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="62.1" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="4">
+        <v>44832</v>
+      </c>
+      <c r="C34" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K34" s="5">
+        <v>182</v>
+      </c>
+      <c r="L34" s="5">
+        <v>3125.5</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="48" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="4">
+        <v>44832</v>
+      </c>
+      <c r="C35" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="5">
+        <v>182</v>
+      </c>
+      <c r="L35" s="5">
+        <v>180.5</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="48" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="4">
+        <v>44832</v>
+      </c>
+      <c r="C36" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36" s="5">
+        <v>169</v>
+      </c>
+      <c r="L36" s="5">
+        <v>370.5</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="48" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="4">
+        <v>44838</v>
+      </c>
+      <c r="C37" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
+        <v>14725</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="48" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44838</v>
+      </c>
+      <c r="C38" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="5">
+        <v>2</v>
+      </c>
+      <c r="L38" s="5">
+        <v>10925</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="48" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="4">
+        <v>44869</v>
+      </c>
+      <c r="C39" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="5">
+        <v>12</v>
+      </c>
+      <c r="L39" s="5">
+        <v>294.5</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="48" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="4">
+        <v>44883</v>
+      </c>
+      <c r="C40" s="6">
+        <v>46022</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="5">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="63.9" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4">
-        <v>46022</v>
-      </c>
-      <c r="C2" s="5">
-        <v>45546</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8">
-        <v>10458.577499999999</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4">
-        <v>46022</v>
-      </c>
-      <c r="C3" s="5">
-        <v>45471</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="7">
-        <v>4</v>
-      </c>
-      <c r="I3" s="8">
-        <v>760</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4">
-        <v>46022</v>
-      </c>
-      <c r="C4" s="5">
-        <v>45527</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="7">
-        <v>50</v>
-      </c>
-      <c r="I4" s="8">
-        <v>265525</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="L40" s="5">
+        <v>294.5</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4">
-        <v>46022</v>
-      </c>
-      <c r="C5" s="5">
-        <v>45506</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8">
-        <v>494</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4">
-        <v>46022</v>
-      </c>
-      <c r="C6" s="5">
-        <v>45506</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <v>3762</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="61.65" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4">
-        <v>46022</v>
-      </c>
-      <c r="C7" s="5">
-        <v>45506</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>275.5</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4">
-        <v>45838</v>
-      </c>
-      <c r="C8" s="5">
-        <v>45705</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="7">
-        <v>18</v>
-      </c>
-      <c r="I8" s="8">
-        <v>7353</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45838</v>
-      </c>
-      <c r="C9" s="5">
-        <v>45705</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
-      <c r="I9" s="8">
-        <v>7695</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4">
-        <v>46022</v>
-      </c>
-      <c r="C10" s="5">
-        <v>45506</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>3011.5</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="4">
-        <v>46022</v>
-      </c>
-      <c r="C11" s="5">
-        <v>43903</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="7">
-        <v>360</v>
-      </c>
-      <c r="I11" s="8">
-        <v>718200</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4">
-        <v>46022</v>
-      </c>
-      <c r="C12" s="5">
-        <v>43903</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>360</v>
-      </c>
-      <c r="I12" s="8">
-        <v>123120</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="4">
-        <v>46022</v>
-      </c>
-      <c r="C13" s="5">
-        <v>43903</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="7">
-        <v>361</v>
-      </c>
-      <c r="I13" s="8">
-        <v>65160.5</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" ht="77.7" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="4">
-        <v>46022</v>
-      </c>
-      <c r="C14" s="5">
-        <v>43903</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="7">
-        <v>359</v>
-      </c>
-      <c r="I14" s="8">
-        <v>68210</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="77.7" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="63.6" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" ht="48" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" ht="48" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" ht="47.7" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" ht="48" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" ht="48" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" ht="48" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" ht="48" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" ht="48" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" ht="49.65" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13" ht="60" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13" ht="60" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" ht="35.700000000000003" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" ht="62.1" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" ht="48" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" ht="48" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" ht="48" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" ht="48" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" ht="48" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" ht="48" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" ht="48" customHeight="1">
+      <c r="O40" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="48" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="5"/>
@@ -2451,10 +3582,10 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" ht="48" customHeight="1">
+    <row r="42" spans="1:15" ht="48" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="5"/>
@@ -2466,10 +3597,10 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" ht="48" customHeight="1">
+    <row r="43" spans="1:15" ht="48" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="5"/>
@@ -2481,10 +3612,10 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" ht="48" customHeight="1">
+    <row r="44" spans="1:15" ht="48" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="5"/>
@@ -2496,10 +3627,10 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="48" customHeight="1">
+    <row r="45" spans="1:15" ht="48" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="5"/>
@@ -2511,10 +3642,10 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="48" customHeight="1">
+    <row r="46" spans="1:15" ht="48" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="5"/>
@@ -2526,10 +3657,10 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="48" customHeight="1">
+    <row r="47" spans="1:15" ht="48" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="5"/>
@@ -2541,10 +3672,10 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" ht="48" customHeight="1">
+    <row r="48" spans="1:15" ht="48" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="5"/>
@@ -2559,7 +3690,7 @@
     <row r="49" spans="1:13" ht="48" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="5"/>
@@ -2574,7 +3705,7 @@
     <row r="50" spans="1:13" ht="48" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="5"/>
@@ -2589,7 +3720,7 @@
     <row r="51" spans="1:13" ht="74.099999999999994" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
       <c r="F51" s="5"/>
@@ -2604,7 +3735,7 @@
     <row r="52" spans="1:13" ht="75.599999999999994" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="5"/>
@@ -2616,10 +3747,10 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" ht="49.65" customHeight="1">
+    <row r="53" spans="1:13" ht="49.7" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="5"/>
@@ -2631,10 +3762,10 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:13" ht="49.65" customHeight="1">
+    <row r="54" spans="1:13" ht="49.7" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="5"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
       <c r="F54" s="5"/>
@@ -2649,7 +3780,7 @@
     <row r="55" spans="1:13" ht="63.6" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
       <c r="F55" s="5"/>
@@ -2664,7 +3795,7 @@
     <row r="56" spans="1:13" ht="74.099999999999994" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
       <c r="F56" s="5"/>
@@ -2679,7 +3810,7 @@
     <row r="57" spans="1:13" ht="63.6" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
       <c r="F57" s="5"/>
@@ -2694,7 +3825,7 @@
     <row r="58" spans="1:13" ht="99.6" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="5"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
       <c r="F58" s="5"/>
@@ -2709,7 +3840,7 @@
     <row r="59" spans="1:13" ht="72" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="5"/>
@@ -2721,10 +3852,10 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
-    <row r="60" spans="1:13" ht="89.7" customHeight="1">
+    <row r="60" spans="1:13" ht="89.65" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="5"/>
@@ -2736,10 +3867,10 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" spans="1:13" ht="77.7" customHeight="1">
+    <row r="61" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
       <c r="F61" s="5"/>
@@ -2751,10 +3882,10 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="1:13" ht="77.7" customHeight="1">
+    <row r="62" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
       <c r="F62" s="5"/>
@@ -2766,10 +3897,10 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="1:13" ht="77.7" customHeight="1">
+    <row r="63" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
       <c r="F63" s="5"/>
@@ -2781,10 +3912,10 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
     </row>
-    <row r="64" spans="1:13" ht="77.7" customHeight="1">
+    <row r="64" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
       <c r="F64" s="5"/>
@@ -2796,10 +3927,10 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" spans="1:13" ht="77.7" customHeight="1">
+    <row r="65" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
       <c r="F65" s="5"/>
@@ -2811,10 +3942,10 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
     </row>
-    <row r="66" spans="1:13" ht="77.7" customHeight="1">
+    <row r="66" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="5"/>
@@ -2826,10 +3957,10 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" spans="1:13" ht="77.7" customHeight="1">
+    <row r="67" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
       <c r="F67" s="5"/>
@@ -2841,10 +3972,10 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="1:13" ht="77.7" customHeight="1">
+    <row r="68" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="5"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
       <c r="F68" s="5"/>
@@ -2856,10 +3987,10 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" spans="1:13" ht="77.7" customHeight="1">
+    <row r="69" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="5"/>
       <c r="E69" s="6"/>
       <c r="F69" s="5"/>
@@ -2871,10 +4002,10 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="1:13" ht="77.7" customHeight="1">
+    <row r="70" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
       <c r="F70" s="5"/>
@@ -2886,10 +4017,10 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" spans="1:13" ht="77.7" customHeight="1">
+    <row r="71" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="5"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
       <c r="F71" s="5"/>
@@ -2904,7 +4035,7 @@
     <row r="72" spans="1:13" ht="86.1" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
       <c r="F72" s="5"/>
@@ -2919,7 +4050,7 @@
     <row r="73" spans="1:13" ht="62.1" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
       <c r="F73" s="5"/>
@@ -2934,7 +4065,7 @@
     <row r="74" spans="1:13" ht="63.6" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="5"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
       <c r="F74" s="5"/>
@@ -2946,10 +4077,10 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
     </row>
-    <row r="75" spans="1:13" ht="77.7" customHeight="1">
+    <row r="75" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
+      <c r="C75" s="6"/>
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
       <c r="F75" s="5"/>
@@ -2961,10 +4092,10 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
     </row>
-    <row r="76" spans="1:13" ht="77.7" customHeight="1">
+    <row r="76" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
+      <c r="C76" s="6"/>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
       <c r="F76" s="5"/>
@@ -2976,10 +4107,10 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
-    <row r="77" spans="1:13" ht="77.7" customHeight="1">
+    <row r="77" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
+      <c r="C77" s="6"/>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
       <c r="F77" s="5"/>
@@ -2991,10 +4122,10 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="1:13" ht="77.7" customHeight="1">
+    <row r="78" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
       <c r="F78" s="5"/>
@@ -3006,10 +4137,10 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
     </row>
-    <row r="79" spans="1:13" ht="77.7" customHeight="1">
+    <row r="79" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="5"/>
+      <c r="C79" s="6"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
       <c r="F79" s="5"/>
@@ -3021,10 +4152,10 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
     </row>
-    <row r="80" spans="1:13" ht="77.7" customHeight="1">
+    <row r="80" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="5"/>
+      <c r="C80" s="6"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
       <c r="F80" s="5"/>
@@ -3036,10 +4167,10 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
     </row>
-    <row r="81" spans="1:13" ht="77.7" customHeight="1">
+    <row r="81" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="5"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
       <c r="F81" s="5"/>
@@ -3051,10 +4182,10 @@
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
     </row>
-    <row r="82" spans="1:13" ht="77.7" customHeight="1">
+    <row r="82" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="5"/>
+      <c r="C82" s="6"/>
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
       <c r="F82" s="5"/>
@@ -3066,10 +4197,10 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
     </row>
-    <row r="83" spans="1:13" ht="77.7" customHeight="1">
+    <row r="83" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="5"/>
+      <c r="C83" s="6"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
       <c r="F83" s="5"/>
@@ -3081,10 +4212,10 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
     </row>
-    <row r="84" spans="1:13" ht="77.7" customHeight="1">
+    <row r="84" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="5"/>
+      <c r="C84" s="6"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="F84" s="5"/>
@@ -3096,10 +4227,10 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
     </row>
-    <row r="85" spans="1:13" ht="77.7" customHeight="1">
+    <row r="85" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="5"/>
+      <c r="C85" s="6"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="5"/>
@@ -3111,10 +4242,10 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
     </row>
-    <row r="86" spans="1:13" ht="77.7" customHeight="1">
+    <row r="86" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="5"/>
+      <c r="C86" s="6"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="5"/>
@@ -3126,10 +4257,10 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
     </row>
-    <row r="87" spans="1:13" ht="77.7" customHeight="1">
+    <row r="87" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="5"/>
+      <c r="C87" s="6"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="5"/>
@@ -3141,10 +4272,10 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
     </row>
-    <row r="88" spans="1:13" ht="133.65" customHeight="1">
+    <row r="88" spans="1:13" ht="133.69999999999999" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="5"/>
+      <c r="C88" s="6"/>
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
       <c r="F88" s="5"/>
@@ -3159,7 +4290,7 @@
     <row r="89" spans="1:13" ht="63.6" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="5"/>
+      <c r="C89" s="6"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="5"/>
@@ -3171,10 +4302,10 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="1:13" ht="77.7" customHeight="1">
+    <row r="90" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="5"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="F90" s="5"/>
@@ -3186,10 +4317,10 @@
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
     </row>
-    <row r="91" spans="1:13" ht="77.7" customHeight="1">
+    <row r="91" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="5"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="5"/>
@@ -3201,10 +4332,10 @@
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
     </row>
-    <row r="92" spans="1:13" ht="77.7" customHeight="1">
+    <row r="92" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="5"/>
+      <c r="C92" s="6"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="5"/>
@@ -3216,10 +4347,10 @@
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
     </row>
-    <row r="93" spans="1:13" ht="77.7" customHeight="1">
+    <row r="93" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="5"/>
+      <c r="C93" s="6"/>
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
       <c r="F93" s="5"/>
@@ -3231,10 +4362,10 @@
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
     </row>
-    <row r="94" spans="1:13" ht="77.7" customHeight="1">
+    <row r="94" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="5"/>
+      <c r="C94" s="6"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
       <c r="F94" s="5"/>
@@ -3246,10 +4377,10 @@
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
     </row>
-    <row r="95" spans="1:13" ht="77.7" customHeight="1">
+    <row r="95" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="5"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="5"/>
       <c r="E95" s="6"/>
       <c r="F95" s="5"/>
@@ -3264,7 +4395,7 @@
     <row r="96" spans="1:13" ht="105.6" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="5"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
       <c r="F96" s="5"/>
@@ -3279,7 +4410,7 @@
     <row r="97" spans="1:13" ht="105.6" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="5"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
       <c r="F97" s="5"/>
@@ -3294,7 +4425,7 @@
     <row r="98" spans="1:13" ht="105.6" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="5"/>
+      <c r="C98" s="6"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
       <c r="F98" s="5"/>
@@ -3309,7 +4440,7 @@
     <row r="99" spans="1:13" ht="105.6" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="5"/>
+      <c r="C99" s="6"/>
       <c r="D99" s="5"/>
       <c r="E99" s="6"/>
       <c r="F99" s="5"/>
@@ -3321,10 +4452,10 @@
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
     </row>
-    <row r="100" spans="1:13" ht="77.7" customHeight="1">
+    <row r="100" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="5"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="5"/>
       <c r="E100" s="6"/>
       <c r="F100" s="5"/>
@@ -3336,10 +4467,10 @@
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
     </row>
-    <row r="101" spans="1:13" ht="77.7" customHeight="1">
+    <row r="101" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="5"/>
+      <c r="C101" s="6"/>
       <c r="D101" s="5"/>
       <c r="E101" s="6"/>
       <c r="F101" s="5"/>
@@ -3351,10 +4482,10 @@
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
     </row>
-    <row r="102" spans="1:13" ht="77.7" customHeight="1">
+    <row r="102" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="5"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="5"/>
       <c r="E102" s="6"/>
       <c r="F102" s="5"/>
@@ -3366,10 +4497,10 @@
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
     </row>
-    <row r="103" spans="1:13" ht="77.7" customHeight="1">
+    <row r="103" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="5"/>
+      <c r="C103" s="6"/>
       <c r="D103" s="5"/>
       <c r="E103" s="6"/>
       <c r="F103" s="5"/>
@@ -3381,10 +4512,10 @@
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
     </row>
-    <row r="104" spans="1:13" ht="97.65" customHeight="1">
+    <row r="104" spans="1:13" ht="97.7" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="5"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="5"/>
       <c r="E104" s="6"/>
       <c r="F104" s="5"/>
@@ -3396,10 +4527,10 @@
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
     </row>
-    <row r="105" spans="1:13" ht="61.65" customHeight="1">
+    <row r="105" spans="1:13" ht="61.7" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="5"/>
+      <c r="C105" s="6"/>
       <c r="D105" s="5"/>
       <c r="E105" s="6"/>
       <c r="F105" s="5"/>
@@ -3414,7 +4545,7 @@
     <row r="106" spans="1:13" ht="150" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="5"/>
+      <c r="C106" s="6"/>
       <c r="D106" s="5"/>
       <c r="E106" s="6"/>
       <c r="F106" s="5"/>
@@ -3429,7 +4560,7 @@
     <row r="107" spans="1:13" ht="150" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="5"/>
+      <c r="C107" s="6"/>
       <c r="D107" s="5"/>
       <c r="E107" s="6"/>
       <c r="F107" s="5"/>
@@ -3444,7 +4575,7 @@
     <row r="108" spans="1:13" ht="150" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="5"/>
+      <c r="C108" s="6"/>
       <c r="D108" s="5"/>
       <c r="E108" s="6"/>
       <c r="F108" s="5"/>
@@ -3459,7 +4590,7 @@
     <row r="109" spans="1:13" ht="150" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="5"/>
+      <c r="C109" s="6"/>
       <c r="D109" s="5"/>
       <c r="E109" s="6"/>
       <c r="F109" s="5"/>
@@ -3474,7 +4605,7 @@
     <row r="110" spans="1:13" ht="150" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="5"/>
+      <c r="C110" s="6"/>
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
       <c r="F110" s="5"/>
@@ -3486,10 +4617,10 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
     </row>
-    <row r="111" spans="1:13" ht="49.65" customHeight="1">
+    <row r="111" spans="1:13" ht="49.7" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="5"/>
+      <c r="C111" s="6"/>
       <c r="D111" s="5"/>
       <c r="E111" s="6"/>
       <c r="F111" s="5"/>
@@ -3501,10 +4632,10 @@
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
     </row>
-    <row r="112" spans="1:13" ht="76.05" customHeight="1">
+    <row r="112" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="5"/>
+      <c r="C112" s="6"/>
       <c r="D112" s="5"/>
       <c r="E112" s="6"/>
       <c r="F112" s="5"/>
@@ -3516,10 +4647,10 @@
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
     </row>
-    <row r="113" spans="1:13" ht="76.05" customHeight="1">
+    <row r="113" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="5"/>
+      <c r="C113" s="6"/>
       <c r="D113" s="5"/>
       <c r="E113" s="6"/>
       <c r="F113" s="5"/>
@@ -3531,10 +4662,10 @@
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
     </row>
-    <row r="114" spans="1:13" ht="76.05" customHeight="1">
+    <row r="114" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="5"/>
+      <c r="C114" s="6"/>
       <c r="D114" s="5"/>
       <c r="E114" s="6"/>
       <c r="F114" s="5"/>
@@ -3546,10 +4677,10 @@
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
     </row>
-    <row r="115" spans="1:13" ht="76.05" customHeight="1">
+    <row r="115" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="5"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="5"/>
       <c r="E115" s="6"/>
       <c r="F115" s="5"/>
@@ -3561,10 +4692,10 @@
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
     </row>
-    <row r="116" spans="1:13" ht="76.05" customHeight="1">
+    <row r="116" spans="1:13" ht="76.150000000000006" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="5"/>
+      <c r="C116" s="6"/>
       <c r="D116" s="5"/>
       <c r="E116" s="6"/>
       <c r="F116" s="5"/>
@@ -3579,7 +4710,7 @@
     <row r="117" spans="1:13" ht="104.1" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="5"/>
+      <c r="C117" s="6"/>
       <c r="D117" s="5"/>
       <c r="E117" s="6"/>
       <c r="F117" s="5"/>
@@ -3594,7 +4725,7 @@
     <row r="118" spans="1:13" ht="104.1" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="5"/>
+      <c r="C118" s="6"/>
       <c r="D118" s="5"/>
       <c r="E118" s="6"/>
       <c r="F118" s="5"/>
@@ -3609,7 +4740,7 @@
     <row r="119" spans="1:13" ht="104.1" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="5"/>
+      <c r="C119" s="6"/>
       <c r="D119" s="5"/>
       <c r="E119" s="6"/>
       <c r="F119" s="5"/>
@@ -3624,7 +4755,7 @@
     <row r="120" spans="1:13" ht="104.1" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="5"/>
+      <c r="C120" s="6"/>
       <c r="D120" s="5"/>
       <c r="E120" s="6"/>
       <c r="F120" s="5"/>
@@ -3639,7 +4770,7 @@
     <row r="121" spans="1:13" ht="104.1" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="5"/>
+      <c r="C121" s="6"/>
       <c r="D121" s="5"/>
       <c r="E121" s="6"/>
       <c r="F121" s="5"/>
@@ -3651,10 +4782,10 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
-    <row r="122" spans="1:13" ht="61.65" customHeight="1">
+    <row r="122" spans="1:13" ht="61.7" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="5"/>
+      <c r="C122" s="6"/>
       <c r="D122" s="5"/>
       <c r="E122" s="6"/>
       <c r="F122" s="5"/>
@@ -3666,10 +4797,10 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
     </row>
-    <row r="123" spans="1:13" ht="35.700000000000003" customHeight="1">
+    <row r="123" spans="1:13" ht="35.65" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="5"/>
+      <c r="C123" s="6"/>
       <c r="D123" s="5"/>
       <c r="E123" s="6"/>
       <c r="F123" s="5"/>
@@ -3681,10 +4812,10 @@
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
     </row>
-    <row r="124" spans="1:13" ht="49.65" customHeight="1">
+    <row r="124" spans="1:13" ht="49.7" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="5"/>
+      <c r="C124" s="6"/>
       <c r="D124" s="5"/>
       <c r="E124" s="6"/>
       <c r="F124" s="5"/>
@@ -3696,10 +4827,10 @@
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
     </row>
-    <row r="125" spans="1:13" ht="59.7" customHeight="1">
+    <row r="125" spans="1:13" ht="59.65" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="5"/>
+      <c r="C125" s="6"/>
       <c r="D125" s="5"/>
       <c r="E125" s="6"/>
       <c r="F125" s="5"/>
@@ -3711,10 +4842,10 @@
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
     </row>
-    <row r="126" spans="1:13" ht="59.7" customHeight="1">
+    <row r="126" spans="1:13" ht="59.65" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="5"/>
+      <c r="C126" s="6"/>
       <c r="D126" s="5"/>
       <c r="E126" s="6"/>
       <c r="F126" s="5"/>
@@ -3729,7 +4860,7 @@
     <row r="127" spans="1:13" ht="74.099999999999994" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="5"/>
+      <c r="C127" s="6"/>
       <c r="D127" s="5"/>
       <c r="E127" s="6"/>
       <c r="F127" s="5"/>
@@ -3744,7 +4875,7 @@
     <row r="128" spans="1:13" ht="74.099999999999994" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="5"/>
+      <c r="C128" s="6"/>
       <c r="D128" s="5"/>
       <c r="E128" s="6"/>
       <c r="F128" s="5"/>
@@ -3759,7 +4890,7 @@
     <row r="129" spans="1:13" ht="74.099999999999994" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="5"/>
+      <c r="C129" s="6"/>
       <c r="D129" s="5"/>
       <c r="E129" s="6"/>
       <c r="F129" s="5"/>
@@ -3774,7 +4905,7 @@
     <row r="130" spans="1:13" ht="74.099999999999994" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="5"/>
+      <c r="C130" s="6"/>
       <c r="D130" s="5"/>
       <c r="E130" s="6"/>
       <c r="F130" s="5"/>
@@ -3786,10 +4917,10 @@
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
     </row>
-    <row r="131" spans="1:13" ht="89.7" customHeight="1">
+    <row r="131" spans="1:13" ht="89.65" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="5"/>
+      <c r="C131" s="6"/>
       <c r="D131" s="5"/>
       <c r="E131" s="6"/>
       <c r="F131" s="5"/>
@@ -3804,7 +4935,7 @@
     <row r="132" spans="1:13" ht="63.6" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="5"/>
+      <c r="C132" s="6"/>
       <c r="D132" s="5"/>
       <c r="E132" s="6"/>
       <c r="F132" s="5"/>
@@ -3819,7 +4950,7 @@
     <row r="133" spans="1:13" ht="63.6" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="5"/>
+      <c r="C133" s="6"/>
       <c r="D133" s="5"/>
       <c r="E133" s="6"/>
       <c r="F133" s="5"/>
@@ -3834,7 +4965,7 @@
     <row r="134" spans="1:13" ht="63.6" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="5"/>
+      <c r="C134" s="6"/>
       <c r="D134" s="5"/>
       <c r="E134" s="6"/>
       <c r="F134" s="5"/>
@@ -3849,7 +4980,7 @@
     <row r="135" spans="1:13" ht="63.6" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="5"/>
+      <c r="C135" s="6"/>
       <c r="D135" s="5"/>
       <c r="E135" s="6"/>
       <c r="F135" s="5"/>
@@ -3864,7 +4995,7 @@
     <row r="136" spans="1:13" ht="63.6" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="5"/>
+      <c r="C136" s="6"/>
       <c r="D136" s="5"/>
       <c r="E136" s="6"/>
       <c r="F136" s="5"/>
@@ -3876,10 +5007,10 @@
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="77.7" customHeight="1">
+    <row r="137" spans="1:13" ht="77.650000000000006" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="5"/>
+      <c r="C137" s="6"/>
       <c r="D137" s="5"/>
       <c r="E137" s="6"/>
       <c r="F137" s="5"/>
@@ -3891,10 +5022,10 @@
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
     </row>
-    <row r="138" spans="1:13" ht="49.65" customHeight="1">
+    <row r="138" spans="1:13" ht="49.7" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="5"/>
+      <c r="C138" s="6"/>
       <c r="D138" s="5"/>
       <c r="E138" s="6"/>
       <c r="F138" s="5"/>
@@ -3909,7 +5040,7 @@
     <row r="139" spans="1:13" ht="63.6" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="5"/>
+      <c r="C139" s="6"/>
       <c r="D139" s="5"/>
       <c r="E139" s="6"/>
       <c r="F139" s="5"/>
@@ -3921,10 +5052,10 @@
       <c r="L139" s="5"/>
       <c r="M139" s="9"/>
     </row>
-    <row r="140" spans="1:13" ht="49.65" customHeight="1">
+    <row r="140" spans="1:13" ht="49.7" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="5"/>
+      <c r="C140" s="6"/>
       <c r="D140" s="5"/>
       <c r="E140" s="6"/>
       <c r="F140" s="5"/>
@@ -3936,10 +5067,10 @@
       <c r="L140" s="5"/>
       <c r="M140" s="9"/>
     </row>
-    <row r="141" spans="1:13" ht="49.65" customHeight="1">
+    <row r="141" spans="1:13" ht="49.7" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="5"/>
+      <c r="C141" s="6"/>
       <c r="D141" s="5"/>
       <c r="E141" s="6"/>
       <c r="F141" s="5"/>
@@ -3951,10 +5082,10 @@
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="49.65" customHeight="1">
+    <row r="142" spans="1:13" ht="49.7" customHeight="1">
       <c r="A142" s="10"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="5"/>
+      <c r="C142" s="6"/>
       <c r="D142" s="5"/>
       <c r="E142" s="6"/>
       <c r="F142" s="5"/>
@@ -3966,10 +5097,10 @@
       <c r="L142" s="9"/>
       <c r="M142" s="5"/>
     </row>
-    <row r="143" spans="1:13" ht="49.65" customHeight="1">
+    <row r="143" spans="1:13" ht="49.7" customHeight="1">
       <c r="A143" s="10"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="5"/>
+      <c r="C143" s="6"/>
       <c r="D143" s="5"/>
       <c r="E143" s="6"/>
       <c r="F143" s="5"/>
@@ -3981,10 +5112,10 @@
       <c r="L143" s="9"/>
       <c r="M143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="49.65" customHeight="1">
+    <row r="144" spans="1:13" ht="49.7" customHeight="1">
       <c r="A144" s="10"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="5"/>
+      <c r="C144" s="6"/>
       <c r="D144" s="5"/>
       <c r="E144" s="6"/>
       <c r="F144" s="5"/>
@@ -3996,10 +5127,10 @@
       <c r="L144" s="9"/>
       <c r="M144" s="5"/>
     </row>
-    <row r="145" spans="1:13" ht="49.65" customHeight="1">
+    <row r="145" spans="1:13" ht="49.7" customHeight="1">
       <c r="A145" s="10"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="5"/>
+      <c r="C145" s="6"/>
       <c r="D145" s="5"/>
       <c r="E145" s="6"/>
       <c r="F145" s="5"/>
@@ -4011,10 +5142,10 @@
       <c r="L145" s="9"/>
       <c r="M145" s="5"/>
     </row>
-    <row r="146" spans="1:13" ht="49.65" customHeight="1">
+    <row r="146" spans="1:13" ht="49.7" customHeight="1">
       <c r="A146" s="10"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="5"/>
+      <c r="C146" s="6"/>
       <c r="D146" s="5"/>
       <c r="E146" s="6"/>
       <c r="F146" s="5"/>
@@ -4026,10 +5157,10 @@
       <c r="L146" s="9"/>
       <c r="M146" s="5"/>
     </row>
-    <row r="147" spans="1:13" ht="49.65" customHeight="1">
+    <row r="147" spans="1:13" ht="49.7" customHeight="1">
       <c r="A147" s="10"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="5"/>
+      <c r="C147" s="6"/>
       <c r="D147" s="5"/>
       <c r="E147" s="6"/>
       <c r="F147" s="5"/>
@@ -4041,10 +5172,10 @@
       <c r="L147" s="9"/>
       <c r="M147" s="5"/>
     </row>
-    <row r="148" spans="1:13" ht="49.65" customHeight="1">
+    <row r="148" spans="1:13" ht="49.7" customHeight="1">
       <c r="A148" s="10"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="5"/>
+      <c r="C148" s="6"/>
       <c r="D148" s="5"/>
       <c r="E148" s="6"/>
       <c r="F148" s="5"/>
@@ -4056,10 +5187,10 @@
       <c r="L148" s="9"/>
       <c r="M148" s="5"/>
     </row>
-    <row r="149" spans="1:13" ht="49.65" customHeight="1">
+    <row r="149" spans="1:13" ht="49.7" customHeight="1">
       <c r="A149" s="10"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="5"/>
+      <c r="C149" s="6"/>
       <c r="D149" s="5"/>
       <c r="E149" s="6"/>
       <c r="F149" s="5"/>
@@ -4071,10 +5202,10 @@
       <c r="L149" s="9"/>
       <c r="M149" s="5"/>
     </row>
-    <row r="150" spans="1:13" ht="49.65" customHeight="1">
+    <row r="150" spans="1:13" ht="49.7" customHeight="1">
       <c r="A150" s="10"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="5"/>
+      <c r="C150" s="6"/>
       <c r="D150" s="5"/>
       <c r="E150" s="6"/>
       <c r="F150" s="5"/>
@@ -4086,10 +5217,10 @@
       <c r="L150" s="9"/>
       <c r="M150" s="5"/>
     </row>
-    <row r="151" spans="1:13" ht="49.65" customHeight="1">
+    <row r="151" spans="1:13" ht="49.7" customHeight="1">
       <c r="A151" s="10"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="5"/>
+      <c r="C151" s="6"/>
       <c r="D151" s="5"/>
       <c r="E151" s="6"/>
       <c r="F151" s="5"/>
@@ -4101,10 +5232,10 @@
       <c r="L151" s="9"/>
       <c r="M151" s="5"/>
     </row>
-    <row r="152" spans="1:13" ht="49.65" customHeight="1">
+    <row r="152" spans="1:13" ht="49.7" customHeight="1">
       <c r="A152" s="10"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="5"/>
+      <c r="C152" s="6"/>
       <c r="D152" s="5"/>
       <c r="E152" s="6"/>
       <c r="F152" s="5"/>
@@ -4116,10 +5247,10 @@
       <c r="L152" s="9"/>
       <c r="M152" s="5"/>
     </row>
-    <row r="153" spans="1:13" ht="49.65" customHeight="1">
+    <row r="153" spans="1:13" ht="49.7" customHeight="1">
       <c r="A153" s="10"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="5"/>
+      <c r="C153" s="6"/>
       <c r="D153" s="5"/>
       <c r="E153" s="6"/>
       <c r="F153" s="5"/>
@@ -4131,10 +5262,10 @@
       <c r="L153" s="9"/>
       <c r="M153" s="5"/>
     </row>
-    <row r="154" spans="1:13" ht="49.65" customHeight="1">
+    <row r="154" spans="1:13" ht="49.7" customHeight="1">
       <c r="A154" s="10"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="5"/>
+      <c r="C154" s="6"/>
       <c r="D154" s="5"/>
       <c r="E154" s="6"/>
       <c r="F154" s="5"/>
@@ -4146,10 +5277,10 @@
       <c r="L154" s="9"/>
       <c r="M154" s="5"/>
     </row>
-    <row r="155" spans="1:13" ht="49.65" customHeight="1">
+    <row r="155" spans="1:13" ht="49.7" customHeight="1">
       <c r="A155" s="10"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="5"/>
+      <c r="C155" s="6"/>
       <c r="D155" s="5"/>
       <c r="E155" s="6"/>
       <c r="F155" s="5"/>
@@ -4161,10 +5292,10 @@
       <c r="L155" s="9"/>
       <c r="M155" s="5"/>
     </row>
-    <row r="156" spans="1:13" ht="49.65" customHeight="1">
+    <row r="156" spans="1:13" ht="49.7" customHeight="1">
       <c r="A156" s="10"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="5"/>
+      <c r="C156" s="6"/>
       <c r="D156" s="5"/>
       <c r="E156" s="6"/>
       <c r="F156" s="5"/>
@@ -4176,10 +5307,10 @@
       <c r="L156" s="9"/>
       <c r="M156" s="5"/>
     </row>
-    <row r="157" spans="1:13" ht="49.65" customHeight="1">
+    <row r="157" spans="1:13" ht="49.7" customHeight="1">
       <c r="A157" s="10"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="5"/>
+      <c r="C157" s="6"/>
       <c r="D157" s="5"/>
       <c r="E157" s="6"/>
       <c r="F157" s="5"/>
@@ -4191,10 +5322,10 @@
       <c r="L157" s="9"/>
       <c r="M157" s="5"/>
     </row>
-    <row r="158" spans="1:13" ht="49.65" customHeight="1">
+    <row r="158" spans="1:13" ht="49.7" customHeight="1">
       <c r="A158" s="10"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="5"/>
+      <c r="C158" s="6"/>
       <c r="D158" s="5"/>
       <c r="E158" s="6"/>
       <c r="F158" s="5"/>
@@ -4206,10 +5337,10 @@
       <c r="L158" s="9"/>
       <c r="M158" s="5"/>
     </row>
-    <row r="159" spans="1:13" ht="49.65" customHeight="1">
+    <row r="159" spans="1:13" ht="49.7" customHeight="1">
       <c r="A159" s="10"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="5"/>
+      <c r="C159" s="6"/>
       <c r="D159" s="5"/>
       <c r="E159" s="6"/>
       <c r="F159" s="5"/>
@@ -4221,10 +5352,10 @@
       <c r="L159" s="9"/>
       <c r="M159" s="5"/>
     </row>
-    <row r="160" spans="1:13" ht="49.65" customHeight="1">
+    <row r="160" spans="1:13" ht="49.7" customHeight="1">
       <c r="A160" s="10"/>
       <c r="B160" s="4"/>
-      <c r="C160" s="5"/>
+      <c r="C160" s="6"/>
       <c r="D160" s="5"/>
       <c r="E160" s="6"/>
       <c r="F160" s="5"/>
@@ -4236,10 +5367,10 @@
       <c r="L160" s="9"/>
       <c r="M160" s="5"/>
     </row>
-    <row r="161" spans="1:13" ht="49.65" customHeight="1">
+    <row r="161" spans="1:13" ht="49.7" customHeight="1">
       <c r="A161" s="10"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="5"/>
+      <c r="C161" s="6"/>
       <c r="D161" s="5"/>
       <c r="E161" s="6"/>
       <c r="F161" s="5"/>
@@ -4251,10 +5382,10 @@
       <c r="L161" s="9"/>
       <c r="M161" s="5"/>
     </row>
-    <row r="162" spans="1:13" ht="49.65" customHeight="1">
+    <row r="162" spans="1:13" ht="49.7" customHeight="1">
       <c r="A162" s="10"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="5"/>
+      <c r="C162" s="6"/>
       <c r="D162" s="5"/>
       <c r="E162" s="6"/>
       <c r="F162" s="5"/>
@@ -4266,10 +5397,10 @@
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
     </row>
-    <row r="163" spans="1:13" ht="49.65" customHeight="1">
+    <row r="163" spans="1:13" ht="49.7" customHeight="1">
       <c r="A163" s="10"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="5"/>
+      <c r="C163" s="6"/>
       <c r="D163" s="5"/>
       <c r="E163" s="6"/>
       <c r="F163" s="5"/>
@@ -4281,10 +5412,10 @@
       <c r="L163" s="9"/>
       <c r="M163" s="9"/>
     </row>
-    <row r="164" spans="1:13" ht="49.65" customHeight="1">
+    <row r="164" spans="1:13" ht="49.7" customHeight="1">
       <c r="A164" s="10"/>
       <c r="B164" s="4"/>
-      <c r="C164" s="5"/>
+      <c r="C164" s="6"/>
       <c r="D164" s="5"/>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
@@ -4296,10 +5427,10 @@
       <c r="L164" s="9"/>
       <c r="M164" s="5"/>
     </row>
-    <row r="165" spans="1:13" ht="49.65" customHeight="1">
+    <row r="165" spans="1:13" ht="49.7" customHeight="1">
       <c r="A165" s="10"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="5"/>
+      <c r="C165" s="6"/>
       <c r="D165" s="5"/>
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
@@ -4311,10 +5442,10 @@
       <c r="L165" s="9"/>
       <c r="M165" s="5"/>
     </row>
-    <row r="166" spans="1:13" ht="49.65" customHeight="1">
+    <row r="166" spans="1:13" ht="49.7" customHeight="1">
       <c r="A166" s="10"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="5"/>
+      <c r="C166" s="6"/>
       <c r="D166" s="5"/>
       <c r="E166" s="6"/>
       <c r="F166" s="5"/>
@@ -4326,10 +5457,10 @@
       <c r="L166" s="9"/>
       <c r="M166" s="5"/>
     </row>
-    <row r="167" spans="1:13" ht="49.65" customHeight="1">
+    <row r="167" spans="1:13" ht="49.7" customHeight="1">
       <c r="A167" s="10"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="5"/>
+      <c r="C167" s="6"/>
       <c r="D167" s="5"/>
       <c r="E167" s="6"/>
       <c r="F167" s="5"/>
@@ -4341,10 +5472,10 @@
       <c r="L167" s="9"/>
       <c r="M167" s="5"/>
     </row>
-    <row r="168" spans="1:13" ht="49.65" customHeight="1">
+    <row r="168" spans="1:13" ht="49.7" customHeight="1">
       <c r="A168" s="10"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="5"/>
+      <c r="C168" s="6"/>
       <c r="D168" s="5"/>
       <c r="E168" s="6"/>
       <c r="F168" s="5"/>
@@ -4356,10 +5487,10 @@
       <c r="L168" s="9"/>
       <c r="M168" s="5"/>
     </row>
-    <row r="169" spans="1:13" ht="49.65" customHeight="1">
+    <row r="169" spans="1:13" ht="49.7" customHeight="1">
       <c r="A169" s="10"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="5"/>
+      <c r="C169" s="6"/>
       <c r="D169" s="5"/>
       <c r="E169" s="6"/>
       <c r="F169" s="5"/>
@@ -4371,10 +5502,10 @@
       <c r="L169" s="9"/>
       <c r="M169" s="5"/>
     </row>
-    <row r="170" spans="1:13" ht="49.65" customHeight="1">
+    <row r="170" spans="1:13" ht="49.7" customHeight="1">
       <c r="A170" s="10"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="5"/>
+      <c r="C170" s="6"/>
       <c r="D170" s="5"/>
       <c r="E170" s="6"/>
       <c r="F170" s="5"/>
@@ -4386,10 +5517,10 @@
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
     </row>
-    <row r="171" spans="1:13" ht="49.65" customHeight="1">
+    <row r="171" spans="1:13" ht="49.7" customHeight="1">
       <c r="A171" s="10"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="5"/>
+      <c r="C171" s="6"/>
       <c r="D171" s="5"/>
       <c r="E171" s="6"/>
       <c r="F171" s="5"/>
@@ -4401,10 +5532,10 @@
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
     </row>
-    <row r="172" spans="1:13" ht="49.65" customHeight="1">
+    <row r="172" spans="1:13" ht="49.7" customHeight="1">
       <c r="A172" s="10"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="5"/>
+      <c r="C172" s="6"/>
       <c r="D172" s="5"/>
       <c r="E172" s="6"/>
       <c r="F172" s="5"/>
@@ -4416,10 +5547,10 @@
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
     </row>
-    <row r="173" spans="1:13" ht="49.65" customHeight="1">
+    <row r="173" spans="1:13" ht="49.7" customHeight="1">
       <c r="A173" s="10"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="5"/>
+      <c r="C173" s="6"/>
       <c r="D173" s="5"/>
       <c r="E173" s="6"/>
       <c r="F173" s="5"/>
@@ -4431,10 +5562,10 @@
       <c r="L173" s="9"/>
       <c r="M173" s="9"/>
     </row>
-    <row r="174" spans="1:13" ht="49.65" customHeight="1">
+    <row r="174" spans="1:13" ht="49.7" customHeight="1">
       <c r="A174" s="10"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="5"/>
+      <c r="C174" s="6"/>
       <c r="D174" s="5"/>
       <c r="E174" s="6"/>
       <c r="F174" s="5"/>
@@ -4446,10 +5577,10 @@
       <c r="L174" s="9"/>
       <c r="M174" s="9"/>
     </row>
-    <row r="175" spans="1:13" ht="49.65" customHeight="1">
+    <row r="175" spans="1:13" ht="49.7" customHeight="1">
       <c r="A175" s="10"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="5"/>
+      <c r="C175" s="6"/>
       <c r="D175" s="5"/>
       <c r="E175" s="6"/>
       <c r="F175" s="5"/>
@@ -4461,10 +5592,10 @@
       <c r="L175" s="9"/>
       <c r="M175" s="9"/>
     </row>
-    <row r="176" spans="1:13" ht="49.65" customHeight="1">
+    <row r="176" spans="1:13" ht="49.7" customHeight="1">
       <c r="A176" s="10"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="5"/>
+      <c r="C176" s="6"/>
       <c r="D176" s="5"/>
       <c r="E176" s="6"/>
       <c r="F176" s="5"/>
@@ -4476,10 +5607,10 @@
       <c r="L176" s="9"/>
       <c r="M176" s="9"/>
     </row>
-    <row r="177" spans="1:13" ht="49.65" customHeight="1">
+    <row r="177" spans="1:13" ht="49.7" customHeight="1">
       <c r="A177" s="10"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="5"/>
+      <c r="C177" s="6"/>
       <c r="D177" s="5"/>
       <c r="E177" s="6"/>
       <c r="F177" s="5"/>
@@ -4491,10 +5622,10 @@
       <c r="L177" s="9"/>
       <c r="M177" s="5"/>
     </row>
-    <row r="178" spans="1:13" ht="49.65" customHeight="1">
+    <row r="178" spans="1:13" ht="49.7" customHeight="1">
       <c r="A178" s="10"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="5"/>
+      <c r="C178" s="6"/>
       <c r="D178" s="5"/>
       <c r="E178" s="6"/>
       <c r="F178" s="5"/>
@@ -4506,10 +5637,10 @@
       <c r="L178" s="9"/>
       <c r="M178" s="5"/>
     </row>
-    <row r="179" spans="1:13" ht="49.65" customHeight="1">
+    <row r="179" spans="1:13" ht="49.7" customHeight="1">
       <c r="A179" s="10"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="5"/>
+      <c r="C179" s="6"/>
       <c r="D179" s="5"/>
       <c r="E179" s="6"/>
       <c r="F179" s="5"/>
@@ -4521,10 +5652,10 @@
       <c r="L179" s="9"/>
       <c r="M179" s="5"/>
     </row>
-    <row r="180" spans="1:13" ht="49.65" customHeight="1">
+    <row r="180" spans="1:13" ht="49.7" customHeight="1">
       <c r="A180" s="10"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="5"/>
+      <c r="C180" s="6"/>
       <c r="D180" s="5"/>
       <c r="E180" s="6"/>
       <c r="F180" s="5"/>
@@ -4536,10 +5667,10 @@
       <c r="L180" s="9"/>
       <c r="M180" s="5"/>
     </row>
-    <row r="181" spans="1:13" ht="49.65" customHeight="1">
+    <row r="181" spans="1:13" ht="49.7" customHeight="1">
       <c r="A181" s="10"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="5"/>
+      <c r="C181" s="6"/>
       <c r="D181" s="5"/>
       <c r="E181" s="6"/>
       <c r="F181" s="5"/>
@@ -4551,10 +5682,10 @@
       <c r="L181" s="9"/>
       <c r="M181" s="5"/>
     </row>
-    <row r="182" spans="1:13" ht="49.65" customHeight="1">
+    <row r="182" spans="1:13" ht="49.7" customHeight="1">
       <c r="A182" s="10"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="5"/>
+      <c r="C182" s="6"/>
       <c r="D182" s="5"/>
       <c r="E182" s="6"/>
       <c r="F182" s="5"/>
@@ -4566,10 +5697,10 @@
       <c r="L182" s="9"/>
       <c r="M182" s="5"/>
     </row>
-    <row r="183" spans="1:13" ht="49.65" customHeight="1">
+    <row r="183" spans="1:13" ht="49.7" customHeight="1">
       <c r="A183" s="10"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="5"/>
+      <c r="C183" s="6"/>
       <c r="D183" s="5"/>
       <c r="E183" s="6"/>
       <c r="F183" s="5"/>
@@ -4581,10 +5712,10 @@
       <c r="L183" s="9"/>
       <c r="M183" s="5"/>
     </row>
-    <row r="184" spans="1:13" ht="49.65" customHeight="1">
+    <row r="184" spans="1:13" ht="49.7" customHeight="1">
       <c r="A184" s="10"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="5"/>
+      <c r="C184" s="6"/>
       <c r="D184" s="5"/>
       <c r="E184" s="6"/>
       <c r="F184" s="5"/>
@@ -4596,10 +5727,10 @@
       <c r="L184" s="9"/>
       <c r="M184" s="5"/>
     </row>
-    <row r="185" spans="1:13" ht="49.65" customHeight="1">
+    <row r="185" spans="1:13" ht="49.7" customHeight="1">
       <c r="A185" s="10"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="5"/>
+      <c r="C185" s="6"/>
       <c r="D185" s="5"/>
       <c r="E185" s="6"/>
       <c r="F185" s="5"/>
@@ -4611,10 +5742,10 @@
       <c r="L185" s="9"/>
       <c r="M185" s="5"/>
     </row>
-    <row r="186" spans="1:13" ht="49.65" customHeight="1">
+    <row r="186" spans="1:13" ht="49.7" customHeight="1">
       <c r="A186" s="10"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="5"/>
+      <c r="C186" s="6"/>
       <c r="D186" s="5"/>
       <c r="E186" s="6"/>
       <c r="F186" s="5"/>
@@ -4626,10 +5757,10 @@
       <c r="L186" s="9"/>
       <c r="M186" s="9"/>
     </row>
-    <row r="187" spans="1:13" ht="49.65" customHeight="1">
+    <row r="187" spans="1:13" ht="49.7" customHeight="1">
       <c r="A187" s="10"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="5"/>
+      <c r="C187" s="6"/>
       <c r="D187" s="5"/>
       <c r="E187" s="6"/>
       <c r="F187" s="5"/>
@@ -4641,10 +5772,10 @@
       <c r="L187" s="9"/>
       <c r="M187" s="9"/>
     </row>
-    <row r="188" spans="1:13" ht="49.65" customHeight="1">
+    <row r="188" spans="1:13" ht="49.7" customHeight="1">
       <c r="A188" s="10"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="5"/>
+      <c r="C188" s="6"/>
       <c r="D188" s="5"/>
       <c r="E188" s="6"/>
       <c r="F188" s="5"/>
@@ -4656,10 +5787,10 @@
       <c r="L188" s="9"/>
       <c r="M188" s="9"/>
     </row>
-    <row r="189" spans="1:13" ht="49.65" customHeight="1">
+    <row r="189" spans="1:13" ht="49.7" customHeight="1">
       <c r="A189" s="10"/>
       <c r="B189" s="4"/>
-      <c r="C189" s="5"/>
+      <c r="C189" s="6"/>
       <c r="D189" s="5"/>
       <c r="E189" s="6"/>
       <c r="F189" s="5"/>
@@ -4671,10 +5802,10 @@
       <c r="L189" s="9"/>
       <c r="M189" s="9"/>
     </row>
-    <row r="190" spans="1:13" ht="49.65" customHeight="1">
+    <row r="190" spans="1:13" ht="49.7" customHeight="1">
       <c r="A190" s="10"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="5"/>
+      <c r="C190" s="6"/>
       <c r="D190" s="5"/>
       <c r="E190" s="6"/>
       <c r="F190" s="5"/>
@@ -4686,10 +5817,10 @@
       <c r="L190" s="9"/>
       <c r="M190" s="9"/>
     </row>
-    <row r="191" spans="1:13" ht="49.65" customHeight="1">
+    <row r="191" spans="1:13" ht="49.7" customHeight="1">
       <c r="A191" s="10"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="5"/>
+      <c r="C191" s="6"/>
       <c r="D191" s="5"/>
       <c r="E191" s="6"/>
       <c r="F191" s="5"/>
@@ -4701,10 +5832,10 @@
       <c r="L191" s="9"/>
       <c r="M191" s="9"/>
     </row>
-    <row r="192" spans="1:13" ht="49.65" customHeight="1">
+    <row r="192" spans="1:13" ht="49.7" customHeight="1">
       <c r="A192" s="10"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="5"/>
+      <c r="C192" s="6"/>
       <c r="D192" s="5"/>
       <c r="E192" s="6"/>
       <c r="F192" s="5"/>
@@ -4716,10 +5847,10 @@
       <c r="L192" s="9"/>
       <c r="M192" s="9"/>
     </row>
-    <row r="193" spans="1:13" ht="49.65" customHeight="1">
+    <row r="193" spans="1:13" ht="49.7" customHeight="1">
       <c r="A193" s="10"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="5"/>
+      <c r="C193" s="6"/>
       <c r="D193" s="5"/>
       <c r="E193" s="6"/>
       <c r="F193" s="5"/>
@@ -4731,10 +5862,10 @@
       <c r="L193" s="9"/>
       <c r="M193" s="9"/>
     </row>
-    <row r="194" spans="1:13" ht="49.65" customHeight="1">
+    <row r="194" spans="1:13" ht="49.7" customHeight="1">
       <c r="A194" s="10"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="5"/>
+      <c r="C194" s="6"/>
       <c r="D194" s="5"/>
       <c r="E194" s="6"/>
       <c r="F194" s="5"/>
@@ -4746,10 +5877,10 @@
       <c r="L194" s="9"/>
       <c r="M194" s="9"/>
     </row>
-    <row r="195" spans="1:13" ht="49.65" customHeight="1">
+    <row r="195" spans="1:13" ht="49.7" customHeight="1">
       <c r="A195" s="10"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="5"/>
+      <c r="C195" s="6"/>
       <c r="D195" s="5"/>
       <c r="E195" s="6"/>
       <c r="F195" s="5"/>
@@ -4761,10 +5892,10 @@
       <c r="L195" s="5"/>
       <c r="M195" s="5"/>
     </row>
-    <row r="196" spans="1:13" ht="49.65" customHeight="1">
+    <row r="196" spans="1:13" ht="49.7" customHeight="1">
       <c r="A196" s="10"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="5"/>
+      <c r="C196" s="6"/>
       <c r="D196" s="5"/>
       <c r="E196" s="6"/>
       <c r="F196" s="5"/>
@@ -4776,10 +5907,10 @@
       <c r="L196" s="9"/>
       <c r="M196" s="5"/>
     </row>
-    <row r="197" spans="1:13" ht="49.65" customHeight="1">
+    <row r="197" spans="1:13" ht="49.7" customHeight="1">
       <c r="A197" s="10"/>
       <c r="B197" s="4"/>
-      <c r="C197" s="5"/>
+      <c r="C197" s="6"/>
       <c r="D197" s="5"/>
       <c r="E197" s="6"/>
       <c r="F197" s="5"/>
@@ -4791,10 +5922,10 @@
       <c r="L197" s="9"/>
       <c r="M197" s="9"/>
     </row>
-    <row r="198" spans="1:13" ht="49.65" customHeight="1">
+    <row r="198" spans="1:13" ht="49.7" customHeight="1">
       <c r="A198" s="10"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="5"/>
+      <c r="C198" s="6"/>
       <c r="D198" s="5"/>
       <c r="E198" s="6"/>
       <c r="F198" s="5"/>
@@ -4806,10 +5937,10 @@
       <c r="L198" s="9"/>
       <c r="M198" s="9"/>
     </row>
-    <row r="199" spans="1:13" ht="49.65" customHeight="1">
+    <row r="199" spans="1:13" ht="49.7" customHeight="1">
       <c r="A199" s="10"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="5"/>
+      <c r="C199" s="6"/>
       <c r="D199" s="5"/>
       <c r="E199" s="6"/>
       <c r="F199" s="5"/>
@@ -4821,10 +5952,10 @@
       <c r="L199" s="9"/>
       <c r="M199" s="9"/>
     </row>
-    <row r="200" spans="1:13" ht="49.65" customHeight="1">
+    <row r="200" spans="1:13" ht="49.7" customHeight="1">
       <c r="A200" s="10"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="5"/>
+      <c r="C200" s="6"/>
       <c r="D200" s="5"/>
       <c r="E200" s="6"/>
       <c r="F200" s="5"/>
@@ -4836,10 +5967,10 @@
       <c r="L200" s="9"/>
       <c r="M200" s="9"/>
     </row>
-    <row r="201" spans="1:13" ht="49.65" customHeight="1">
+    <row r="201" spans="1:13" ht="49.7" customHeight="1">
       <c r="A201" s="10"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="5"/>
+      <c r="C201" s="6"/>
       <c r="D201" s="5"/>
       <c r="E201" s="6"/>
       <c r="F201" s="5"/>
@@ -4851,10 +5982,10 @@
       <c r="L201" s="9"/>
       <c r="M201" s="9"/>
     </row>
-    <row r="202" spans="1:13" ht="49.65" customHeight="1">
+    <row r="202" spans="1:13" ht="49.7" customHeight="1">
       <c r="A202" s="10"/>
       <c r="B202" s="4"/>
-      <c r="C202" s="5"/>
+      <c r="C202" s="6"/>
       <c r="D202" s="5"/>
       <c r="E202" s="6"/>
       <c r="F202" s="5"/>
@@ -4866,10 +5997,10 @@
       <c r="L202" s="9"/>
       <c r="M202" s="9"/>
     </row>
-    <row r="203" spans="1:13" ht="49.65" customHeight="1">
+    <row r="203" spans="1:13" ht="49.7" customHeight="1">
       <c r="A203" s="10"/>
       <c r="B203" s="4"/>
-      <c r="C203" s="5"/>
+      <c r="C203" s="6"/>
       <c r="D203" s="5"/>
       <c r="E203" s="6"/>
       <c r="F203" s="5"/>
@@ -4881,10 +6012,10 @@
       <c r="L203" s="9"/>
       <c r="M203" s="9"/>
     </row>
-    <row r="204" spans="1:13" ht="49.65" customHeight="1">
+    <row r="204" spans="1:13" ht="49.7" customHeight="1">
       <c r="A204" s="10"/>
       <c r="B204" s="4"/>
-      <c r="C204" s="5"/>
+      <c r="C204" s="6"/>
       <c r="D204" s="5"/>
       <c r="E204" s="6"/>
       <c r="F204" s="5"/>
@@ -4896,10 +6027,10 @@
       <c r="L204" s="9"/>
       <c r="M204" s="9"/>
     </row>
-    <row r="205" spans="1:13" ht="49.65" customHeight="1">
+    <row r="205" spans="1:13" ht="49.7" customHeight="1">
       <c r="A205" s="10"/>
       <c r="B205" s="4"/>
-      <c r="C205" s="5"/>
+      <c r="C205" s="6"/>
       <c r="D205" s="5"/>
       <c r="E205" s="6"/>
       <c r="F205" s="5"/>
@@ -4911,10 +6042,10 @@
       <c r="L205" s="5"/>
       <c r="M205" s="5"/>
     </row>
-    <row r="206" spans="1:13" ht="49.65" customHeight="1">
+    <row r="206" spans="1:13" ht="49.7" customHeight="1">
       <c r="A206" s="10"/>
       <c r="B206" s="4"/>
-      <c r="C206" s="5"/>
+      <c r="C206" s="6"/>
       <c r="D206" s="5"/>
       <c r="E206" s="6"/>
       <c r="F206" s="5"/>
@@ -4926,10 +6057,10 @@
       <c r="L206" s="9"/>
       <c r="M206" s="5"/>
     </row>
-    <row r="207" spans="1:13" ht="49.65" customHeight="1">
+    <row r="207" spans="1:13" ht="49.7" customHeight="1">
       <c r="A207" s="10"/>
       <c r="B207" s="4"/>
-      <c r="C207" s="5"/>
+      <c r="C207" s="6"/>
       <c r="D207" s="5"/>
       <c r="E207" s="6"/>
       <c r="F207" s="5"/>
@@ -4941,10 +6072,10 @@
       <c r="L207" s="9"/>
       <c r="M207" s="5"/>
     </row>
-    <row r="208" spans="1:13" ht="49.65" customHeight="1">
+    <row r="208" spans="1:13" ht="49.7" customHeight="1">
       <c r="A208" s="10"/>
       <c r="B208" s="4"/>
-      <c r="C208" s="5"/>
+      <c r="C208" s="6"/>
       <c r="D208" s="5"/>
       <c r="E208" s="6"/>
       <c r="F208" s="5"/>
@@ -4956,10 +6087,10 @@
       <c r="L208" s="9"/>
       <c r="M208" s="9"/>
     </row>
-    <row r="209" spans="1:13" ht="49.65" customHeight="1">
+    <row r="209" spans="1:13" ht="49.7" customHeight="1">
       <c r="A209" s="10"/>
       <c r="B209" s="4"/>
-      <c r="C209" s="5"/>
+      <c r="C209" s="6"/>
       <c r="D209" s="5"/>
       <c r="E209" s="6"/>
       <c r="F209" s="5"/>
@@ -4971,10 +6102,10 @@
       <c r="L209" s="9"/>
       <c r="M209" s="9"/>
     </row>
-    <row r="210" spans="1:13" ht="49.65" customHeight="1">
+    <row r="210" spans="1:13" ht="49.7" customHeight="1">
       <c r="A210" s="10"/>
       <c r="B210" s="4"/>
-      <c r="C210" s="5"/>
+      <c r="C210" s="6"/>
       <c r="D210" s="5"/>
       <c r="E210" s="6"/>
       <c r="F210" s="5"/>
@@ -4986,10 +6117,10 @@
       <c r="L210" s="9"/>
       <c r="M210" s="9"/>
     </row>
-    <row r="211" spans="1:13" ht="49.65" customHeight="1">
+    <row r="211" spans="1:13" ht="49.7" customHeight="1">
       <c r="A211" s="10"/>
       <c r="B211" s="4"/>
-      <c r="C211" s="5"/>
+      <c r="C211" s="6"/>
       <c r="D211" s="5"/>
       <c r="E211" s="6"/>
       <c r="F211" s="5"/>
@@ -5001,10 +6132,10 @@
       <c r="L211" s="9"/>
       <c r="M211" s="5"/>
     </row>
-    <row r="212" spans="1:13" ht="49.65" customHeight="1">
+    <row r="212" spans="1:13" ht="49.7" customHeight="1">
       <c r="A212" s="10"/>
       <c r="B212" s="4"/>
-      <c r="C212" s="5"/>
+      <c r="C212" s="6"/>
       <c r="D212" s="5"/>
       <c r="E212" s="6"/>
       <c r="F212" s="5"/>
@@ -5016,10 +6147,10 @@
       <c r="L212" s="9"/>
       <c r="M212" s="5"/>
     </row>
-    <row r="213" spans="1:13" ht="49.65" customHeight="1">
+    <row r="213" spans="1:13" ht="49.7" customHeight="1">
       <c r="A213" s="10"/>
       <c r="B213" s="4"/>
-      <c r="C213" s="5"/>
+      <c r="C213" s="6"/>
       <c r="D213" s="5"/>
       <c r="E213" s="6"/>
       <c r="F213" s="5"/>
@@ -5031,10 +6162,10 @@
       <c r="L213" s="9"/>
       <c r="M213" s="5"/>
     </row>
-    <row r="214" spans="1:13" ht="49.65" customHeight="1">
+    <row r="214" spans="1:13" ht="49.7" customHeight="1">
       <c r="A214" s="10"/>
       <c r="B214" s="4"/>
-      <c r="C214" s="5"/>
+      <c r="C214" s="6"/>
       <c r="D214" s="5"/>
       <c r="E214" s="6"/>
       <c r="F214" s="5"/>
@@ -5046,10 +6177,10 @@
       <c r="L214" s="9"/>
       <c r="M214" s="5"/>
     </row>
-    <row r="215" spans="1:13" ht="49.65" customHeight="1">
+    <row r="215" spans="1:13" ht="49.7" customHeight="1">
       <c r="A215" s="10"/>
       <c r="B215" s="4"/>
-      <c r="C215" s="5"/>
+      <c r="C215" s="6"/>
       <c r="D215" s="5"/>
       <c r="E215" s="6"/>
       <c r="F215" s="5"/>
@@ -5061,10 +6192,10 @@
       <c r="L215" s="9"/>
       <c r="M215" s="5"/>
     </row>
-    <row r="216" spans="1:13" ht="49.65" customHeight="1">
+    <row r="216" spans="1:13" ht="49.7" customHeight="1">
       <c r="A216" s="10"/>
       <c r="B216" s="4"/>
-      <c r="C216" s="5"/>
+      <c r="C216" s="6"/>
       <c r="D216" s="5"/>
       <c r="E216" s="6"/>
       <c r="F216" s="5"/>
@@ -5076,10 +6207,10 @@
       <c r="L216" s="9"/>
       <c r="M216" s="5"/>
     </row>
-    <row r="217" spans="1:13" ht="49.65" customHeight="1">
+    <row r="217" spans="1:13" ht="49.7" customHeight="1">
       <c r="A217" s="10"/>
       <c r="B217" s="4"/>
-      <c r="C217" s="5"/>
+      <c r="C217" s="6"/>
       <c r="D217" s="5"/>
       <c r="E217" s="6"/>
       <c r="F217" s="5"/>
@@ -5091,10 +6222,10 @@
       <c r="L217" s="9"/>
       <c r="M217" s="5"/>
     </row>
-    <row r="218" spans="1:13" ht="49.65" customHeight="1">
+    <row r="218" spans="1:13" ht="49.7" customHeight="1">
       <c r="A218" s="10"/>
       <c r="B218" s="4"/>
-      <c r="C218" s="5"/>
+      <c r="C218" s="6"/>
       <c r="D218" s="5"/>
       <c r="E218" s="6"/>
       <c r="F218" s="5"/>
@@ -5106,10 +6237,10 @@
       <c r="L218" s="9"/>
       <c r="M218" s="5"/>
     </row>
-    <row r="219" spans="1:13" ht="49.65" customHeight="1">
+    <row r="219" spans="1:13" ht="49.7" customHeight="1">
       <c r="A219" s="10"/>
       <c r="B219" s="4"/>
-      <c r="C219" s="5"/>
+      <c r="C219" s="6"/>
       <c r="D219" s="5"/>
       <c r="E219" s="6"/>
       <c r="F219" s="5"/>
@@ -5121,10 +6252,10 @@
       <c r="L219" s="9"/>
       <c r="M219" s="5"/>
     </row>
-    <row r="220" spans="1:13" ht="49.65" customHeight="1">
+    <row r="220" spans="1:13" ht="49.7" customHeight="1">
       <c r="A220" s="10"/>
       <c r="B220" s="4"/>
-      <c r="C220" s="5"/>
+      <c r="C220" s="6"/>
       <c r="D220" s="5"/>
       <c r="E220" s="6"/>
       <c r="F220" s="5"/>
@@ -5136,10 +6267,10 @@
       <c r="L220" s="9"/>
       <c r="M220" s="5"/>
     </row>
-    <row r="221" spans="1:13" ht="49.65" customHeight="1">
+    <row r="221" spans="1:13" ht="49.7" customHeight="1">
       <c r="A221" s="10"/>
       <c r="B221" s="4"/>
-      <c r="C221" s="5"/>
+      <c r="C221" s="6"/>
       <c r="D221" s="5"/>
       <c r="E221" s="6"/>
       <c r="F221" s="5"/>
@@ -5151,10 +6282,10 @@
       <c r="L221" s="9"/>
       <c r="M221" s="5"/>
     </row>
-    <row r="222" spans="1:13" ht="49.65" customHeight="1">
+    <row r="222" spans="1:13" ht="49.7" customHeight="1">
       <c r="A222" s="10"/>
       <c r="B222" s="4"/>
-      <c r="C222" s="5"/>
+      <c r="C222" s="6"/>
       <c r="D222" s="5"/>
       <c r="E222" s="6"/>
       <c r="F222" s="5"/>
@@ -5166,10 +6297,10 @@
       <c r="L222" s="9"/>
       <c r="M222" s="5"/>
     </row>
-    <row r="223" spans="1:13" ht="49.65" customHeight="1">
+    <row r="223" spans="1:13" ht="49.7" customHeight="1">
       <c r="A223" s="10"/>
       <c r="B223" s="4"/>
-      <c r="C223" s="5"/>
+      <c r="C223" s="6"/>
       <c r="D223" s="5"/>
       <c r="E223" s="6"/>
       <c r="F223" s="5"/>
@@ -5181,10 +6312,10 @@
       <c r="L223" s="9"/>
       <c r="M223" s="5"/>
     </row>
-    <row r="224" spans="1:13" ht="49.65" customHeight="1">
+    <row r="224" spans="1:13" ht="49.7" customHeight="1">
       <c r="A224" s="10"/>
       <c r="B224" s="4"/>
-      <c r="C224" s="5"/>
+      <c r="C224" s="6"/>
       <c r="D224" s="5"/>
       <c r="E224" s="6"/>
       <c r="F224" s="5"/>
@@ -5196,10 +6327,10 @@
       <c r="L224" s="9"/>
       <c r="M224" s="5"/>
     </row>
-    <row r="225" spans="1:13" ht="49.65" customHeight="1">
+    <row r="225" spans="1:13" ht="49.7" customHeight="1">
       <c r="A225" s="10"/>
       <c r="B225" s="4"/>
-      <c r="C225" s="5"/>
+      <c r="C225" s="6"/>
       <c r="D225" s="5"/>
       <c r="E225" s="6"/>
       <c r="F225" s="5"/>
@@ -5211,10 +6342,10 @@
       <c r="L225" s="9"/>
       <c r="M225" s="5"/>
     </row>
-    <row r="226" spans="1:13" ht="49.65" customHeight="1">
+    <row r="226" spans="1:13" ht="49.7" customHeight="1">
       <c r="A226" s="10"/>
       <c r="B226" s="4"/>
-      <c r="C226" s="5"/>
+      <c r="C226" s="6"/>
       <c r="D226" s="5"/>
       <c r="E226" s="6"/>
       <c r="F226" s="5"/>
@@ -5226,10 +6357,10 @@
       <c r="L226" s="9"/>
       <c r="M226" s="5"/>
     </row>
-    <row r="227" spans="1:13" ht="49.65" customHeight="1">
+    <row r="227" spans="1:13" ht="49.7" customHeight="1">
       <c r="A227" s="10"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="5"/>
+      <c r="C227" s="6"/>
       <c r="D227" s="5"/>
       <c r="E227" s="6"/>
       <c r="F227" s="5"/>
@@ -5241,10 +6372,10 @@
       <c r="L227" s="9"/>
       <c r="M227" s="5"/>
     </row>
-    <row r="228" spans="1:13" ht="49.65" customHeight="1">
+    <row r="228" spans="1:13" ht="49.7" customHeight="1">
       <c r="A228" s="10"/>
       <c r="B228" s="4"/>
-      <c r="C228" s="5"/>
+      <c r="C228" s="6"/>
       <c r="D228" s="5"/>
       <c r="E228" s="6"/>
       <c r="F228" s="5"/>
@@ -5256,10 +6387,10 @@
       <c r="L228" s="9"/>
       <c r="M228" s="5"/>
     </row>
-    <row r="229" spans="1:13" ht="49.65" customHeight="1">
+    <row r="229" spans="1:13" ht="49.7" customHeight="1">
       <c r="A229" s="10"/>
       <c r="B229" s="4"/>
-      <c r="C229" s="5"/>
+      <c r="C229" s="6"/>
       <c r="D229" s="5"/>
       <c r="E229" s="6"/>
       <c r="F229" s="5"/>
@@ -5271,10 +6402,10 @@
       <c r="L229" s="9"/>
       <c r="M229" s="5"/>
     </row>
-    <row r="230" spans="1:13" ht="49.65" customHeight="1">
+    <row r="230" spans="1:13" ht="49.7" customHeight="1">
       <c r="A230" s="10"/>
       <c r="B230" s="4"/>
-      <c r="C230" s="5"/>
+      <c r="C230" s="6"/>
       <c r="D230" s="5"/>
       <c r="E230" s="6"/>
       <c r="F230" s="5"/>
@@ -5286,10 +6417,10 @@
       <c r="L230" s="9"/>
       <c r="M230" s="5"/>
     </row>
-    <row r="231" spans="1:13" ht="49.65" customHeight="1">
+    <row r="231" spans="1:13" ht="49.7" customHeight="1">
       <c r="A231" s="10"/>
       <c r="B231" s="4"/>
-      <c r="C231" s="5"/>
+      <c r="C231" s="6"/>
       <c r="D231" s="5"/>
       <c r="E231" s="6"/>
       <c r="F231" s="5"/>
@@ -5301,10 +6432,10 @@
       <c r="L231" s="9"/>
       <c r="M231" s="5"/>
     </row>
-    <row r="232" spans="1:13" ht="49.65" customHeight="1">
+    <row r="232" spans="1:13" ht="49.7" customHeight="1">
       <c r="A232" s="10"/>
       <c r="B232" s="4"/>
-      <c r="C232" s="5"/>
+      <c r="C232" s="6"/>
       <c r="D232" s="5"/>
       <c r="E232" s="6"/>
       <c r="F232" s="5"/>
@@ -5316,10 +6447,10 @@
       <c r="L232" s="9"/>
       <c r="M232" s="5"/>
     </row>
-    <row r="233" spans="1:13" ht="49.65" customHeight="1">
+    <row r="233" spans="1:13" ht="49.7" customHeight="1">
       <c r="A233" s="10"/>
       <c r="B233" s="4"/>
-      <c r="C233" s="5"/>
+      <c r="C233" s="6"/>
       <c r="D233" s="5"/>
       <c r="E233" s="6"/>
       <c r="F233" s="5"/>
@@ -5331,10 +6462,10 @@
       <c r="L233" s="9"/>
       <c r="M233" s="9"/>
     </row>
-    <row r="234" spans="1:13" ht="49.65" customHeight="1">
+    <row r="234" spans="1:13" ht="49.7" customHeight="1">
       <c r="A234" s="10"/>
       <c r="B234" s="4"/>
-      <c r="C234" s="5"/>
+      <c r="C234" s="6"/>
       <c r="D234" s="5"/>
       <c r="E234" s="6"/>
       <c r="F234" s="5"/>
@@ -5346,10 +6477,10 @@
       <c r="L234" s="9"/>
       <c r="M234" s="5"/>
     </row>
-    <row r="235" spans="1:13" ht="49.65" customHeight="1">
+    <row r="235" spans="1:13" ht="49.7" customHeight="1">
       <c r="A235" s="10"/>
       <c r="B235" s="4"/>
-      <c r="C235" s="5"/>
+      <c r="C235" s="6"/>
       <c r="D235" s="5"/>
       <c r="E235" s="6"/>
       <c r="F235" s="5"/>
@@ -5361,10 +6492,10 @@
       <c r="L235" s="9"/>
       <c r="M235" s="5"/>
     </row>
-    <row r="236" spans="1:13" ht="49.65" customHeight="1">
+    <row r="236" spans="1:13" ht="49.7" customHeight="1">
       <c r="A236" s="10"/>
       <c r="B236" s="4"/>
-      <c r="C236" s="5"/>
+      <c r="C236" s="6"/>
       <c r="D236" s="5"/>
       <c r="E236" s="6"/>
       <c r="F236" s="5"/>
@@ -5376,10 +6507,10 @@
       <c r="L236" s="9"/>
       <c r="M236" s="5"/>
     </row>
-    <row r="237" spans="1:13" ht="49.65" customHeight="1">
+    <row r="237" spans="1:13" ht="49.7" customHeight="1">
       <c r="A237" s="10"/>
       <c r="B237" s="4"/>
-      <c r="C237" s="5"/>
+      <c r="C237" s="6"/>
       <c r="D237" s="5"/>
       <c r="E237" s="6"/>
       <c r="F237" s="5"/>
@@ -5391,10 +6522,10 @@
       <c r="L237" s="9"/>
       <c r="M237" s="5"/>
     </row>
-    <row r="238" spans="1:13" ht="49.65" customHeight="1">
+    <row r="238" spans="1:13" ht="49.7" customHeight="1">
       <c r="A238" s="10"/>
       <c r="B238" s="4"/>
-      <c r="C238" s="5"/>
+      <c r="C238" s="6"/>
       <c r="D238" s="5"/>
       <c r="E238" s="6"/>
       <c r="F238" s="5"/>
@@ -5406,10 +6537,10 @@
       <c r="L238" s="9"/>
       <c r="M238" s="5"/>
     </row>
-    <row r="239" spans="1:13" ht="49.65" customHeight="1">
+    <row r="239" spans="1:13" ht="49.7" customHeight="1">
       <c r="A239" s="10"/>
       <c r="B239" s="4"/>
-      <c r="C239" s="5"/>
+      <c r="C239" s="6"/>
       <c r="D239" s="5"/>
       <c r="E239" s="6"/>
       <c r="F239" s="5"/>
@@ -5421,10 +6552,10 @@
       <c r="L239" s="9"/>
       <c r="M239" s="5"/>
     </row>
-    <row r="240" spans="1:13" ht="49.65" customHeight="1">
+    <row r="240" spans="1:13" ht="49.7" customHeight="1">
       <c r="A240" s="10"/>
       <c r="B240" s="4"/>
-      <c r="C240" s="5"/>
+      <c r="C240" s="6"/>
       <c r="D240" s="5"/>
       <c r="E240" s="6"/>
       <c r="F240" s="5"/>
@@ -5436,10 +6567,10 @@
       <c r="L240" s="9"/>
       <c r="M240" s="5"/>
     </row>
-    <row r="241" spans="1:13" ht="49.65" customHeight="1">
+    <row r="241" spans="1:13" ht="49.7" customHeight="1">
       <c r="A241" s="10"/>
       <c r="B241" s="4"/>
-      <c r="C241" s="5"/>
+      <c r="C241" s="6"/>
       <c r="D241" s="5"/>
       <c r="E241" s="6"/>
       <c r="F241" s="5"/>
@@ -5451,10 +6582,10 @@
       <c r="L241" s="9"/>
       <c r="M241" s="5"/>
     </row>
-    <row r="242" spans="1:13" ht="49.65" customHeight="1">
+    <row r="242" spans="1:13" ht="49.7" customHeight="1">
       <c r="A242" s="10"/>
       <c r="B242" s="4"/>
-      <c r="C242" s="5"/>
+      <c r="C242" s="6"/>
       <c r="D242" s="5"/>
       <c r="E242" s="6"/>
       <c r="F242" s="5"/>
@@ -5466,10 +6597,10 @@
       <c r="L242" s="9"/>
       <c r="M242" s="5"/>
     </row>
-    <row r="243" spans="1:13" ht="49.65" customHeight="1">
+    <row r="243" spans="1:13" ht="49.7" customHeight="1">
       <c r="A243" s="10"/>
       <c r="B243" s="4"/>
-      <c r="C243" s="5"/>
+      <c r="C243" s="6"/>
       <c r="D243" s="5"/>
       <c r="E243" s="6"/>
       <c r="F243" s="5"/>
@@ -5481,10 +6612,10 @@
       <c r="L243" s="9"/>
       <c r="M243" s="5"/>
     </row>
-    <row r="244" spans="1:13" ht="49.65" customHeight="1">
+    <row r="244" spans="1:13" ht="49.7" customHeight="1">
       <c r="A244" s="10"/>
       <c r="B244" s="4"/>
-      <c r="C244" s="5"/>
+      <c r="C244" s="6"/>
       <c r="D244" s="5"/>
       <c r="E244" s="6"/>
       <c r="F244" s="5"/>
@@ -5496,10 +6627,10 @@
       <c r="L244" s="9"/>
       <c r="M244" s="5"/>
     </row>
-    <row r="245" spans="1:13" ht="49.65" customHeight="1">
+    <row r="245" spans="1:13" ht="49.7" customHeight="1">
       <c r="A245" s="10"/>
       <c r="B245" s="4"/>
-      <c r="C245" s="5"/>
+      <c r="C245" s="6"/>
       <c r="D245" s="5"/>
       <c r="E245" s="6"/>
       <c r="F245" s="5"/>
@@ -5511,10 +6642,10 @@
       <c r="L245" s="9"/>
       <c r="M245" s="5"/>
     </row>
-    <row r="246" spans="1:13" ht="49.65" customHeight="1">
+    <row r="246" spans="1:13" ht="49.7" customHeight="1">
       <c r="A246" s="10"/>
       <c r="B246" s="4"/>
-      <c r="C246" s="5"/>
+      <c r="C246" s="6"/>
       <c r="D246" s="5"/>
       <c r="E246" s="6"/>
       <c r="F246" s="5"/>
@@ -5526,10 +6657,10 @@
       <c r="L246" s="9"/>
       <c r="M246" s="5"/>
     </row>
-    <row r="247" spans="1:13" ht="49.65" customHeight="1">
+    <row r="247" spans="1:13" ht="49.7" customHeight="1">
       <c r="A247" s="10"/>
       <c r="B247" s="4"/>
-      <c r="C247" s="5"/>
+      <c r="C247" s="6"/>
       <c r="D247" s="5"/>
       <c r="E247" s="6"/>
       <c r="F247" s="5"/>
@@ -5541,10 +6672,10 @@
       <c r="L247" s="9"/>
       <c r="M247" s="5"/>
     </row>
-    <row r="248" spans="1:13" ht="49.65" customHeight="1">
+    <row r="248" spans="1:13" ht="49.7" customHeight="1">
       <c r="A248" s="10"/>
       <c r="B248" s="4"/>
-      <c r="C248" s="5"/>
+      <c r="C248" s="6"/>
       <c r="D248" s="5"/>
       <c r="E248" s="6"/>
       <c r="F248" s="5"/>
@@ -5556,10 +6687,10 @@
       <c r="L248" s="9"/>
       <c r="M248" s="5"/>
     </row>
-    <row r="249" spans="1:13" ht="49.65" customHeight="1">
+    <row r="249" spans="1:13" ht="49.7" customHeight="1">
       <c r="A249" s="10"/>
       <c r="B249" s="4"/>
-      <c r="C249" s="5"/>
+      <c r="C249" s="6"/>
       <c r="D249" s="5"/>
       <c r="E249" s="6"/>
       <c r="F249" s="5"/>
@@ -5571,10 +6702,10 @@
       <c r="L249" s="9"/>
       <c r="M249" s="5"/>
     </row>
-    <row r="250" spans="1:13" ht="49.65" customHeight="1">
+    <row r="250" spans="1:13" ht="49.7" customHeight="1">
       <c r="A250" s="10"/>
       <c r="B250" s="4"/>
-      <c r="C250" s="5"/>
+      <c r="C250" s="6"/>
       <c r="D250" s="5"/>
       <c r="E250" s="6"/>
       <c r="F250" s="5"/>
@@ -5586,10 +6717,10 @@
       <c r="L250" s="9"/>
       <c r="M250" s="5"/>
     </row>
-    <row r="251" spans="1:13" ht="49.65" customHeight="1">
+    <row r="251" spans="1:13" ht="49.7" customHeight="1">
       <c r="A251" s="10"/>
       <c r="B251" s="4"/>
-      <c r="C251" s="5"/>
+      <c r="C251" s="6"/>
       <c r="D251" s="5"/>
       <c r="E251" s="6"/>
       <c r="F251" s="5"/>
@@ -5601,10 +6732,10 @@
       <c r="L251" s="9"/>
       <c r="M251" s="5"/>
     </row>
-    <row r="252" spans="1:13" ht="49.65" customHeight="1">
+    <row r="252" spans="1:13" ht="49.7" customHeight="1">
       <c r="A252" s="10"/>
       <c r="B252" s="4"/>
-      <c r="C252" s="5"/>
+      <c r="C252" s="6"/>
       <c r="D252" s="5"/>
       <c r="E252" s="6"/>
       <c r="F252" s="5"/>
@@ -5616,10 +6747,10 @@
       <c r="L252" s="9"/>
       <c r="M252" s="5"/>
     </row>
-    <row r="253" spans="1:13" ht="49.65" customHeight="1">
+    <row r="253" spans="1:13" ht="49.7" customHeight="1">
       <c r="A253" s="10"/>
       <c r="B253" s="4"/>
-      <c r="C253" s="5"/>
+      <c r="C253" s="6"/>
       <c r="D253" s="5"/>
       <c r="E253" s="6"/>
       <c r="F253" s="5"/>
@@ -5631,10 +6762,10 @@
       <c r="L253" s="9"/>
       <c r="M253" s="5"/>
     </row>
-    <row r="254" spans="1:13" ht="49.65" customHeight="1">
+    <row r="254" spans="1:13" ht="49.7" customHeight="1">
       <c r="A254" s="10"/>
       <c r="B254" s="4"/>
-      <c r="C254" s="5"/>
+      <c r="C254" s="6"/>
       <c r="D254" s="5"/>
       <c r="E254" s="6"/>
       <c r="F254" s="5"/>
@@ -5646,10 +6777,10 @@
       <c r="L254" s="9"/>
       <c r="M254" s="5"/>
     </row>
-    <row r="255" spans="1:13" ht="49.65" customHeight="1">
+    <row r="255" spans="1:13" ht="49.7" customHeight="1">
       <c r="A255" s="10"/>
       <c r="B255" s="4"/>
-      <c r="C255" s="5"/>
+      <c r="C255" s="6"/>
       <c r="D255" s="5"/>
       <c r="E255" s="6"/>
       <c r="F255" s="5"/>
@@ -5661,10 +6792,10 @@
       <c r="L255" s="9"/>
       <c r="M255" s="5"/>
     </row>
-    <row r="256" spans="1:13" ht="49.65" customHeight="1">
+    <row r="256" spans="1:13" ht="49.7" customHeight="1">
       <c r="A256" s="10"/>
       <c r="B256" s="4"/>
-      <c r="C256" s="5"/>
+      <c r="C256" s="6"/>
       <c r="D256" s="5"/>
       <c r="E256" s="6"/>
       <c r="F256" s="5"/>
@@ -5676,10 +6807,10 @@
       <c r="L256" s="9"/>
       <c r="M256" s="9"/>
     </row>
-    <row r="257" spans="1:13" ht="49.65" customHeight="1">
+    <row r="257" spans="1:13" ht="49.7" customHeight="1">
       <c r="A257" s="10"/>
       <c r="B257" s="4"/>
-      <c r="C257" s="5"/>
+      <c r="C257" s="6"/>
       <c r="D257" s="5"/>
       <c r="E257" s="6"/>
       <c r="F257" s="5"/>
@@ -5691,10 +6822,10 @@
       <c r="L257" s="9"/>
       <c r="M257" s="9"/>
     </row>
-    <row r="258" spans="1:13" ht="49.65" customHeight="1">
+    <row r="258" spans="1:13" ht="49.7" customHeight="1">
       <c r="A258" s="10"/>
       <c r="B258" s="4"/>
-      <c r="C258" s="5"/>
+      <c r="C258" s="6"/>
       <c r="D258" s="5"/>
       <c r="E258" s="6"/>
       <c r="F258" s="5"/>
@@ -5706,10 +6837,10 @@
       <c r="L258" s="9"/>
       <c r="M258" s="9"/>
     </row>
-    <row r="259" spans="1:13" ht="49.65" customHeight="1">
+    <row r="259" spans="1:13" ht="49.7" customHeight="1">
       <c r="A259" s="10"/>
       <c r="B259" s="4"/>
-      <c r="C259" s="5"/>
+      <c r="C259" s="6"/>
       <c r="D259" s="5"/>
       <c r="E259" s="6"/>
       <c r="F259" s="5"/>
@@ -5721,10 +6852,10 @@
       <c r="L259" s="9"/>
       <c r="M259" s="9"/>
     </row>
-    <row r="260" spans="1:13" ht="49.65" customHeight="1">
+    <row r="260" spans="1:13" ht="49.7" customHeight="1">
       <c r="A260" s="10"/>
       <c r="B260" s="4"/>
-      <c r="C260" s="5"/>
+      <c r="C260" s="6"/>
       <c r="D260" s="5"/>
       <c r="E260" s="6"/>
       <c r="F260" s="5"/>
@@ -5736,10 +6867,10 @@
       <c r="L260" s="9"/>
       <c r="M260" s="9"/>
     </row>
-    <row r="261" spans="1:13" ht="49.65" customHeight="1">
+    <row r="261" spans="1:13" ht="49.7" customHeight="1">
       <c r="A261" s="10"/>
       <c r="B261" s="4"/>
-      <c r="C261" s="5"/>
+      <c r="C261" s="6"/>
       <c r="D261" s="5"/>
       <c r="E261" s="6"/>
       <c r="F261" s="5"/>
@@ -5751,10 +6882,10 @@
       <c r="L261" s="9"/>
       <c r="M261" s="9"/>
     </row>
-    <row r="262" spans="1:13" ht="49.65" customHeight="1">
+    <row r="262" spans="1:13" ht="49.7" customHeight="1">
       <c r="A262" s="10"/>
       <c r="B262" s="4"/>
-      <c r="C262" s="5"/>
+      <c r="C262" s="6"/>
       <c r="D262" s="5"/>
       <c r="E262" s="6"/>
       <c r="F262" s="5"/>
@@ -5766,10 +6897,10 @@
       <c r="L262" s="9"/>
       <c r="M262" s="9"/>
     </row>
-    <row r="263" spans="1:13" ht="49.65" customHeight="1">
+    <row r="263" spans="1:13" ht="49.7" customHeight="1">
       <c r="A263" s="10"/>
       <c r="B263" s="4"/>
-      <c r="C263" s="5"/>
+      <c r="C263" s="6"/>
       <c r="D263" s="5"/>
       <c r="E263" s="6"/>
       <c r="F263" s="5"/>
@@ -5781,10 +6912,10 @@
       <c r="L263" s="9"/>
       <c r="M263" s="9"/>
     </row>
-    <row r="264" spans="1:13" ht="49.65" customHeight="1">
+    <row r="264" spans="1:13" ht="49.7" customHeight="1">
       <c r="A264" s="10"/>
       <c r="B264" s="4"/>
-      <c r="C264" s="5"/>
+      <c r="C264" s="6"/>
       <c r="D264" s="5"/>
       <c r="E264" s="6"/>
       <c r="F264" s="5"/>
@@ -5796,10 +6927,10 @@
       <c r="L264" s="9"/>
       <c r="M264" s="9"/>
     </row>
-    <row r="265" spans="1:13" ht="49.65" customHeight="1">
+    <row r="265" spans="1:13" ht="49.7" customHeight="1">
       <c r="A265" s="10"/>
       <c r="B265" s="4"/>
-      <c r="C265" s="5"/>
+      <c r="C265" s="6"/>
       <c r="D265" s="5"/>
       <c r="E265" s="6"/>
       <c r="F265" s="5"/>
@@ -5811,10 +6942,10 @@
       <c r="L265" s="9"/>
       <c r="M265" s="9"/>
     </row>
-    <row r="266" spans="1:13" ht="49.65" customHeight="1">
+    <row r="266" spans="1:13" ht="49.7" customHeight="1">
       <c r="A266" s="10"/>
       <c r="B266" s="4"/>
-      <c r="C266" s="5"/>
+      <c r="C266" s="6"/>
       <c r="D266" s="5"/>
       <c r="E266" s="6"/>
       <c r="F266" s="5"/>
@@ -5826,10 +6957,10 @@
       <c r="L266" s="9"/>
       <c r="M266" s="9"/>
     </row>
-    <row r="267" spans="1:13" ht="49.65" customHeight="1">
+    <row r="267" spans="1:13" ht="49.7" customHeight="1">
       <c r="A267" s="10"/>
       <c r="B267" s="4"/>
-      <c r="C267" s="5"/>
+      <c r="C267" s="6"/>
       <c r="D267" s="5"/>
       <c r="E267" s="6"/>
       <c r="F267" s="5"/>
@@ -5841,10 +6972,10 @@
       <c r="L267" s="9"/>
       <c r="M267" s="9"/>
     </row>
-    <row r="268" spans="1:13" ht="49.65" customHeight="1">
+    <row r="268" spans="1:13" ht="49.7" customHeight="1">
       <c r="A268" s="10"/>
       <c r="B268" s="4"/>
-      <c r="C268" s="5"/>
+      <c r="C268" s="6"/>
       <c r="D268" s="5"/>
       <c r="E268" s="6"/>
       <c r="F268" s="5"/>
@@ -5856,10 +6987,10 @@
       <c r="L268" s="9"/>
       <c r="M268" s="9"/>
     </row>
-    <row r="269" spans="1:13" ht="49.65" customHeight="1">
+    <row r="269" spans="1:13" ht="49.7" customHeight="1">
       <c r="A269" s="10"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="5"/>
+      <c r="C269" s="6"/>
       <c r="D269" s="5"/>
       <c r="E269" s="6"/>
       <c r="F269" s="5"/>
@@ -5871,10 +7002,10 @@
       <c r="L269" s="9"/>
       <c r="M269" s="9"/>
     </row>
-    <row r="270" spans="1:13" ht="49.65" customHeight="1">
+    <row r="270" spans="1:13" ht="49.7" customHeight="1">
       <c r="A270" s="10"/>
       <c r="B270" s="4"/>
-      <c r="C270" s="5"/>
+      <c r="C270" s="6"/>
       <c r="D270" s="5"/>
       <c r="E270" s="6"/>
       <c r="F270" s="5"/>
@@ -5886,10 +7017,10 @@
       <c r="L270" s="9"/>
       <c r="M270" s="9"/>
     </row>
-    <row r="271" spans="1:13" ht="49.65" customHeight="1">
+    <row r="271" spans="1:13" ht="49.7" customHeight="1">
       <c r="A271" s="10"/>
       <c r="B271" s="4"/>
-      <c r="C271" s="5"/>
+      <c r="C271" s="6"/>
       <c r="D271" s="5"/>
       <c r="E271" s="6"/>
       <c r="F271" s="5"/>
@@ -5901,10 +7032,10 @@
       <c r="L271" s="9"/>
       <c r="M271" s="9"/>
     </row>
-    <row r="272" spans="1:13" ht="49.65" customHeight="1">
+    <row r="272" spans="1:13" ht="49.7" customHeight="1">
       <c r="A272" s="10"/>
       <c r="B272" s="4"/>
-      <c r="C272" s="5"/>
+      <c r="C272" s="6"/>
       <c r="D272" s="5"/>
       <c r="E272" s="6"/>
       <c r="F272" s="5"/>
@@ -5916,10 +7047,10 @@
       <c r="L272" s="9"/>
       <c r="M272" s="9"/>
     </row>
-    <row r="273" spans="1:13" ht="49.65" customHeight="1">
+    <row r="273" spans="1:13" ht="49.7" customHeight="1">
       <c r="A273" s="10"/>
       <c r="B273" s="4"/>
-      <c r="C273" s="5"/>
+      <c r="C273" s="6"/>
       <c r="D273" s="5"/>
       <c r="E273" s="6"/>
       <c r="F273" s="5"/>
@@ -5931,10 +7062,10 @@
       <c r="L273" s="9"/>
       <c r="M273" s="9"/>
     </row>
-    <row r="274" spans="1:13" ht="49.65" customHeight="1">
+    <row r="274" spans="1:13" ht="49.7" customHeight="1">
       <c r="A274" s="10"/>
       <c r="B274" s="4"/>
-      <c r="C274" s="5"/>
+      <c r="C274" s="6"/>
       <c r="D274" s="5"/>
       <c r="E274" s="6"/>
       <c r="F274" s="5"/>
@@ -5946,10 +7077,10 @@
       <c r="L274" s="9"/>
       <c r="M274" s="9"/>
     </row>
-    <row r="275" spans="1:13" ht="49.65" customHeight="1">
+    <row r="275" spans="1:13" ht="49.7" customHeight="1">
       <c r="A275" s="10"/>
       <c r="B275" s="4"/>
-      <c r="C275" s="5"/>
+      <c r="C275" s="6"/>
       <c r="D275" s="5"/>
       <c r="E275" s="6"/>
       <c r="F275" s="5"/>
@@ -5961,10 +7092,10 @@
       <c r="L275" s="9"/>
       <c r="M275" s="9"/>
     </row>
-    <row r="276" spans="1:13" ht="49.65" customHeight="1">
+    <row r="276" spans="1:13" ht="49.7" customHeight="1">
       <c r="A276" s="10"/>
       <c r="B276" s="4"/>
-      <c r="C276" s="5"/>
+      <c r="C276" s="6"/>
       <c r="D276" s="5"/>
       <c r="E276" s="6"/>
       <c r="F276" s="5"/>
@@ -5976,10 +7107,10 @@
       <c r="L276" s="9"/>
       <c r="M276" s="9"/>
     </row>
-    <row r="277" spans="1:13" ht="49.65" customHeight="1">
+    <row r="277" spans="1:13" ht="49.7" customHeight="1">
       <c r="A277" s="10"/>
       <c r="B277" s="4"/>
-      <c r="C277" s="5"/>
+      <c r="C277" s="6"/>
       <c r="D277" s="5"/>
       <c r="E277" s="6"/>
       <c r="F277" s="5"/>
@@ -5991,10 +7122,10 @@
       <c r="L277" s="9"/>
       <c r="M277" s="9"/>
     </row>
-    <row r="278" spans="1:13" ht="49.65" customHeight="1">
+    <row r="278" spans="1:13" ht="49.7" customHeight="1">
       <c r="A278" s="10"/>
       <c r="B278" s="4"/>
-      <c r="C278" s="5"/>
+      <c r="C278" s="6"/>
       <c r="D278" s="5"/>
       <c r="E278" s="6"/>
       <c r="F278" s="5"/>
@@ -6006,10 +7137,10 @@
       <c r="L278" s="9"/>
       <c r="M278" s="9"/>
     </row>
-    <row r="279" spans="1:13" ht="49.65" customHeight="1">
+    <row r="279" spans="1:13" ht="49.7" customHeight="1">
       <c r="A279" s="10"/>
       <c r="B279" s="4"/>
-      <c r="C279" s="5"/>
+      <c r="C279" s="6"/>
       <c r="D279" s="5"/>
       <c r="E279" s="6"/>
       <c r="F279" s="5"/>
@@ -6021,10 +7152,10 @@
       <c r="L279" s="9"/>
       <c r="M279" s="9"/>
     </row>
-    <row r="280" spans="1:13" ht="49.65" customHeight="1">
+    <row r="280" spans="1:13" ht="49.7" customHeight="1">
       <c r="A280" s="10"/>
       <c r="B280" s="4"/>
-      <c r="C280" s="5"/>
+      <c r="C280" s="6"/>
       <c r="D280" s="5"/>
       <c r="E280" s="6"/>
       <c r="F280" s="5"/>
@@ -6036,10 +7167,10 @@
       <c r="L280" s="9"/>
       <c r="M280" s="9"/>
     </row>
-    <row r="281" spans="1:13" ht="49.65" customHeight="1">
+    <row r="281" spans="1:13" ht="49.7" customHeight="1">
       <c r="A281" s="10"/>
       <c r="B281" s="4"/>
-      <c r="C281" s="5"/>
+      <c r="C281" s="6"/>
       <c r="D281" s="5"/>
       <c r="E281" s="6"/>
       <c r="F281" s="5"/>
@@ -6051,10 +7182,10 @@
       <c r="L281" s="9"/>
       <c r="M281" s="9"/>
     </row>
-    <row r="282" spans="1:13" ht="49.65" customHeight="1">
+    <row r="282" spans="1:13" ht="49.7" customHeight="1">
       <c r="A282" s="10"/>
       <c r="B282" s="4"/>
-      <c r="C282" s="5"/>
+      <c r="C282" s="6"/>
       <c r="D282" s="5"/>
       <c r="E282" s="6"/>
       <c r="F282" s="5"/>
@@ -6066,10 +7197,10 @@
       <c r="L282" s="9"/>
       <c r="M282" s="9"/>
     </row>
-    <row r="283" spans="1:13" ht="49.65" customHeight="1">
+    <row r="283" spans="1:13" ht="49.7" customHeight="1">
       <c r="A283" s="10"/>
       <c r="B283" s="4"/>
-      <c r="C283" s="5"/>
+      <c r="C283" s="6"/>
       <c r="D283" s="5"/>
       <c r="E283" s="6"/>
       <c r="F283" s="5"/>
@@ -6081,10 +7212,10 @@
       <c r="L283" s="9"/>
       <c r="M283" s="9"/>
     </row>
-    <row r="284" spans="1:13" ht="49.65" customHeight="1">
+    <row r="284" spans="1:13" ht="49.7" customHeight="1">
       <c r="A284" s="10"/>
       <c r="B284" s="4"/>
-      <c r="C284" s="5"/>
+      <c r="C284" s="6"/>
       <c r="D284" s="5"/>
       <c r="E284" s="6"/>
       <c r="F284" s="5"/>
@@ -6096,10 +7227,10 @@
       <c r="L284" s="9"/>
       <c r="M284" s="9"/>
     </row>
-    <row r="285" spans="1:13" ht="49.65" customHeight="1">
+    <row r="285" spans="1:13" ht="49.7" customHeight="1">
       <c r="A285" s="10"/>
       <c r="B285" s="4"/>
-      <c r="C285" s="5"/>
+      <c r="C285" s="6"/>
       <c r="D285" s="5"/>
       <c r="E285" s="6"/>
       <c r="F285" s="5"/>
@@ -6111,10 +7242,10 @@
       <c r="L285" s="9"/>
       <c r="M285" s="9"/>
     </row>
-    <row r="286" spans="1:13" ht="49.65" customHeight="1">
+    <row r="286" spans="1:13" ht="49.7" customHeight="1">
       <c r="A286" s="10"/>
       <c r="B286" s="4"/>
-      <c r="C286" s="5"/>
+      <c r="C286" s="6"/>
       <c r="D286" s="5"/>
       <c r="E286" s="6"/>
       <c r="F286" s="5"/>
@@ -6126,10 +7257,10 @@
       <c r="L286" s="9"/>
       <c r="M286" s="9"/>
     </row>
-    <row r="287" spans="1:13" ht="49.65" customHeight="1">
+    <row r="287" spans="1:13" ht="49.7" customHeight="1">
       <c r="A287" s="10"/>
       <c r="B287" s="4"/>
-      <c r="C287" s="5"/>
+      <c r="C287" s="6"/>
       <c r="D287" s="5"/>
       <c r="E287" s="6"/>
       <c r="F287" s="5"/>
@@ -6141,10 +7272,10 @@
       <c r="L287" s="9"/>
       <c r="M287" s="9"/>
     </row>
-    <row r="288" spans="1:13" ht="49.65" customHeight="1">
+    <row r="288" spans="1:13" ht="49.7" customHeight="1">
       <c r="A288" s="10"/>
       <c r="B288" s="4"/>
-      <c r="C288" s="5"/>
+      <c r="C288" s="6"/>
       <c r="D288" s="5"/>
       <c r="E288" s="6"/>
       <c r="F288" s="5"/>
@@ -6156,10 +7287,10 @@
       <c r="L288" s="9"/>
       <c r="M288" s="9"/>
     </row>
-    <row r="289" spans="1:13" ht="49.65" customHeight="1">
+    <row r="289" spans="1:13" ht="49.7" customHeight="1">
       <c r="A289" s="10"/>
       <c r="B289" s="4"/>
-      <c r="C289" s="5"/>
+      <c r="C289" s="6"/>
       <c r="D289" s="5"/>
       <c r="E289" s="6"/>
       <c r="F289" s="5"/>
@@ -6171,10 +7302,10 @@
       <c r="L289" s="9"/>
       <c r="M289" s="9"/>
     </row>
-    <row r="290" spans="1:13" ht="49.65" customHeight="1">
+    <row r="290" spans="1:13" ht="49.7" customHeight="1">
       <c r="A290" s="10"/>
       <c r="B290" s="4"/>
-      <c r="C290" s="5"/>
+      <c r="C290" s="6"/>
       <c r="D290" s="5"/>
       <c r="E290" s="6"/>
       <c r="F290" s="5"/>
@@ -6186,10 +7317,10 @@
       <c r="L290" s="9"/>
       <c r="M290" s="9"/>
     </row>
-    <row r="291" spans="1:13" ht="49.65" customHeight="1">
+    <row r="291" spans="1:13" ht="49.7" customHeight="1">
       <c r="A291" s="10"/>
       <c r="B291" s="4"/>
-      <c r="C291" s="5"/>
+      <c r="C291" s="6"/>
       <c r="D291" s="5"/>
       <c r="E291" s="6"/>
       <c r="F291" s="5"/>
@@ -6201,10 +7332,10 @@
       <c r="L291" s="9"/>
       <c r="M291" s="9"/>
     </row>
-    <row r="292" spans="1:13" ht="49.65" customHeight="1">
+    <row r="292" spans="1:13" ht="49.7" customHeight="1">
       <c r="A292" s="10"/>
       <c r="B292" s="4"/>
-      <c r="C292" s="5"/>
+      <c r="C292" s="6"/>
       <c r="D292" s="5"/>
       <c r="E292" s="6"/>
       <c r="F292" s="5"/>
@@ -6216,10 +7347,10 @@
       <c r="L292" s="9"/>
       <c r="M292" s="9"/>
     </row>
-    <row r="293" spans="1:13" ht="49.65" customHeight="1">
+    <row r="293" spans="1:13" ht="49.7" customHeight="1">
       <c r="A293" s="10"/>
       <c r="B293" s="4"/>
-      <c r="C293" s="5"/>
+      <c r="C293" s="6"/>
       <c r="D293" s="5"/>
       <c r="E293" s="6"/>
       <c r="F293" s="5"/>
@@ -6231,10 +7362,10 @@
       <c r="L293" s="9"/>
       <c r="M293" s="9"/>
     </row>
-    <row r="294" spans="1:13" ht="49.65" customHeight="1">
+    <row r="294" spans="1:13" ht="49.7" customHeight="1">
       <c r="A294" s="10"/>
       <c r="B294" s="4"/>
-      <c r="C294" s="5"/>
+      <c r="C294" s="6"/>
       <c r="D294" s="5"/>
       <c r="E294" s="6"/>
       <c r="F294" s="5"/>
@@ -6246,10 +7377,10 @@
       <c r="L294" s="9"/>
       <c r="M294" s="9"/>
     </row>
-    <row r="295" spans="1:13" ht="49.65" customHeight="1">
+    <row r="295" spans="1:13" ht="49.7" customHeight="1">
       <c r="A295" s="10"/>
       <c r="B295" s="4"/>
-      <c r="C295" s="5"/>
+      <c r="C295" s="6"/>
       <c r="D295" s="5"/>
       <c r="E295" s="6"/>
       <c r="F295" s="5"/>
@@ -6261,10 +7392,10 @@
       <c r="L295" s="9"/>
       <c r="M295" s="9"/>
     </row>
-    <row r="296" spans="1:13" ht="49.65" customHeight="1">
+    <row r="296" spans="1:13" ht="49.7" customHeight="1">
       <c r="A296" s="10"/>
       <c r="B296" s="4"/>
-      <c r="C296" s="5"/>
+      <c r="C296" s="6"/>
       <c r="D296" s="5"/>
       <c r="E296" s="6"/>
       <c r="F296" s="5"/>
@@ -6276,10 +7407,10 @@
       <c r="L296" s="9"/>
       <c r="M296" s="9"/>
     </row>
-    <row r="297" spans="1:13" ht="49.65" customHeight="1">
+    <row r="297" spans="1:13" ht="49.7" customHeight="1">
       <c r="A297" s="10"/>
       <c r="B297" s="4"/>
-      <c r="C297" s="5"/>
+      <c r="C297" s="6"/>
       <c r="D297" s="5"/>
       <c r="E297" s="6"/>
       <c r="F297" s="5"/>
@@ -6291,10 +7422,10 @@
       <c r="L297" s="9"/>
       <c r="M297" s="9"/>
     </row>
-    <row r="298" spans="1:13" ht="49.65" customHeight="1">
+    <row r="298" spans="1:13" ht="49.7" customHeight="1">
       <c r="A298" s="10"/>
       <c r="B298" s="4"/>
-      <c r="C298" s="5"/>
+      <c r="C298" s="6"/>
       <c r="D298" s="5"/>
       <c r="E298" s="6"/>
       <c r="F298" s="5"/>
@@ -6306,10 +7437,10 @@
       <c r="L298" s="9"/>
       <c r="M298" s="9"/>
     </row>
-    <row r="299" spans="1:13" ht="49.65" customHeight="1">
+    <row r="299" spans="1:13" ht="49.7" customHeight="1">
       <c r="A299" s="10"/>
       <c r="B299" s="4"/>
-      <c r="C299" s="5"/>
+      <c r="C299" s="6"/>
       <c r="D299" s="5"/>
       <c r="E299" s="6"/>
       <c r="F299" s="5"/>
@@ -6321,10 +7452,10 @@
       <c r="L299" s="9"/>
       <c r="M299" s="9"/>
     </row>
-    <row r="300" spans="1:13" ht="49.65" customHeight="1">
+    <row r="300" spans="1:13" ht="49.7" customHeight="1">
       <c r="A300" s="10"/>
       <c r="B300" s="4"/>
-      <c r="C300" s="5"/>
+      <c r="C300" s="6"/>
       <c r="D300" s="5"/>
       <c r="E300" s="6"/>
       <c r="F300" s="5"/>
@@ -6336,10 +7467,10 @@
       <c r="L300" s="9"/>
       <c r="M300" s="9"/>
     </row>
-    <row r="301" spans="1:13" ht="49.65" customHeight="1">
+    <row r="301" spans="1:13" ht="49.7" customHeight="1">
       <c r="A301" s="10"/>
       <c r="B301" s="4"/>
-      <c r="C301" s="5"/>
+      <c r="C301" s="6"/>
       <c r="D301" s="5"/>
       <c r="E301" s="6"/>
       <c r="F301" s="5"/>
@@ -6351,10 +7482,10 @@
       <c r="L301" s="9"/>
       <c r="M301" s="9"/>
     </row>
-    <row r="302" spans="1:13" ht="49.65" customHeight="1">
+    <row r="302" spans="1:13" ht="49.7" customHeight="1">
       <c r="A302" s="10"/>
       <c r="B302" s="4"/>
-      <c r="C302" s="5"/>
+      <c r="C302" s="6"/>
       <c r="D302" s="5"/>
       <c r="E302" s="6"/>
       <c r="F302" s="5"/>
@@ -6366,10 +7497,10 @@
       <c r="L302" s="9"/>
       <c r="M302" s="9"/>
     </row>
-    <row r="303" spans="1:13" ht="49.65" customHeight="1">
+    <row r="303" spans="1:13" ht="49.7" customHeight="1">
       <c r="A303" s="10"/>
       <c r="B303" s="4"/>
-      <c r="C303" s="5"/>
+      <c r="C303" s="6"/>
       <c r="D303" s="5"/>
       <c r="E303" s="6"/>
       <c r="F303" s="5"/>
@@ -6381,10 +7512,10 @@
       <c r="L303" s="9"/>
       <c r="M303" s="9"/>
     </row>
-    <row r="304" spans="1:13" ht="49.65" customHeight="1">
+    <row r="304" spans="1:13" ht="49.7" customHeight="1">
       <c r="A304" s="10"/>
       <c r="B304" s="4"/>
-      <c r="C304" s="5"/>
+      <c r="C304" s="6"/>
       <c r="D304" s="5"/>
       <c r="E304" s="6"/>
       <c r="F304" s="5"/>
@@ -6396,10 +7527,10 @@
       <c r="L304" s="9"/>
       <c r="M304" s="9"/>
     </row>
-    <row r="305" spans="1:13" ht="49.65" customHeight="1">
+    <row r="305" spans="1:13" ht="49.7" customHeight="1">
       <c r="A305" s="10"/>
       <c r="B305" s="4"/>
-      <c r="C305" s="5"/>
+      <c r="C305" s="6"/>
       <c r="D305" s="5"/>
       <c r="E305" s="6"/>
       <c r="F305" s="5"/>
@@ -6411,10 +7542,10 @@
       <c r="L305" s="9"/>
       <c r="M305" s="9"/>
     </row>
-    <row r="306" spans="1:13" ht="49.65" customHeight="1">
+    <row r="306" spans="1:13" ht="49.7" customHeight="1">
       <c r="A306" s="10"/>
       <c r="B306" s="4"/>
-      <c r="C306" s="5"/>
+      <c r="C306" s="6"/>
       <c r="D306" s="5"/>
       <c r="E306" s="6"/>
       <c r="F306" s="5"/>
@@ -6426,10 +7557,10 @@
       <c r="L306" s="9"/>
       <c r="M306" s="9"/>
     </row>
-    <row r="307" spans="1:13" ht="49.65" customHeight="1">
+    <row r="307" spans="1:13" ht="49.7" customHeight="1">
       <c r="A307" s="10"/>
       <c r="B307" s="4"/>
-      <c r="C307" s="5"/>
+      <c r="C307" s="6"/>
       <c r="D307" s="5"/>
       <c r="E307" s="6"/>
       <c r="F307" s="5"/>
@@ -6441,10 +7572,10 @@
       <c r="L307" s="9"/>
       <c r="M307" s="9"/>
     </row>
-    <row r="308" spans="1:13" ht="49.65" customHeight="1">
+    <row r="308" spans="1:13" ht="49.7" customHeight="1">
       <c r="A308" s="10"/>
       <c r="B308" s="4"/>
-      <c r="C308" s="5"/>
+      <c r="C308" s="6"/>
       <c r="D308" s="5"/>
       <c r="E308" s="6"/>
       <c r="F308" s="5"/>
@@ -6456,10 +7587,10 @@
       <c r="L308" s="9"/>
       <c r="M308" s="9"/>
     </row>
-    <row r="309" spans="1:13" ht="49.65" customHeight="1">
+    <row r="309" spans="1:13" ht="49.7" customHeight="1">
       <c r="A309" s="10"/>
       <c r="B309" s="4"/>
-      <c r="C309" s="5"/>
+      <c r="C309" s="6"/>
       <c r="D309" s="5"/>
       <c r="E309" s="6"/>
       <c r="F309" s="5"/>
@@ -6471,10 +7602,10 @@
       <c r="L309" s="9"/>
       <c r="M309" s="9"/>
     </row>
-    <row r="310" spans="1:13" ht="49.65" customHeight="1">
+    <row r="310" spans="1:13" ht="49.7" customHeight="1">
       <c r="A310" s="10"/>
       <c r="B310" s="4"/>
-      <c r="C310" s="5"/>
+      <c r="C310" s="6"/>
       <c r="D310" s="5"/>
       <c r="E310" s="6"/>
       <c r="F310" s="5"/>
@@ -6486,10 +7617,10 @@
       <c r="L310" s="9"/>
       <c r="M310" s="9"/>
     </row>
-    <row r="311" spans="1:13" ht="49.65" customHeight="1">
+    <row r="311" spans="1:13" ht="49.7" customHeight="1">
       <c r="A311" s="10"/>
       <c r="B311" s="4"/>
-      <c r="C311" s="5"/>
+      <c r="C311" s="6"/>
       <c r="D311" s="5"/>
       <c r="E311" s="6"/>
       <c r="F311" s="5"/>
@@ -6501,10 +7632,10 @@
       <c r="L311" s="9"/>
       <c r="M311" s="9"/>
     </row>
-    <row r="312" spans="1:13" ht="49.65" customHeight="1">
+    <row r="312" spans="1:13" ht="49.7" customHeight="1">
       <c r="A312" s="10"/>
       <c r="B312" s="4"/>
-      <c r="C312" s="5"/>
+      <c r="C312" s="6"/>
       <c r="D312" s="5"/>
       <c r="E312" s="6"/>
       <c r="F312" s="5"/>
@@ -6516,10 +7647,10 @@
       <c r="L312" s="9"/>
       <c r="M312" s="9"/>
     </row>
-    <row r="313" spans="1:13" ht="49.65" customHeight="1">
+    <row r="313" spans="1:13" ht="49.7" customHeight="1">
       <c r="A313" s="10"/>
       <c r="B313" s="4"/>
-      <c r="C313" s="5"/>
+      <c r="C313" s="6"/>
       <c r="D313" s="5"/>
       <c r="E313" s="6"/>
       <c r="F313" s="5"/>
@@ -6531,10 +7662,10 @@
       <c r="L313" s="9"/>
       <c r="M313" s="9"/>
     </row>
-    <row r="314" spans="1:13" ht="49.65" customHeight="1">
+    <row r="314" spans="1:13" ht="49.7" customHeight="1">
       <c r="A314" s="10"/>
       <c r="B314" s="4"/>
-      <c r="C314" s="5"/>
+      <c r="C314" s="6"/>
       <c r="D314" s="5"/>
       <c r="E314" s="6"/>
       <c r="F314" s="5"/>
@@ -6546,10 +7677,10 @@
       <c r="L314" s="9"/>
       <c r="M314" s="9"/>
     </row>
-    <row r="315" spans="1:13" ht="49.65" customHeight="1">
+    <row r="315" spans="1:13" ht="49.7" customHeight="1">
       <c r="A315" s="10"/>
       <c r="B315" s="4"/>
-      <c r="C315" s="5"/>
+      <c r="C315" s="6"/>
       <c r="D315" s="5"/>
       <c r="E315" s="6"/>
       <c r="F315" s="5"/>
@@ -6561,10 +7692,10 @@
       <c r="L315" s="9"/>
       <c r="M315" s="9"/>
     </row>
-    <row r="316" spans="1:13" ht="49.65" customHeight="1">
+    <row r="316" spans="1:13" ht="49.7" customHeight="1">
       <c r="A316" s="10"/>
       <c r="B316" s="4"/>
-      <c r="C316" s="5"/>
+      <c r="C316" s="6"/>
       <c r="D316" s="5"/>
       <c r="E316" s="6"/>
       <c r="F316" s="5"/>
@@ -6576,10 +7707,10 @@
       <c r="L316" s="9"/>
       <c r="M316" s="9"/>
     </row>
-    <row r="317" spans="1:13" ht="49.65" customHeight="1">
+    <row r="317" spans="1:13" ht="49.7" customHeight="1">
       <c r="A317" s="10"/>
       <c r="B317" s="4"/>
-      <c r="C317" s="5"/>
+      <c r="C317" s="6"/>
       <c r="D317" s="5"/>
       <c r="E317" s="6"/>
       <c r="F317" s="5"/>
@@ -6591,10 +7722,10 @@
       <c r="L317" s="9"/>
       <c r="M317" s="9"/>
     </row>
-    <row r="318" spans="1:13" ht="49.65" customHeight="1">
+    <row r="318" spans="1:13" ht="49.7" customHeight="1">
       <c r="A318" s="10"/>
       <c r="B318" s="4"/>
-      <c r="C318" s="5"/>
+      <c r="C318" s="6"/>
       <c r="D318" s="5"/>
       <c r="E318" s="6"/>
       <c r="F318" s="5"/>
@@ -6606,10 +7737,10 @@
       <c r="L318" s="9"/>
       <c r="M318" s="9"/>
     </row>
-    <row r="319" spans="1:13" ht="49.65" customHeight="1">
+    <row r="319" spans="1:13" ht="49.7" customHeight="1">
       <c r="A319" s="10"/>
       <c r="B319" s="4"/>
-      <c r="C319" s="5"/>
+      <c r="C319" s="6"/>
       <c r="D319" s="5"/>
       <c r="E319" s="6"/>
       <c r="F319" s="5"/>
@@ -6621,10 +7752,10 @@
       <c r="L319" s="9"/>
       <c r="M319" s="9"/>
     </row>
-    <row r="320" spans="1:13" ht="49.65" customHeight="1">
+    <row r="320" spans="1:13" ht="49.7" customHeight="1">
       <c r="A320" s="10"/>
       <c r="B320" s="4"/>
-      <c r="C320" s="5"/>
+      <c r="C320" s="6"/>
       <c r="D320" s="5"/>
       <c r="E320" s="6"/>
       <c r="F320" s="5"/>
@@ -6636,10 +7767,10 @@
       <c r="L320" s="9"/>
       <c r="M320" s="9"/>
     </row>
-    <row r="321" spans="1:13" ht="49.65" customHeight="1">
+    <row r="321" spans="1:13" ht="49.7" customHeight="1">
       <c r="A321" s="10"/>
       <c r="B321" s="4"/>
-      <c r="C321" s="5"/>
+      <c r="C321" s="6"/>
       <c r="D321" s="5"/>
       <c r="E321" s="6"/>
       <c r="F321" s="5"/>
@@ -6651,10 +7782,10 @@
       <c r="L321" s="9"/>
       <c r="M321" s="9"/>
     </row>
-    <row r="322" spans="1:13" ht="49.65" customHeight="1">
+    <row r="322" spans="1:13" ht="49.7" customHeight="1">
       <c r="A322" s="10"/>
       <c r="B322" s="4"/>
-      <c r="C322" s="5"/>
+      <c r="C322" s="6"/>
       <c r="D322" s="5"/>
       <c r="E322" s="6"/>
       <c r="F322" s="5"/>
@@ -6666,10 +7797,10 @@
       <c r="L322" s="9"/>
       <c r="M322" s="9"/>
     </row>
-    <row r="323" spans="1:13" ht="49.65" customHeight="1">
+    <row r="323" spans="1:13" ht="49.7" customHeight="1">
       <c r="A323" s="10"/>
       <c r="B323" s="4"/>
-      <c r="C323" s="5"/>
+      <c r="C323" s="6"/>
       <c r="D323" s="5"/>
       <c r="E323" s="6"/>
       <c r="F323" s="5"/>
@@ -6681,10 +7812,10 @@
       <c r="L323" s="9"/>
       <c r="M323" s="9"/>
     </row>
-    <row r="324" spans="1:13" ht="49.65" customHeight="1">
+    <row r="324" spans="1:13" ht="49.7" customHeight="1">
       <c r="A324" s="10"/>
       <c r="B324" s="4"/>
-      <c r="C324" s="5"/>
+      <c r="C324" s="6"/>
       <c r="D324" s="5"/>
       <c r="E324" s="6"/>
       <c r="F324" s="5"/>
@@ -6696,10 +7827,10 @@
       <c r="L324" s="9"/>
       <c r="M324" s="9"/>
     </row>
-    <row r="325" spans="1:13" ht="49.65" customHeight="1">
+    <row r="325" spans="1:13" ht="49.7" customHeight="1">
       <c r="A325" s="10"/>
       <c r="B325" s="4"/>
-      <c r="C325" s="5"/>
+      <c r="C325" s="6"/>
       <c r="D325" s="5"/>
       <c r="E325" s="6"/>
       <c r="F325" s="5"/>
@@ -6711,10 +7842,10 @@
       <c r="L325" s="9"/>
       <c r="M325" s="9"/>
     </row>
-    <row r="326" spans="1:13" ht="49.65" customHeight="1">
+    <row r="326" spans="1:13" ht="49.7" customHeight="1">
       <c r="A326" s="10"/>
       <c r="B326" s="4"/>
-      <c r="C326" s="5"/>
+      <c r="C326" s="6"/>
       <c r="D326" s="5"/>
       <c r="E326" s="6"/>
       <c r="F326" s="5"/>
@@ -6726,10 +7857,10 @@
       <c r="L326" s="9"/>
       <c r="M326" s="9"/>
     </row>
-    <row r="327" spans="1:13" ht="49.65" customHeight="1">
+    <row r="327" spans="1:13" ht="49.7" customHeight="1">
       <c r="A327" s="10"/>
       <c r="B327" s="4"/>
-      <c r="C327" s="5"/>
+      <c r="C327" s="6"/>
       <c r="D327" s="5"/>
       <c r="E327" s="6"/>
       <c r="F327" s="5"/>
@@ -6741,10 +7872,10 @@
       <c r="L327" s="9"/>
       <c r="M327" s="9"/>
     </row>
-    <row r="328" spans="1:13" ht="49.65" customHeight="1">
+    <row r="328" spans="1:13" ht="49.7" customHeight="1">
       <c r="A328" s="10"/>
       <c r="B328" s="4"/>
-      <c r="C328" s="5"/>
+      <c r="C328" s="6"/>
       <c r="D328" s="5"/>
       <c r="E328" s="6"/>
       <c r="F328" s="5"/>
@@ -6756,10 +7887,10 @@
       <c r="L328" s="9"/>
       <c r="M328" s="9"/>
     </row>
-    <row r="329" spans="1:13" ht="49.65" customHeight="1">
+    <row r="329" spans="1:13" ht="49.7" customHeight="1">
       <c r="A329" s="10"/>
       <c r="B329" s="4"/>
-      <c r="C329" s="5"/>
+      <c r="C329" s="6"/>
       <c r="D329" s="5"/>
       <c r="E329" s="6"/>
       <c r="F329" s="5"/>
@@ -6771,10 +7902,10 @@
       <c r="L329" s="9"/>
       <c r="M329" s="5"/>
     </row>
-    <row r="330" spans="1:13" ht="49.65" customHeight="1">
+    <row r="330" spans="1:13" ht="49.7" customHeight="1">
       <c r="A330" s="10"/>
       <c r="B330" s="4"/>
-      <c r="C330" s="5"/>
+      <c r="C330" s="6"/>
       <c r="D330" s="5"/>
       <c r="E330" s="6"/>
       <c r="F330" s="5"/>
@@ -6786,10 +7917,10 @@
       <c r="L330" s="9"/>
       <c r="M330" s="5"/>
     </row>
-    <row r="331" spans="1:13" ht="49.65" customHeight="1">
+    <row r="331" spans="1:13" ht="49.7" customHeight="1">
       <c r="A331" s="10"/>
       <c r="B331" s="4"/>
-      <c r="C331" s="5"/>
+      <c r="C331" s="6"/>
       <c r="D331" s="5"/>
       <c r="E331" s="6"/>
       <c r="F331" s="5"/>
@@ -6801,10 +7932,10 @@
       <c r="L331" s="9"/>
       <c r="M331" s="5"/>
     </row>
-    <row r="332" spans="1:13" ht="49.65" customHeight="1">
+    <row r="332" spans="1:13" ht="49.7" customHeight="1">
       <c r="A332" s="10"/>
       <c r="B332" s="4"/>
-      <c r="C332" s="5"/>
+      <c r="C332" s="6"/>
       <c r="D332" s="5"/>
       <c r="E332" s="6"/>
       <c r="F332" s="5"/>
@@ -6816,10 +7947,10 @@
       <c r="L332" s="9"/>
       <c r="M332" s="5"/>
     </row>
-    <row r="333" spans="1:13" ht="49.65" customHeight="1">
+    <row r="333" spans="1:13" ht="49.7" customHeight="1">
       <c r="A333" s="10"/>
       <c r="B333" s="4"/>
-      <c r="C333" s="5"/>
+      <c r="C333" s="6"/>
       <c r="D333" s="5"/>
       <c r="E333" s="6"/>
       <c r="F333" s="5"/>
@@ -6831,10 +7962,10 @@
       <c r="L333" s="9"/>
       <c r="M333" s="5"/>
     </row>
-    <row r="334" spans="1:13" ht="49.65" customHeight="1">
+    <row r="334" spans="1:13" ht="49.7" customHeight="1">
       <c r="A334" s="10"/>
       <c r="B334" s="4"/>
-      <c r="C334" s="5"/>
+      <c r="C334" s="6"/>
       <c r="D334" s="5"/>
       <c r="E334" s="6"/>
       <c r="F334" s="5"/>
@@ -6846,10 +7977,10 @@
       <c r="L334" s="9"/>
       <c r="M334" s="5"/>
     </row>
-    <row r="335" spans="1:13" ht="49.65" customHeight="1">
+    <row r="335" spans="1:13" ht="49.7" customHeight="1">
       <c r="A335" s="10"/>
       <c r="B335" s="4"/>
-      <c r="C335" s="5"/>
+      <c r="C335" s="6"/>
       <c r="D335" s="5"/>
       <c r="E335" s="6"/>
       <c r="F335" s="5"/>
@@ -6861,10 +7992,10 @@
       <c r="L335" s="9"/>
       <c r="M335" s="5"/>
     </row>
-    <row r="336" spans="1:13" ht="49.65" customHeight="1">
+    <row r="336" spans="1:13" ht="49.7" customHeight="1">
       <c r="A336" s="10"/>
       <c r="B336" s="4"/>
-      <c r="C336" s="5"/>
+      <c r="C336" s="6"/>
       <c r="D336" s="5"/>
       <c r="E336" s="6"/>
       <c r="F336" s="5"/>
@@ -6876,10 +8007,10 @@
       <c r="L336" s="9"/>
       <c r="M336" s="5"/>
     </row>
-    <row r="337" spans="1:13" ht="49.65" customHeight="1">
+    <row r="337" spans="1:13" ht="49.7" customHeight="1">
       <c r="A337" s="10"/>
       <c r="B337" s="4"/>
-      <c r="C337" s="5"/>
+      <c r="C337" s="6"/>
       <c r="D337" s="5"/>
       <c r="E337" s="6"/>
       <c r="F337" s="5"/>
@@ -6891,10 +8022,10 @@
       <c r="L337" s="9"/>
       <c r="M337" s="5"/>
     </row>
-    <row r="338" spans="1:13" ht="49.65" customHeight="1">
+    <row r="338" spans="1:13" ht="49.7" customHeight="1">
       <c r="A338" s="10"/>
       <c r="B338" s="4"/>
-      <c r="C338" s="5"/>
+      <c r="C338" s="6"/>
       <c r="D338" s="5"/>
       <c r="E338" s="6"/>
       <c r="F338" s="5"/>
@@ -6906,10 +8037,10 @@
       <c r="L338" s="9"/>
       <c r="M338" s="5"/>
     </row>
-    <row r="339" spans="1:13" ht="49.65" customHeight="1">
+    <row r="339" spans="1:13" ht="49.7" customHeight="1">
       <c r="A339" s="10"/>
       <c r="B339" s="4"/>
-      <c r="C339" s="5"/>
+      <c r="C339" s="6"/>
       <c r="D339" s="5"/>
       <c r="E339" s="6"/>
       <c r="F339" s="5"/>
@@ -6921,10 +8052,10 @@
       <c r="L339" s="9"/>
       <c r="M339" s="5"/>
     </row>
-    <row r="340" spans="1:13" ht="49.65" customHeight="1">
+    <row r="340" spans="1:13" ht="49.7" customHeight="1">
       <c r="A340" s="10"/>
       <c r="B340" s="4"/>
-      <c r="C340" s="5"/>
+      <c r="C340" s="6"/>
       <c r="D340" s="5"/>
       <c r="E340" s="6"/>
       <c r="F340" s="5"/>
@@ -6936,10 +8067,10 @@
       <c r="L340" s="9"/>
       <c r="M340" s="5"/>
     </row>
-    <row r="341" spans="1:13" ht="49.65" customHeight="1">
+    <row r="341" spans="1:13" ht="49.7" customHeight="1">
       <c r="A341" s="10"/>
       <c r="B341" s="4"/>
-      <c r="C341" s="5"/>
+      <c r="C341" s="6"/>
       <c r="D341" s="5"/>
       <c r="E341" s="6"/>
       <c r="F341" s="5"/>
@@ -6951,10 +8082,10 @@
       <c r="L341" s="9"/>
       <c r="M341" s="5"/>
     </row>
-    <row r="342" spans="1:13" ht="49.65" customHeight="1">
+    <row r="342" spans="1:13" ht="49.7" customHeight="1">
       <c r="A342" s="10"/>
       <c r="B342" s="4"/>
-      <c r="C342" s="5"/>
+      <c r="C342" s="6"/>
       <c r="D342" s="5"/>
       <c r="E342" s="6"/>
       <c r="F342" s="5"/>
@@ -6966,10 +8097,10 @@
       <c r="L342" s="9"/>
       <c r="M342" s="5"/>
     </row>
-    <row r="343" spans="1:13" ht="49.65" customHeight="1">
+    <row r="343" spans="1:13" ht="49.7" customHeight="1">
       <c r="A343" s="10"/>
       <c r="B343" s="4"/>
-      <c r="C343" s="5"/>
+      <c r="C343" s="6"/>
       <c r="D343" s="5"/>
       <c r="E343" s="6"/>
       <c r="F343" s="5"/>
@@ -6981,10 +8112,10 @@
       <c r="L343" s="9"/>
       <c r="M343" s="5"/>
     </row>
-    <row r="344" spans="1:13" ht="49.65" customHeight="1">
+    <row r="344" spans="1:13" ht="49.7" customHeight="1">
       <c r="A344" s="10"/>
       <c r="B344" s="4"/>
-      <c r="C344" s="5"/>
+      <c r="C344" s="6"/>
       <c r="D344" s="5"/>
       <c r="E344" s="6"/>
       <c r="F344" s="5"/>
@@ -6996,10 +8127,10 @@
       <c r="L344" s="9"/>
       <c r="M344" s="5"/>
     </row>
-    <row r="345" spans="1:13" ht="49.65" customHeight="1">
+    <row r="345" spans="1:13" ht="49.7" customHeight="1">
       <c r="A345" s="10"/>
       <c r="B345" s="4"/>
-      <c r="C345" s="5"/>
+      <c r="C345" s="6"/>
       <c r="D345" s="5"/>
       <c r="E345" s="6"/>
       <c r="F345" s="5"/>
@@ -7011,10 +8142,10 @@
       <c r="L345" s="9"/>
       <c r="M345" s="5"/>
     </row>
-    <row r="346" spans="1:13" ht="49.65" customHeight="1">
+    <row r="346" spans="1:13" ht="49.7" customHeight="1">
       <c r="A346" s="10"/>
       <c r="B346" s="4"/>
-      <c r="C346" s="5"/>
+      <c r="C346" s="6"/>
       <c r="D346" s="5"/>
       <c r="E346" s="6"/>
       <c r="F346" s="5"/>
@@ -7026,10 +8157,10 @@
       <c r="L346" s="9"/>
       <c r="M346" s="5"/>
     </row>
-    <row r="347" spans="1:13" ht="49.65" customHeight="1">
+    <row r="347" spans="1:13" ht="49.7" customHeight="1">
       <c r="A347" s="10"/>
       <c r="B347" s="4"/>
-      <c r="C347" s="5"/>
+      <c r="C347" s="6"/>
       <c r="D347" s="5"/>
       <c r="E347" s="6"/>
       <c r="F347" s="5"/>
@@ -7041,10 +8172,10 @@
       <c r="L347" s="9"/>
       <c r="M347" s="5"/>
     </row>
-    <row r="348" spans="1:13" ht="49.65" customHeight="1">
+    <row r="348" spans="1:13" ht="49.7" customHeight="1">
       <c r="A348" s="10"/>
       <c r="B348" s="4"/>
-      <c r="C348" s="5"/>
+      <c r="C348" s="6"/>
       <c r="D348" s="5"/>
       <c r="E348" s="6"/>
       <c r="F348" s="5"/>
@@ -7056,10 +8187,10 @@
       <c r="L348" s="9"/>
       <c r="M348" s="5"/>
     </row>
-    <row r="349" spans="1:13" ht="49.65" customHeight="1">
+    <row r="349" spans="1:13" ht="49.7" customHeight="1">
       <c r="A349" s="10"/>
       <c r="B349" s="4"/>
-      <c r="C349" s="5"/>
+      <c r="C349" s="6"/>
       <c r="D349" s="5"/>
       <c r="E349" s="6"/>
       <c r="F349" s="5"/>
@@ -7071,10 +8202,10 @@
       <c r="L349" s="9"/>
       <c r="M349" s="5"/>
     </row>
-    <row r="350" spans="1:13" ht="49.65" customHeight="1">
+    <row r="350" spans="1:13" ht="49.7" customHeight="1">
       <c r="A350" s="10"/>
       <c r="B350" s="4"/>
-      <c r="C350" s="5"/>
+      <c r="C350" s="6"/>
       <c r="D350" s="5"/>
       <c r="E350" s="6"/>
       <c r="F350" s="5"/>
@@ -7086,10 +8217,10 @@
       <c r="L350" s="9"/>
       <c r="M350" s="5"/>
     </row>
-    <row r="351" spans="1:13" ht="49.65" customHeight="1">
+    <row r="351" spans="1:13" ht="49.7" customHeight="1">
       <c r="A351" s="10"/>
       <c r="B351" s="4"/>
-      <c r="C351" s="5"/>
+      <c r="C351" s="6"/>
       <c r="D351" s="5"/>
       <c r="E351" s="6"/>
       <c r="F351" s="5"/>
@@ -7101,10 +8232,10 @@
       <c r="L351" s="9"/>
       <c r="M351" s="5"/>
     </row>
-    <row r="352" spans="1:13" ht="49.65" customHeight="1">
+    <row r="352" spans="1:13" ht="49.7" customHeight="1">
       <c r="A352" s="10"/>
       <c r="B352" s="4"/>
-      <c r="C352" s="5"/>
+      <c r="C352" s="6"/>
       <c r="D352" s="5"/>
       <c r="E352" s="6"/>
       <c r="F352" s="5"/>
@@ -7116,10 +8247,10 @@
       <c r="L352" s="9"/>
       <c r="M352" s="5"/>
     </row>
-    <row r="353" spans="1:13" ht="49.65" customHeight="1">
+    <row r="353" spans="1:13" ht="49.7" customHeight="1">
       <c r="A353" s="10"/>
       <c r="B353" s="4"/>
-      <c r="C353" s="5"/>
+      <c r="C353" s="6"/>
       <c r="D353" s="5"/>
       <c r="E353" s="6"/>
       <c r="F353" s="5"/>
@@ -7131,10 +8262,10 @@
       <c r="L353" s="9"/>
       <c r="M353" s="5"/>
     </row>
-    <row r="354" spans="1:13" ht="49.65" customHeight="1">
+    <row r="354" spans="1:13" ht="49.7" customHeight="1">
       <c r="A354" s="10"/>
       <c r="B354" s="4"/>
-      <c r="C354" s="5"/>
+      <c r="C354" s="6"/>
       <c r="D354" s="5"/>
       <c r="E354" s="6"/>
       <c r="F354" s="5"/>
@@ -7146,10 +8277,10 @@
       <c r="L354" s="9"/>
       <c r="M354" s="5"/>
     </row>
-    <row r="355" spans="1:13" ht="49.65" customHeight="1">
+    <row r="355" spans="1:13" ht="49.7" customHeight="1">
       <c r="A355" s="10"/>
       <c r="B355" s="4"/>
-      <c r="C355" s="5"/>
+      <c r="C355" s="6"/>
       <c r="D355" s="5"/>
       <c r="E355" s="6"/>
       <c r="F355" s="5"/>
@@ -7161,10 +8292,10 @@
       <c r="L355" s="9"/>
       <c r="M355" s="5"/>
     </row>
-    <row r="356" spans="1:13" ht="49.65" customHeight="1">
+    <row r="356" spans="1:13" ht="49.7" customHeight="1">
       <c r="A356" s="10"/>
       <c r="B356" s="4"/>
-      <c r="C356" s="5"/>
+      <c r="C356" s="6"/>
       <c r="D356" s="5"/>
       <c r="E356" s="6"/>
       <c r="F356" s="5"/>
@@ -7176,10 +8307,10 @@
       <c r="L356" s="9"/>
       <c r="M356" s="5"/>
     </row>
-    <row r="357" spans="1:13" ht="49.65" customHeight="1">
+    <row r="357" spans="1:13" ht="49.7" customHeight="1">
       <c r="A357" s="10"/>
       <c r="B357" s="4"/>
-      <c r="C357" s="5"/>
+      <c r="C357" s="6"/>
       <c r="D357" s="5"/>
       <c r="E357" s="6"/>
       <c r="F357" s="5"/>
@@ -7191,10 +8322,10 @@
       <c r="L357" s="9"/>
       <c r="M357" s="5"/>
     </row>
-    <row r="358" spans="1:13" ht="49.65" customHeight="1">
+    <row r="358" spans="1:13" ht="49.7" customHeight="1">
       <c r="A358" s="10"/>
       <c r="B358" s="4"/>
-      <c r="C358" s="5"/>
+      <c r="C358" s="6"/>
       <c r="D358" s="5"/>
       <c r="E358" s="6"/>
       <c r="F358" s="5"/>
@@ -7206,10 +8337,10 @@
       <c r="L358" s="9"/>
       <c r="M358" s="5"/>
     </row>
-    <row r="359" spans="1:13" ht="49.65" customHeight="1">
+    <row r="359" spans="1:13" ht="49.7" customHeight="1">
       <c r="A359" s="10"/>
       <c r="B359" s="4"/>
-      <c r="C359" s="5"/>
+      <c r="C359" s="6"/>
       <c r="D359" s="5"/>
       <c r="E359" s="6"/>
       <c r="F359" s="5"/>
@@ -7221,10 +8352,10 @@
       <c r="L359" s="9"/>
       <c r="M359" s="5"/>
     </row>
-    <row r="360" spans="1:13" ht="49.65" customHeight="1">
+    <row r="360" spans="1:13" ht="49.7" customHeight="1">
       <c r="A360" s="10"/>
       <c r="B360" s="4"/>
-      <c r="C360" s="5"/>
+      <c r="C360" s="6"/>
       <c r="D360" s="5"/>
       <c r="E360" s="6"/>
       <c r="F360" s="5"/>
@@ -7236,10 +8367,10 @@
       <c r="L360" s="9"/>
       <c r="M360" s="5"/>
     </row>
-    <row r="361" spans="1:13" ht="49.65" customHeight="1">
+    <row r="361" spans="1:13" ht="49.7" customHeight="1">
       <c r="A361" s="10"/>
       <c r="B361" s="4"/>
-      <c r="C361" s="5"/>
+      <c r="C361" s="6"/>
       <c r="D361" s="5"/>
       <c r="E361" s="6"/>
       <c r="F361" s="5"/>
@@ -7251,10 +8382,10 @@
       <c r="L361" s="9"/>
       <c r="M361" s="5"/>
     </row>
-    <row r="362" spans="1:13" ht="49.65" customHeight="1">
+    <row r="362" spans="1:13" ht="49.7" customHeight="1">
       <c r="A362" s="10"/>
       <c r="B362" s="4"/>
-      <c r="C362" s="5"/>
+      <c r="C362" s="6"/>
       <c r="D362" s="5"/>
       <c r="E362" s="6"/>
       <c r="F362" s="5"/>
@@ -7266,10 +8397,10 @@
       <c r="L362" s="9"/>
       <c r="M362" s="9"/>
     </row>
-    <row r="363" spans="1:13" ht="49.65" customHeight="1">
+    <row r="363" spans="1:13" ht="49.7" customHeight="1">
       <c r="A363" s="10"/>
       <c r="B363" s="4"/>
-      <c r="C363" s="5"/>
+      <c r="C363" s="6"/>
       <c r="D363" s="5"/>
       <c r="E363" s="6"/>
       <c r="F363" s="5"/>
@@ -7281,10 +8412,10 @@
       <c r="L363" s="9"/>
       <c r="M363" s="9"/>
     </row>
-    <row r="364" spans="1:13" ht="49.65" customHeight="1">
+    <row r="364" spans="1:13" ht="49.7" customHeight="1">
       <c r="A364" s="10"/>
       <c r="B364" s="4"/>
-      <c r="C364" s="5"/>
+      <c r="C364" s="6"/>
       <c r="D364" s="5"/>
       <c r="E364" s="6"/>
       <c r="F364" s="5"/>
@@ -7296,10 +8427,10 @@
       <c r="L364" s="9"/>
       <c r="M364" s="9"/>
     </row>
-    <row r="365" spans="1:13" ht="49.65" customHeight="1">
+    <row r="365" spans="1:13" ht="49.7" customHeight="1">
       <c r="A365" s="10"/>
       <c r="B365" s="4"/>
-      <c r="C365" s="5"/>
+      <c r="C365" s="6"/>
       <c r="D365" s="5"/>
       <c r="E365" s="6"/>
       <c r="F365" s="5"/>
@@ -7311,10 +8442,10 @@
       <c r="L365" s="9"/>
       <c r="M365" s="9"/>
     </row>
-    <row r="366" spans="1:13" ht="49.65" customHeight="1">
+    <row r="366" spans="1:13" ht="49.7" customHeight="1">
       <c r="A366" s="10"/>
       <c r="B366" s="4"/>
-      <c r="C366" s="5"/>
+      <c r="C366" s="6"/>
       <c r="D366" s="5"/>
       <c r="E366" s="6"/>
       <c r="F366" s="5"/>
@@ -7326,10 +8457,10 @@
       <c r="L366" s="9"/>
       <c r="M366" s="9"/>
     </row>
-    <row r="367" spans="1:13" ht="49.65" customHeight="1">
+    <row r="367" spans="1:13" ht="49.7" customHeight="1">
       <c r="A367" s="10"/>
       <c r="B367" s="4"/>
-      <c r="C367" s="5"/>
+      <c r="C367" s="6"/>
       <c r="D367" s="5"/>
       <c r="E367" s="6"/>
       <c r="F367" s="5"/>
@@ -7341,10 +8472,10 @@
       <c r="L367" s="9"/>
       <c r="M367" s="9"/>
     </row>
-    <row r="368" spans="1:13" ht="49.65" customHeight="1">
+    <row r="368" spans="1:13" ht="49.7" customHeight="1">
       <c r="A368" s="10"/>
       <c r="B368" s="4"/>
-      <c r="C368" s="5"/>
+      <c r="C368" s="6"/>
       <c r="D368" s="5"/>
       <c r="E368" s="6"/>
       <c r="F368" s="5"/>
@@ -7356,10 +8487,10 @@
       <c r="L368" s="9"/>
       <c r="M368" s="9"/>
     </row>
-    <row r="369" spans="1:13" ht="49.65" customHeight="1">
+    <row r="369" spans="1:13" ht="49.7" customHeight="1">
       <c r="A369" s="10"/>
       <c r="B369" s="4"/>
-      <c r="C369" s="5"/>
+      <c r="C369" s="6"/>
       <c r="D369" s="5"/>
       <c r="E369" s="6"/>
       <c r="F369" s="5"/>
@@ -7371,10 +8502,10 @@
       <c r="L369" s="9"/>
       <c r="M369" s="9"/>
     </row>
-    <row r="370" spans="1:13" ht="49.65" customHeight="1">
+    <row r="370" spans="1:13" ht="49.7" customHeight="1">
       <c r="A370" s="10"/>
       <c r="B370" s="4"/>
-      <c r="C370" s="5"/>
+      <c r="C370" s="6"/>
       <c r="D370" s="5"/>
       <c r="E370" s="6"/>
       <c r="F370" s="5"/>
@@ -7386,10 +8517,10 @@
       <c r="L370" s="9"/>
       <c r="M370" s="9"/>
     </row>
-    <row r="371" spans="1:13" ht="49.65" customHeight="1">
+    <row r="371" spans="1:13" ht="49.7" customHeight="1">
       <c r="A371" s="10"/>
       <c r="B371" s="4"/>
-      <c r="C371" s="5"/>
+      <c r="C371" s="6"/>
       <c r="D371" s="5"/>
       <c r="E371" s="6"/>
       <c r="F371" s="5"/>
@@ -7401,10 +8532,10 @@
       <c r="L371" s="9"/>
       <c r="M371" s="9"/>
     </row>
-    <row r="372" spans="1:13" ht="49.65" customHeight="1">
+    <row r="372" spans="1:13" ht="49.7" customHeight="1">
       <c r="A372" s="10"/>
       <c r="B372" s="4"/>
-      <c r="C372" s="5"/>
+      <c r="C372" s="6"/>
       <c r="D372" s="5"/>
       <c r="E372" s="6"/>
       <c r="F372" s="5"/>
@@ -7416,10 +8547,10 @@
       <c r="L372" s="9"/>
       <c r="M372" s="9"/>
     </row>
-    <row r="373" spans="1:13" ht="49.65" customHeight="1">
+    <row r="373" spans="1:13" ht="49.7" customHeight="1">
       <c r="A373" s="10"/>
       <c r="B373" s="4"/>
-      <c r="C373" s="5"/>
+      <c r="C373" s="6"/>
       <c r="D373" s="5"/>
       <c r="E373" s="6"/>
       <c r="F373" s="5"/>
@@ -7431,10 +8562,10 @@
       <c r="L373" s="9"/>
       <c r="M373" s="9"/>
     </row>
-    <row r="374" spans="1:13" ht="49.65" customHeight="1">
+    <row r="374" spans="1:13" ht="49.7" customHeight="1">
       <c r="A374" s="10"/>
       <c r="B374" s="4"/>
-      <c r="C374" s="5"/>
+      <c r="C374" s="6"/>
       <c r="D374" s="5"/>
       <c r="E374" s="6"/>
       <c r="F374" s="5"/>
@@ -7446,10 +8577,10 @@
       <c r="L374" s="9"/>
       <c r="M374" s="9"/>
     </row>
-    <row r="375" spans="1:13" ht="49.65" customHeight="1">
+    <row r="375" spans="1:13" ht="49.7" customHeight="1">
       <c r="A375" s="10"/>
       <c r="B375" s="4"/>
-      <c r="C375" s="5"/>
+      <c r="C375" s="6"/>
       <c r="D375" s="5"/>
       <c r="E375" s="6"/>
       <c r="F375" s="5"/>
@@ -7461,10 +8592,10 @@
       <c r="L375" s="9"/>
       <c r="M375" s="9"/>
     </row>
-    <row r="376" spans="1:13" ht="49.65" customHeight="1">
+    <row r="376" spans="1:13" ht="49.7" customHeight="1">
       <c r="A376" s="10"/>
       <c r="B376" s="4"/>
-      <c r="C376" s="5"/>
+      <c r="C376" s="6"/>
       <c r="D376" s="5"/>
       <c r="E376" s="6"/>
       <c r="F376" s="5"/>
@@ -7476,10 +8607,10 @@
       <c r="L376" s="9"/>
       <c r="M376" s="9"/>
     </row>
-    <row r="377" spans="1:13" ht="49.65" customHeight="1">
+    <row r="377" spans="1:13" ht="49.7" customHeight="1">
       <c r="A377" s="10"/>
       <c r="B377" s="4"/>
-      <c r="C377" s="5"/>
+      <c r="C377" s="6"/>
       <c r="D377" s="5"/>
       <c r="E377" s="6"/>
       <c r="F377" s="5"/>
@@ -7491,10 +8622,10 @@
       <c r="L377" s="9"/>
       <c r="M377" s="9"/>
     </row>
-    <row r="378" spans="1:13" ht="49.65" customHeight="1">
+    <row r="378" spans="1:13" ht="49.7" customHeight="1">
       <c r="A378" s="10"/>
       <c r="B378" s="4"/>
-      <c r="C378" s="5"/>
+      <c r="C378" s="6"/>
       <c r="D378" s="5"/>
       <c r="E378" s="6"/>
       <c r="F378" s="5"/>
@@ -7506,10 +8637,10 @@
       <c r="L378" s="9"/>
       <c r="M378" s="9"/>
     </row>
-    <row r="379" spans="1:13" ht="49.65" customHeight="1">
+    <row r="379" spans="1:13" ht="49.7" customHeight="1">
       <c r="A379" s="10"/>
       <c r="B379" s="4"/>
-      <c r="C379" s="5"/>
+      <c r="C379" s="6"/>
       <c r="D379" s="5"/>
       <c r="E379" s="6"/>
       <c r="F379" s="5"/>
@@ -7521,10 +8652,10 @@
       <c r="L379" s="9"/>
       <c r="M379" s="9"/>
     </row>
-    <row r="380" spans="1:13" ht="49.65" customHeight="1">
+    <row r="380" spans="1:13" ht="49.7" customHeight="1">
       <c r="A380" s="10"/>
       <c r="B380" s="4"/>
-      <c r="C380" s="5"/>
+      <c r="C380" s="6"/>
       <c r="D380" s="5"/>
       <c r="E380" s="6"/>
       <c r="F380" s="5"/>
@@ -7536,10 +8667,10 @@
       <c r="L380" s="9"/>
       <c r="M380" s="9"/>
     </row>
-    <row r="381" spans="1:13" ht="49.65" customHeight="1">
+    <row r="381" spans="1:13" ht="49.7" customHeight="1">
       <c r="A381" s="10"/>
       <c r="B381" s="4"/>
-      <c r="C381" s="5"/>
+      <c r="C381" s="6"/>
       <c r="D381" s="5"/>
       <c r="E381" s="6"/>
       <c r="F381" s="5"/>
@@ -7551,10 +8682,10 @@
       <c r="L381" s="9"/>
       <c r="M381" s="9"/>
     </row>
-    <row r="382" spans="1:13" ht="49.65" customHeight="1">
+    <row r="382" spans="1:13" ht="49.7" customHeight="1">
       <c r="A382" s="10"/>
       <c r="B382" s="4"/>
-      <c r="C382" s="5"/>
+      <c r="C382" s="6"/>
       <c r="D382" s="5"/>
       <c r="E382" s="6"/>
       <c r="F382" s="5"/>
@@ -7566,10 +8697,10 @@
       <c r="L382" s="9"/>
       <c r="M382" s="9"/>
     </row>
-    <row r="383" spans="1:13" ht="49.65" customHeight="1">
+    <row r="383" spans="1:13" ht="49.7" customHeight="1">
       <c r="A383" s="10"/>
       <c r="B383" s="4"/>
-      <c r="C383" s="5"/>
+      <c r="C383" s="6"/>
       <c r="D383" s="5"/>
       <c r="E383" s="6"/>
       <c r="F383" s="5"/>
@@ -7581,10 +8712,10 @@
       <c r="L383" s="9"/>
       <c r="M383" s="9"/>
     </row>
-    <row r="384" spans="1:13" ht="49.65" customHeight="1">
+    <row r="384" spans="1:13" ht="49.7" customHeight="1">
       <c r="A384" s="10"/>
       <c r="B384" s="4"/>
-      <c r="C384" s="5"/>
+      <c r="C384" s="6"/>
       <c r="D384" s="5"/>
       <c r="E384" s="6"/>
       <c r="F384" s="5"/>
@@ -7596,10 +8727,10 @@
       <c r="L384" s="9"/>
       <c r="M384" s="9"/>
     </row>
-    <row r="385" spans="1:13" ht="49.65" customHeight="1">
+    <row r="385" spans="1:13" ht="49.7" customHeight="1">
       <c r="A385" s="10"/>
       <c r="B385" s="4"/>
-      <c r="C385" s="5"/>
+      <c r="C385" s="6"/>
       <c r="D385" s="5"/>
       <c r="E385" s="6"/>
       <c r="F385" s="5"/>
@@ -7611,10 +8742,10 @@
       <c r="L385" s="9"/>
       <c r="M385" s="9"/>
     </row>
-    <row r="386" spans="1:13" ht="49.65" customHeight="1">
+    <row r="386" spans="1:13" ht="49.7" customHeight="1">
       <c r="A386" s="10"/>
       <c r="B386" s="4"/>
-      <c r="C386" s="5"/>
+      <c r="C386" s="6"/>
       <c r="D386" s="5"/>
       <c r="E386" s="6"/>
       <c r="F386" s="5"/>
@@ -7626,10 +8757,10 @@
       <c r="L386" s="9"/>
       <c r="M386" s="9"/>
     </row>
-    <row r="387" spans="1:13" ht="49.65" customHeight="1">
+    <row r="387" spans="1:13" ht="49.7" customHeight="1">
       <c r="A387" s="10"/>
       <c r="B387" s="4"/>
-      <c r="C387" s="5"/>
+      <c r="C387" s="6"/>
       <c r="D387" s="5"/>
       <c r="E387" s="6"/>
       <c r="F387" s="5"/>
@@ -7641,10 +8772,10 @@
       <c r="L387" s="9"/>
       <c r="M387" s="9"/>
     </row>
-    <row r="388" spans="1:13" ht="49.65" customHeight="1">
+    <row r="388" spans="1:13" ht="49.7" customHeight="1">
       <c r="A388" s="10"/>
       <c r="B388" s="4"/>
-      <c r="C388" s="5"/>
+      <c r="C388" s="6"/>
       <c r="D388" s="5"/>
       <c r="E388" s="6"/>
       <c r="F388" s="5"/>
@@ -7656,10 +8787,10 @@
       <c r="L388" s="9"/>
       <c r="M388" s="9"/>
     </row>
-    <row r="389" spans="1:13" ht="49.65" customHeight="1">
+    <row r="389" spans="1:13" ht="49.7" customHeight="1">
       <c r="A389" s="10"/>
       <c r="B389" s="4"/>
-      <c r="C389" s="5"/>
+      <c r="C389" s="6"/>
       <c r="D389" s="5"/>
       <c r="E389" s="6"/>
       <c r="F389" s="5"/>
@@ -7671,10 +8802,10 @@
       <c r="L389" s="9"/>
       <c r="M389" s="9"/>
     </row>
-    <row r="390" spans="1:13" ht="49.65" customHeight="1">
+    <row r="390" spans="1:13" ht="49.7" customHeight="1">
       <c r="A390" s="10"/>
       <c r="B390" s="4"/>
-      <c r="C390" s="5"/>
+      <c r="C390" s="6"/>
       <c r="D390" s="5"/>
       <c r="E390" s="6"/>
       <c r="F390" s="5"/>
@@ -7686,10 +8817,10 @@
       <c r="L390" s="9"/>
       <c r="M390" s="9"/>
     </row>
-    <row r="391" spans="1:13" ht="49.65" customHeight="1">
+    <row r="391" spans="1:13" ht="49.7" customHeight="1">
       <c r="A391" s="10"/>
       <c r="B391" s="4"/>
-      <c r="C391" s="5"/>
+      <c r="C391" s="6"/>
       <c r="D391" s="5"/>
       <c r="E391" s="6"/>
       <c r="F391" s="5"/>
@@ -7701,10 +8832,10 @@
       <c r="L391" s="9"/>
       <c r="M391" s="9"/>
     </row>
-    <row r="392" spans="1:13" ht="49.65" customHeight="1">
+    <row r="392" spans="1:13" ht="49.7" customHeight="1">
       <c r="A392" s="10"/>
       <c r="B392" s="4"/>
-      <c r="C392" s="5"/>
+      <c r="C392" s="6"/>
       <c r="D392" s="5"/>
       <c r="E392" s="6"/>
       <c r="F392" s="5"/>
@@ -7716,10 +8847,10 @@
       <c r="L392" s="9"/>
       <c r="M392" s="9"/>
     </row>
-    <row r="393" spans="1:13" ht="49.65" customHeight="1">
+    <row r="393" spans="1:13" ht="49.7" customHeight="1">
       <c r="A393" s="10"/>
       <c r="B393" s="4"/>
-      <c r="C393" s="5"/>
+      <c r="C393" s="6"/>
       <c r="D393" s="5"/>
       <c r="E393" s="6"/>
       <c r="F393" s="5"/>
@@ -7731,10 +8862,10 @@
       <c r="L393" s="9"/>
       <c r="M393" s="9"/>
     </row>
-    <row r="394" spans="1:13" ht="49.65" customHeight="1">
+    <row r="394" spans="1:13" ht="49.7" customHeight="1">
       <c r="A394" s="10"/>
       <c r="B394" s="4"/>
-      <c r="C394" s="5"/>
+      <c r="C394" s="6"/>
       <c r="D394" s="5"/>
       <c r="E394" s="6"/>
       <c r="F394" s="5"/>
@@ -7746,10 +8877,10 @@
       <c r="L394" s="9"/>
       <c r="M394" s="9"/>
     </row>
-    <row r="395" spans="1:13" ht="49.65" customHeight="1">
+    <row r="395" spans="1:13" ht="49.7" customHeight="1">
       <c r="A395" s="10"/>
       <c r="B395" s="4"/>
-      <c r="C395" s="5"/>
+      <c r="C395" s="6"/>
       <c r="D395" s="5"/>
       <c r="E395" s="6"/>
       <c r="F395" s="5"/>
@@ -7761,10 +8892,10 @@
       <c r="L395" s="9"/>
       <c r="M395" s="9"/>
     </row>
-    <row r="396" spans="1:13" ht="49.65" customHeight="1">
+    <row r="396" spans="1:13" ht="49.7" customHeight="1">
       <c r="A396" s="10"/>
       <c r="B396" s="4"/>
-      <c r="C396" s="5"/>
+      <c r="C396" s="6"/>
       <c r="D396" s="5"/>
       <c r="E396" s="6"/>
       <c r="F396" s="5"/>
@@ -7776,10 +8907,10 @@
       <c r="L396" s="9"/>
       <c r="M396" s="9"/>
     </row>
-    <row r="397" spans="1:13" ht="49.65" customHeight="1">
+    <row r="397" spans="1:13" ht="49.7" customHeight="1">
       <c r="A397" s="10"/>
       <c r="B397" s="4"/>
-      <c r="C397" s="5"/>
+      <c r="C397" s="6"/>
       <c r="D397" s="5"/>
       <c r="E397" s="6"/>
       <c r="F397" s="5"/>
@@ -7791,10 +8922,10 @@
       <c r="L397" s="9"/>
       <c r="M397" s="9"/>
     </row>
-    <row r="398" spans="1:13" ht="49.65" customHeight="1">
+    <row r="398" spans="1:13" ht="49.7" customHeight="1">
       <c r="A398" s="10"/>
       <c r="B398" s="4"/>
-      <c r="C398" s="5"/>
+      <c r="C398" s="6"/>
       <c r="D398" s="5"/>
       <c r="E398" s="6"/>
       <c r="F398" s="5"/>
@@ -7806,10 +8937,10 @@
       <c r="L398" s="9"/>
       <c r="M398" s="9"/>
     </row>
-    <row r="399" spans="1:13" ht="49.65" customHeight="1">
+    <row r="399" spans="1:13" ht="49.7" customHeight="1">
       <c r="A399" s="10"/>
       <c r="B399" s="4"/>
-      <c r="C399" s="5"/>
+      <c r="C399" s="6"/>
       <c r="D399" s="5"/>
       <c r="E399" s="6"/>
       <c r="F399" s="5"/>
@@ -7821,10 +8952,10 @@
       <c r="L399" s="9"/>
       <c r="M399" s="9"/>
     </row>
-    <row r="400" spans="1:13" ht="49.65" customHeight="1">
+    <row r="400" spans="1:13" ht="49.7" customHeight="1">
       <c r="A400" s="10"/>
       <c r="B400" s="4"/>
-      <c r="C400" s="5"/>
+      <c r="C400" s="6"/>
       <c r="D400" s="5"/>
       <c r="E400" s="6"/>
       <c r="F400" s="5"/>
@@ -7836,10 +8967,10 @@
       <c r="L400" s="9"/>
       <c r="M400" s="9"/>
     </row>
-    <row r="401" spans="1:13" ht="49.65" customHeight="1">
+    <row r="401" spans="1:13" ht="49.7" customHeight="1">
       <c r="A401" s="10"/>
       <c r="B401" s="4"/>
-      <c r="C401" s="5"/>
+      <c r="C401" s="6"/>
       <c r="D401" s="5"/>
       <c r="E401" s="6"/>
       <c r="F401" s="5"/>
@@ -7851,10 +8982,10 @@
       <c r="L401" s="9"/>
       <c r="M401" s="9"/>
     </row>
-    <row r="402" spans="1:13" ht="49.65" customHeight="1">
+    <row r="402" spans="1:13" ht="49.7" customHeight="1">
       <c r="A402" s="10"/>
       <c r="B402" s="4"/>
-      <c r="C402" s="5"/>
+      <c r="C402" s="6"/>
       <c r="D402" s="5"/>
       <c r="E402" s="6"/>
       <c r="F402" s="5"/>
@@ -7866,10 +8997,10 @@
       <c r="L402" s="9"/>
       <c r="M402" s="9"/>
     </row>
-    <row r="403" spans="1:13" ht="49.65" customHeight="1">
+    <row r="403" spans="1:13" ht="49.7" customHeight="1">
       <c r="A403" s="10"/>
       <c r="B403" s="4"/>
-      <c r="C403" s="5"/>
+      <c r="C403" s="6"/>
       <c r="D403" s="5"/>
       <c r="E403" s="6"/>
       <c r="F403" s="5"/>
@@ -7881,10 +9012,10 @@
       <c r="L403" s="9"/>
       <c r="M403" s="9"/>
     </row>
-    <row r="404" spans="1:13" ht="49.65" customHeight="1">
+    <row r="404" spans="1:13" ht="49.7" customHeight="1">
       <c r="A404" s="10"/>
       <c r="B404" s="4"/>
-      <c r="C404" s="5"/>
+      <c r="C404" s="6"/>
       <c r="D404" s="5"/>
       <c r="E404" s="6"/>
       <c r="F404" s="5"/>
@@ -7896,10 +9027,10 @@
       <c r="L404" s="9"/>
       <c r="M404" s="9"/>
     </row>
-    <row r="405" spans="1:13" ht="49.65" customHeight="1">
+    <row r="405" spans="1:13" ht="49.7" customHeight="1">
       <c r="A405" s="10"/>
       <c r="B405" s="4"/>
-      <c r="C405" s="5"/>
+      <c r="C405" s="6"/>
       <c r="D405" s="5"/>
       <c r="E405" s="6"/>
       <c r="F405" s="5"/>
@@ -7911,10 +9042,10 @@
       <c r="L405" s="9"/>
       <c r="M405" s="9"/>
     </row>
-    <row r="406" spans="1:13" ht="49.65" customHeight="1">
+    <row r="406" spans="1:13" ht="49.7" customHeight="1">
       <c r="A406" s="10"/>
       <c r="B406" s="4"/>
-      <c r="C406" s="5"/>
+      <c r="C406" s="6"/>
       <c r="D406" s="5"/>
       <c r="E406" s="6"/>
       <c r="F406" s="5"/>
@@ -7926,10 +9057,10 @@
       <c r="L406" s="9"/>
       <c r="M406" s="9"/>
     </row>
-    <row r="407" spans="1:13" ht="49.65" customHeight="1">
+    <row r="407" spans="1:13" ht="49.7" customHeight="1">
       <c r="A407" s="10"/>
       <c r="B407" s="4"/>
-      <c r="C407" s="5"/>
+      <c r="C407" s="6"/>
       <c r="D407" s="5"/>
       <c r="E407" s="6"/>
       <c r="F407" s="5"/>
@@ -7941,10 +9072,10 @@
       <c r="L407" s="9"/>
       <c r="M407" s="9"/>
     </row>
-    <row r="408" spans="1:13" ht="49.65" customHeight="1">
+    <row r="408" spans="1:13" ht="49.7" customHeight="1">
       <c r="A408" s="10"/>
       <c r="B408" s="4"/>
-      <c r="C408" s="5"/>
+      <c r="C408" s="6"/>
       <c r="D408" s="5"/>
       <c r="E408" s="6"/>
       <c r="F408" s="5"/>
@@ -7956,10 +9087,10 @@
       <c r="L408" s="9"/>
       <c r="M408" s="9"/>
     </row>
-    <row r="409" spans="1:13" ht="49.65" customHeight="1">
+    <row r="409" spans="1:13" ht="49.7" customHeight="1">
       <c r="A409" s="10"/>
       <c r="B409" s="4"/>
-      <c r="C409" s="5"/>
+      <c r="C409" s="6"/>
       <c r="D409" s="5"/>
       <c r="E409" s="6"/>
       <c r="F409" s="5"/>
@@ -7971,10 +9102,10 @@
       <c r="L409" s="9"/>
       <c r="M409" s="9"/>
     </row>
-    <row r="410" spans="1:13" ht="49.65" customHeight="1">
+    <row r="410" spans="1:13" ht="49.7" customHeight="1">
       <c r="A410" s="10"/>
       <c r="B410" s="4"/>
-      <c r="C410" s="5"/>
+      <c r="C410" s="6"/>
       <c r="D410" s="5"/>
       <c r="E410" s="6"/>
       <c r="F410" s="5"/>
@@ -7986,10 +9117,10 @@
       <c r="L410" s="9"/>
       <c r="M410" s="9"/>
     </row>
-    <row r="411" spans="1:13" ht="49.65" customHeight="1">
+    <row r="411" spans="1:13" ht="49.7" customHeight="1">
       <c r="A411" s="10"/>
       <c r="B411" s="4"/>
-      <c r="C411" s="5"/>
+      <c r="C411" s="6"/>
       <c r="D411" s="5"/>
       <c r="E411" s="6"/>
       <c r="F411" s="5"/>
@@ -8001,10 +9132,10 @@
       <c r="L411" s="9"/>
       <c r="M411" s="9"/>
     </row>
-    <row r="412" spans="1:13" ht="49.65" customHeight="1">
+    <row r="412" spans="1:13" ht="49.7" customHeight="1">
       <c r="A412" s="10"/>
       <c r="B412" s="4"/>
-      <c r="C412" s="5"/>
+      <c r="C412" s="6"/>
       <c r="D412" s="5"/>
       <c r="E412" s="6"/>
       <c r="F412" s="5"/>
@@ -8016,10 +9147,10 @@
       <c r="L412" s="9"/>
       <c r="M412" s="9"/>
     </row>
-    <row r="413" spans="1:13" ht="49.65" customHeight="1">
+    <row r="413" spans="1:13" ht="49.7" customHeight="1">
       <c r="A413" s="10"/>
       <c r="B413" s="4"/>
-      <c r="C413" s="5"/>
+      <c r="C413" s="6"/>
       <c r="D413" s="5"/>
       <c r="E413" s="6"/>
       <c r="F413" s="5"/>
@@ -8031,10 +9162,10 @@
       <c r="L413" s="5"/>
       <c r="M413" s="9"/>
     </row>
-    <row r="414" spans="1:13" ht="49.65" customHeight="1">
+    <row r="414" spans="1:13" ht="49.7" customHeight="1">
       <c r="A414" s="10"/>
       <c r="B414" s="4"/>
-      <c r="C414" s="5"/>
+      <c r="C414" s="6"/>
       <c r="D414" s="5"/>
       <c r="E414" s="6"/>
       <c r="F414" s="5"/>
@@ -8046,10 +9177,10 @@
       <c r="L414" s="5"/>
       <c r="M414" s="9"/>
     </row>
-    <row r="415" spans="1:13" ht="49.65" customHeight="1">
+    <row r="415" spans="1:13" ht="49.7" customHeight="1">
       <c r="A415" s="10"/>
       <c r="B415" s="4"/>
-      <c r="C415" s="5"/>
+      <c r="C415" s="6"/>
       <c r="D415" s="5"/>
       <c r="E415" s="6"/>
       <c r="F415" s="5"/>
@@ -8061,10 +9192,10 @@
       <c r="L415" s="5"/>
       <c r="M415" s="5"/>
     </row>
-    <row r="416" spans="1:13" ht="49.65" customHeight="1">
+    <row r="416" spans="1:13" ht="49.7" customHeight="1">
       <c r="A416" s="10"/>
       <c r="B416" s="4"/>
-      <c r="C416" s="5"/>
+      <c r="C416" s="6"/>
       <c r="D416" s="5"/>
       <c r="E416" s="6"/>
       <c r="F416" s="5"/>
@@ -8076,10 +9207,10 @@
       <c r="L416" s="5"/>
       <c r="M416" s="5"/>
     </row>
-    <row r="417" spans="1:13" ht="49.65" customHeight="1">
+    <row r="417" spans="1:13" ht="49.7" customHeight="1">
       <c r="A417" s="10"/>
       <c r="B417" s="4"/>
-      <c r="C417" s="5"/>
+      <c r="C417" s="6"/>
       <c r="D417" s="5"/>
       <c r="E417" s="6"/>
       <c r="F417" s="5"/>
@@ -8091,10 +9222,10 @@
       <c r="L417" s="5"/>
       <c r="M417" s="5"/>
     </row>
-    <row r="418" spans="1:13" ht="49.65" customHeight="1">
+    <row r="418" spans="1:13" ht="49.7" customHeight="1">
       <c r="A418" s="10"/>
       <c r="B418" s="4"/>
-      <c r="C418" s="5"/>
+      <c r="C418" s="6"/>
       <c r="D418" s="5"/>
       <c r="E418" s="6"/>
       <c r="F418" s="5"/>
@@ -8106,10 +9237,10 @@
       <c r="L418" s="5"/>
       <c r="M418" s="5"/>
     </row>
-    <row r="419" spans="1:13" ht="49.65" customHeight="1">
+    <row r="419" spans="1:13" ht="49.7" customHeight="1">
       <c r="A419" s="10"/>
       <c r="B419" s="4"/>
-      <c r="C419" s="5"/>
+      <c r="C419" s="6"/>
       <c r="D419" s="5"/>
       <c r="E419" s="6"/>
       <c r="F419" s="5"/>
@@ -8121,10 +9252,10 @@
       <c r="L419" s="5"/>
       <c r="M419" s="5"/>
     </row>
-    <row r="420" spans="1:13" ht="49.65" customHeight="1">
+    <row r="420" spans="1:13" ht="49.7" customHeight="1">
       <c r="A420" s="10"/>
       <c r="B420" s="4"/>
-      <c r="C420" s="5"/>
+      <c r="C420" s="6"/>
       <c r="D420" s="5"/>
       <c r="E420" s="6"/>
       <c r="F420" s="5"/>
@@ -8136,10 +9267,10 @@
       <c r="L420" s="5"/>
       <c r="M420" s="5"/>
     </row>
-    <row r="421" spans="1:13" ht="49.65" customHeight="1">
+    <row r="421" spans="1:13" ht="49.7" customHeight="1">
       <c r="A421" s="10"/>
       <c r="B421" s="4"/>
-      <c r="C421" s="5"/>
+      <c r="C421" s="6"/>
       <c r="D421" s="5"/>
       <c r="E421" s="6"/>
       <c r="F421" s="5"/>
@@ -8151,10 +9282,10 @@
       <c r="L421" s="5"/>
       <c r="M421" s="5"/>
     </row>
-    <row r="422" spans="1:13" ht="49.65" customHeight="1">
+    <row r="422" spans="1:13" ht="49.7" customHeight="1">
       <c r="A422" s="10"/>
       <c r="B422" s="4"/>
-      <c r="C422" s="5"/>
+      <c r="C422" s="6"/>
       <c r="D422" s="5"/>
       <c r="E422" s="6"/>
       <c r="F422" s="5"/>
@@ -8166,10 +9297,10 @@
       <c r="L422" s="5"/>
       <c r="M422" s="5"/>
     </row>
-    <row r="423" spans="1:13" ht="49.65" customHeight="1">
+    <row r="423" spans="1:13" ht="49.7" customHeight="1">
       <c r="A423" s="10"/>
       <c r="B423" s="4"/>
-      <c r="C423" s="5"/>
+      <c r="C423" s="6"/>
       <c r="D423" s="5"/>
       <c r="E423" s="6"/>
       <c r="F423" s="5"/>
@@ -8181,10 +9312,10 @@
       <c r="L423" s="5"/>
       <c r="M423" s="5"/>
     </row>
-    <row r="424" spans="1:13" ht="49.65" customHeight="1">
+    <row r="424" spans="1:13" ht="49.7" customHeight="1">
       <c r="A424" s="10"/>
       <c r="B424" s="4"/>
-      <c r="C424" s="5"/>
+      <c r="C424" s="6"/>
       <c r="D424" s="5"/>
       <c r="E424" s="6"/>
       <c r="F424" s="5"/>
@@ -8196,10 +9327,10 @@
       <c r="L424" s="5"/>
       <c r="M424" s="5"/>
     </row>
-    <row r="425" spans="1:13" ht="49.65" customHeight="1">
+    <row r="425" spans="1:13" ht="49.7" customHeight="1">
       <c r="A425" s="10"/>
       <c r="B425" s="4"/>
-      <c r="C425" s="5"/>
+      <c r="C425" s="6"/>
       <c r="D425" s="5"/>
       <c r="E425" s="6"/>
       <c r="F425" s="5"/>
@@ -8211,10 +9342,10 @@
       <c r="L425" s="5"/>
       <c r="M425" s="5"/>
     </row>
-    <row r="426" spans="1:13" ht="49.65" customHeight="1">
+    <row r="426" spans="1:13" ht="49.7" customHeight="1">
       <c r="A426" s="10"/>
       <c r="B426" s="4"/>
-      <c r="C426" s="5"/>
+      <c r="C426" s="6"/>
       <c r="D426" s="5"/>
       <c r="E426" s="6"/>
       <c r="F426" s="5"/>
@@ -8226,10 +9357,10 @@
       <c r="L426" s="5"/>
       <c r="M426" s="5"/>
     </row>
-    <row r="427" spans="1:13" ht="49.65" customHeight="1">
+    <row r="427" spans="1:13" ht="49.7" customHeight="1">
       <c r="A427" s="10"/>
       <c r="B427" s="4"/>
-      <c r="C427" s="5"/>
+      <c r="C427" s="6"/>
       <c r="D427" s="5"/>
       <c r="E427" s="6"/>
       <c r="F427" s="5"/>
@@ -8241,10 +9372,10 @@
       <c r="L427" s="5"/>
       <c r="M427" s="5"/>
     </row>
-    <row r="428" spans="1:13" ht="49.65" customHeight="1">
+    <row r="428" spans="1:13" ht="49.7" customHeight="1">
       <c r="A428" s="10"/>
       <c r="B428" s="4"/>
-      <c r="C428" s="5"/>
+      <c r="C428" s="6"/>
       <c r="D428" s="5"/>
       <c r="E428" s="6"/>
       <c r="F428" s="5"/>
@@ -8256,10 +9387,10 @@
       <c r="L428" s="5"/>
       <c r="M428" s="5"/>
     </row>
-    <row r="429" spans="1:13" ht="49.65" customHeight="1">
+    <row r="429" spans="1:13" ht="49.7" customHeight="1">
       <c r="A429" s="10"/>
       <c r="B429" s="4"/>
-      <c r="C429" s="5"/>
+      <c r="C429" s="6"/>
       <c r="D429" s="5"/>
       <c r="E429" s="6"/>
       <c r="F429" s="5"/>
@@ -8271,10 +9402,10 @@
       <c r="L429" s="5"/>
       <c r="M429" s="5"/>
     </row>
-    <row r="430" spans="1:13" ht="49.65" customHeight="1">
+    <row r="430" spans="1:13" ht="49.7" customHeight="1">
       <c r="A430" s="10"/>
       <c r="B430" s="4"/>
-      <c r="C430" s="5"/>
+      <c r="C430" s="6"/>
       <c r="D430" s="5"/>
       <c r="E430" s="6"/>
       <c r="F430" s="5"/>
@@ -8286,10 +9417,10 @@
       <c r="L430" s="5"/>
       <c r="M430" s="5"/>
     </row>
-    <row r="431" spans="1:13" ht="49.65" customHeight="1">
+    <row r="431" spans="1:13" ht="49.7" customHeight="1">
       <c r="A431" s="10"/>
       <c r="B431" s="4"/>
-      <c r="C431" s="5"/>
+      <c r="C431" s="6"/>
       <c r="D431" s="5"/>
       <c r="E431" s="6"/>
       <c r="F431" s="5"/>
@@ -8301,10 +9432,10 @@
       <c r="L431" s="5"/>
       <c r="M431" s="5"/>
     </row>
-    <row r="432" spans="1:13" ht="49.65" customHeight="1">
+    <row r="432" spans="1:13" ht="49.7" customHeight="1">
       <c r="A432" s="10"/>
       <c r="B432" s="4"/>
-      <c r="C432" s="5"/>
+      <c r="C432" s="6"/>
       <c r="D432" s="5"/>
       <c r="E432" s="6"/>
       <c r="F432" s="5"/>
@@ -8316,10 +9447,10 @@
       <c r="L432" s="5"/>
       <c r="M432" s="5"/>
     </row>
-    <row r="433" spans="1:13" ht="49.65" customHeight="1">
+    <row r="433" spans="1:13" ht="49.7" customHeight="1">
       <c r="A433" s="10"/>
       <c r="B433" s="4"/>
-      <c r="C433" s="5"/>
+      <c r="C433" s="6"/>
       <c r="D433" s="5"/>
       <c r="E433" s="6"/>
       <c r="F433" s="5"/>
@@ -8331,10 +9462,10 @@
       <c r="L433" s="5"/>
       <c r="M433" s="5"/>
     </row>
-    <row r="434" spans="1:13" ht="49.65" customHeight="1">
+    <row r="434" spans="1:13" ht="49.7" customHeight="1">
       <c r="A434" s="10"/>
       <c r="B434" s="4"/>
-      <c r="C434" s="5"/>
+      <c r="C434" s="6"/>
       <c r="D434" s="5"/>
       <c r="E434" s="6"/>
       <c r="F434" s="5"/>
@@ -8346,10 +9477,10 @@
       <c r="L434" s="5"/>
       <c r="M434" s="5"/>
     </row>
-    <row r="435" spans="1:13" ht="49.65" customHeight="1">
+    <row r="435" spans="1:13" ht="49.7" customHeight="1">
       <c r="A435" s="10"/>
       <c r="B435" s="4"/>
-      <c r="C435" s="5"/>
+      <c r="C435" s="6"/>
       <c r="D435" s="5"/>
       <c r="E435" s="6"/>
       <c r="F435" s="5"/>
@@ -8361,10 +9492,10 @@
       <c r="L435" s="5"/>
       <c r="M435" s="5"/>
     </row>
-    <row r="436" spans="1:13" ht="49.65" customHeight="1">
+    <row r="436" spans="1:13" ht="49.7" customHeight="1">
       <c r="A436" s="10"/>
       <c r="B436" s="4"/>
-      <c r="C436" s="5"/>
+      <c r="C436" s="6"/>
       <c r="D436" s="5"/>
       <c r="E436" s="6"/>
       <c r="F436" s="5"/>
@@ -8376,10 +9507,10 @@
       <c r="L436" s="5"/>
       <c r="M436" s="5"/>
     </row>
-    <row r="437" spans="1:13" ht="49.65" customHeight="1">
+    <row r="437" spans="1:13" ht="49.7" customHeight="1">
       <c r="A437" s="10"/>
       <c r="B437" s="4"/>
-      <c r="C437" s="5"/>
+      <c r="C437" s="6"/>
       <c r="D437" s="5"/>
       <c r="E437" s="6"/>
       <c r="F437" s="5"/>
@@ -8391,10 +9522,10 @@
       <c r="L437" s="5"/>
       <c r="M437" s="5"/>
     </row>
-    <row r="438" spans="1:13" ht="49.65" customHeight="1">
+    <row r="438" spans="1:13" ht="49.7" customHeight="1">
       <c r="A438" s="10"/>
       <c r="B438" s="4"/>
-      <c r="C438" s="5"/>
+      <c r="C438" s="6"/>
       <c r="D438" s="5"/>
       <c r="E438" s="6"/>
       <c r="F438" s="5"/>
@@ -8406,10 +9537,10 @@
       <c r="L438" s="5"/>
       <c r="M438" s="5"/>
     </row>
-    <row r="439" spans="1:13" ht="49.65" customHeight="1">
+    <row r="439" spans="1:13" ht="49.7" customHeight="1">
       <c r="A439" s="10"/>
       <c r="B439" s="4"/>
-      <c r="C439" s="5"/>
+      <c r="C439" s="6"/>
       <c r="D439" s="5"/>
       <c r="E439" s="6"/>
       <c r="F439" s="5"/>
@@ -8421,10 +9552,10 @@
       <c r="L439" s="5"/>
       <c r="M439" s="5"/>
     </row>
-    <row r="440" spans="1:13" ht="49.65" customHeight="1">
+    <row r="440" spans="1:13" ht="49.7" customHeight="1">
       <c r="A440" s="10"/>
       <c r="B440" s="4"/>
-      <c r="C440" s="5"/>
+      <c r="C440" s="6"/>
       <c r="D440" s="5"/>
       <c r="E440" s="6"/>
       <c r="F440" s="5"/>
@@ -8436,10 +9567,10 @@
       <c r="L440" s="5"/>
       <c r="M440" s="5"/>
     </row>
-    <row r="441" spans="1:13" ht="49.65" customHeight="1">
+    <row r="441" spans="1:13" ht="49.7" customHeight="1">
       <c r="A441" s="10"/>
       <c r="B441" s="4"/>
-      <c r="C441" s="5"/>
+      <c r="C441" s="6"/>
       <c r="D441" s="5"/>
       <c r="E441" s="6"/>
       <c r="F441" s="5"/>
@@ -8451,10 +9582,10 @@
       <c r="L441" s="5"/>
       <c r="M441" s="5"/>
     </row>
-    <row r="442" spans="1:13" ht="49.65" customHeight="1">
+    <row r="442" spans="1:13" ht="49.7" customHeight="1">
       <c r="A442" s="10"/>
       <c r="B442" s="4"/>
-      <c r="C442" s="5"/>
+      <c r="C442" s="6"/>
       <c r="D442" s="5"/>
       <c r="E442" s="6"/>
       <c r="F442" s="5"/>
@@ -8466,10 +9597,10 @@
       <c r="L442" s="5"/>
       <c r="M442" s="5"/>
     </row>
-    <row r="443" spans="1:13" ht="49.65" customHeight="1">
+    <row r="443" spans="1:13" ht="49.7" customHeight="1">
       <c r="A443" s="10"/>
       <c r="B443" s="4"/>
-      <c r="C443" s="5"/>
+      <c r="C443" s="6"/>
       <c r="D443" s="5"/>
       <c r="E443" s="6"/>
       <c r="F443" s="5"/>
@@ -8481,10 +9612,10 @@
       <c r="L443" s="5"/>
       <c r="M443" s="5"/>
     </row>
-    <row r="444" spans="1:13" ht="49.65" customHeight="1">
+    <row r="444" spans="1:13" ht="49.7" customHeight="1">
       <c r="A444" s="10"/>
       <c r="B444" s="4"/>
-      <c r="C444" s="5"/>
+      <c r="C444" s="6"/>
       <c r="D444" s="5"/>
       <c r="E444" s="6"/>
       <c r="F444" s="5"/>
@@ -8496,10 +9627,10 @@
       <c r="L444" s="5"/>
       <c r="M444" s="5"/>
     </row>
-    <row r="445" spans="1:13" ht="49.65" customHeight="1">
+    <row r="445" spans="1:13" ht="49.7" customHeight="1">
       <c r="A445" s="10"/>
       <c r="B445" s="4"/>
-      <c r="C445" s="5"/>
+      <c r="C445" s="6"/>
       <c r="D445" s="5"/>
       <c r="E445" s="6"/>
       <c r="F445" s="5"/>
@@ -8511,10 +9642,10 @@
       <c r="L445" s="5"/>
       <c r="M445" s="5"/>
     </row>
-    <row r="446" spans="1:13" ht="49.65" customHeight="1">
+    <row r="446" spans="1:13" ht="49.7" customHeight="1">
       <c r="A446" s="10"/>
       <c r="B446" s="4"/>
-      <c r="C446" s="5"/>
+      <c r="C446" s="6"/>
       <c r="D446" s="5"/>
       <c r="E446" s="6"/>
       <c r="F446" s="5"/>
@@ -8526,10 +9657,10 @@
       <c r="L446" s="5"/>
       <c r="M446" s="5"/>
     </row>
-    <row r="447" spans="1:13" ht="49.65" customHeight="1">
+    <row r="447" spans="1:13" ht="49.7" customHeight="1">
       <c r="A447" s="10"/>
       <c r="B447" s="4"/>
-      <c r="C447" s="5"/>
+      <c r="C447" s="6"/>
       <c r="D447" s="5"/>
       <c r="E447" s="6"/>
       <c r="F447" s="5"/>
@@ -8541,10 +9672,10 @@
       <c r="L447" s="5"/>
       <c r="M447" s="5"/>
     </row>
-    <row r="448" spans="1:13" ht="49.65" customHeight="1">
+    <row r="448" spans="1:13" ht="49.7" customHeight="1">
       <c r="A448" s="10"/>
       <c r="B448" s="4"/>
-      <c r="C448" s="5"/>
+      <c r="C448" s="6"/>
       <c r="D448" s="5"/>
       <c r="E448" s="6"/>
       <c r="F448" s="5"/>
@@ -8556,10 +9687,10 @@
       <c r="L448" s="5"/>
       <c r="M448" s="5"/>
     </row>
-    <row r="449" spans="1:13" ht="49.65" customHeight="1">
+    <row r="449" spans="1:13" ht="49.7" customHeight="1">
       <c r="A449" s="10"/>
       <c r="B449" s="4"/>
-      <c r="C449" s="5"/>
+      <c r="C449" s="6"/>
       <c r="D449" s="5"/>
       <c r="E449" s="6"/>
       <c r="F449" s="5"/>
@@ -8571,10 +9702,10 @@
       <c r="L449" s="5"/>
       <c r="M449" s="5"/>
     </row>
-    <row r="450" spans="1:13" ht="49.65" customHeight="1">
+    <row r="450" spans="1:13" ht="49.7" customHeight="1">
       <c r="A450" s="10"/>
       <c r="B450" s="4"/>
-      <c r="C450" s="5"/>
+      <c r="C450" s="6"/>
       <c r="D450" s="5"/>
       <c r="E450" s="6"/>
       <c r="F450" s="5"/>
@@ -8586,10 +9717,10 @@
       <c r="L450" s="5"/>
       <c r="M450" s="5"/>
     </row>
-    <row r="451" spans="1:13" ht="49.65" customHeight="1">
+    <row r="451" spans="1:13" ht="49.7" customHeight="1">
       <c r="A451" s="10"/>
       <c r="B451" s="4"/>
-      <c r="C451" s="5"/>
+      <c r="C451" s="6"/>
       <c r="D451" s="5"/>
       <c r="E451" s="6"/>
       <c r="F451" s="5"/>
@@ -8601,10 +9732,10 @@
       <c r="L451" s="5"/>
       <c r="M451" s="5"/>
     </row>
-    <row r="452" spans="1:13" ht="49.65" customHeight="1">
+    <row r="452" spans="1:13" ht="49.7" customHeight="1">
       <c r="A452" s="10"/>
       <c r="B452" s="4"/>
-      <c r="C452" s="5"/>
+      <c r="C452" s="6"/>
       <c r="D452" s="5"/>
       <c r="E452" s="6"/>
       <c r="F452" s="5"/>
@@ -8616,10 +9747,10 @@
       <c r="L452" s="5"/>
       <c r="M452" s="5"/>
     </row>
-    <row r="453" spans="1:13" ht="49.65" customHeight="1">
+    <row r="453" spans="1:13" ht="49.7" customHeight="1">
       <c r="A453" s="10"/>
       <c r="B453" s="4"/>
-      <c r="C453" s="5"/>
+      <c r="C453" s="6"/>
       <c r="D453" s="5"/>
       <c r="E453" s="6"/>
       <c r="F453" s="5"/>
@@ -8631,10 +9762,10 @@
       <c r="L453" s="5"/>
       <c r="M453" s="5"/>
     </row>
-    <row r="454" spans="1:13" ht="49.65" customHeight="1">
+    <row r="454" spans="1:13" ht="49.7" customHeight="1">
       <c r="A454" s="10"/>
       <c r="B454" s="4"/>
-      <c r="C454" s="5"/>
+      <c r="C454" s="6"/>
       <c r="D454" s="5"/>
       <c r="E454" s="6"/>
       <c r="F454" s="5"/>
@@ -8646,10 +9777,10 @@
       <c r="L454" s="5"/>
       <c r="M454" s="5"/>
     </row>
-    <row r="455" spans="1:13" ht="49.65" customHeight="1">
+    <row r="455" spans="1:13" ht="49.7" customHeight="1">
       <c r="A455" s="10"/>
       <c r="B455" s="4"/>
-      <c r="C455" s="5"/>
+      <c r="C455" s="6"/>
       <c r="D455" s="5"/>
       <c r="E455" s="6"/>
       <c r="F455" s="5"/>
@@ -8661,10 +9792,10 @@
       <c r="L455" s="5"/>
       <c r="M455" s="5"/>
     </row>
-    <row r="456" spans="1:13" ht="49.65" customHeight="1">
+    <row r="456" spans="1:13" ht="49.7" customHeight="1">
       <c r="A456" s="10"/>
       <c r="B456" s="4"/>
-      <c r="C456" s="5"/>
+      <c r="C456" s="6"/>
       <c r="D456" s="5"/>
       <c r="E456" s="6"/>
       <c r="F456" s="5"/>
@@ -8676,10 +9807,10 @@
       <c r="L456" s="5"/>
       <c r="M456" s="5"/>
     </row>
-    <row r="457" spans="1:13" ht="49.65" customHeight="1">
+    <row r="457" spans="1:13" ht="49.7" customHeight="1">
       <c r="A457" s="10"/>
       <c r="B457" s="4"/>
-      <c r="C457" s="5"/>
+      <c r="C457" s="6"/>
       <c r="D457" s="5"/>
       <c r="E457" s="6"/>
       <c r="F457" s="5"/>
@@ -8691,10 +9822,10 @@
       <c r="L457" s="5"/>
       <c r="M457" s="5"/>
     </row>
-    <row r="458" spans="1:13" ht="49.65" customHeight="1">
+    <row r="458" spans="1:13" ht="49.7" customHeight="1">
       <c r="A458" s="10"/>
       <c r="B458" s="4"/>
-      <c r="C458" s="5"/>
+      <c r="C458" s="6"/>
       <c r="D458" s="5"/>
       <c r="E458" s="6"/>
       <c r="F458" s="5"/>
@@ -8706,10 +9837,10 @@
       <c r="L458" s="9"/>
       <c r="M458" s="5"/>
     </row>
-    <row r="459" spans="1:13" ht="49.65" customHeight="1">
+    <row r="459" spans="1:13" ht="49.7" customHeight="1">
       <c r="A459" s="10"/>
       <c r="B459" s="4"/>
-      <c r="C459" s="5"/>
+      <c r="C459" s="6"/>
       <c r="D459" s="5"/>
       <c r="E459" s="6"/>
       <c r="F459" s="5"/>
@@ -8721,10 +9852,10 @@
       <c r="L459" s="9"/>
       <c r="M459" s="5"/>
     </row>
-    <row r="460" spans="1:13" ht="49.65" customHeight="1">
+    <row r="460" spans="1:13" ht="49.7" customHeight="1">
       <c r="A460" s="10"/>
       <c r="B460" s="4"/>
-      <c r="C460" s="5"/>
+      <c r="C460" s="6"/>
       <c r="D460" s="5"/>
       <c r="E460" s="6"/>
       <c r="F460" s="5"/>
@@ -8736,10 +9867,10 @@
       <c r="L460" s="5"/>
       <c r="M460" s="5"/>
     </row>
-    <row r="461" spans="1:13" ht="49.65" customHeight="1">
+    <row r="461" spans="1:13" ht="49.7" customHeight="1">
       <c r="A461" s="10"/>
       <c r="B461" s="4"/>
-      <c r="C461" s="5"/>
+      <c r="C461" s="6"/>
       <c r="D461" s="5"/>
       <c r="E461" s="6"/>
       <c r="F461" s="5"/>
@@ -8751,10 +9882,10 @@
       <c r="L461" s="5"/>
       <c r="M461" s="5"/>
     </row>
-    <row r="462" spans="1:13" ht="49.65" customHeight="1">
+    <row r="462" spans="1:13" ht="49.7" customHeight="1">
       <c r="A462" s="10"/>
       <c r="B462" s="4"/>
-      <c r="C462" s="5"/>
+      <c r="C462" s="6"/>
       <c r="D462" s="5"/>
       <c r="E462" s="6"/>
       <c r="F462" s="5"/>
@@ -8766,10 +9897,10 @@
       <c r="L462" s="5"/>
       <c r="M462" s="5"/>
     </row>
-    <row r="463" spans="1:13" ht="49.65" customHeight="1">
+    <row r="463" spans="1:13" ht="49.7" customHeight="1">
       <c r="A463" s="10"/>
       <c r="B463" s="4"/>
-      <c r="C463" s="5"/>
+      <c r="C463" s="6"/>
       <c r="D463" s="5"/>
       <c r="E463" s="6"/>
       <c r="F463" s="5"/>
@@ -8781,10 +9912,10 @@
       <c r="L463" s="5"/>
       <c r="M463" s="5"/>
     </row>
-    <row r="464" spans="1:13" ht="49.65" customHeight="1">
+    <row r="464" spans="1:13" ht="49.7" customHeight="1">
       <c r="A464" s="10"/>
       <c r="B464" s="4"/>
-      <c r="C464" s="5"/>
+      <c r="C464" s="6"/>
       <c r="D464" s="5"/>
       <c r="E464" s="6"/>
       <c r="F464" s="5"/>
@@ -8796,10 +9927,10 @@
       <c r="L464" s="5"/>
       <c r="M464" s="5"/>
     </row>
-    <row r="465" spans="1:13" ht="49.65" customHeight="1">
+    <row r="465" spans="1:13" ht="49.7" customHeight="1">
       <c r="A465" s="10"/>
       <c r="B465" s="4"/>
-      <c r="C465" s="5"/>
+      <c r="C465" s="6"/>
       <c r="D465" s="5"/>
       <c r="E465" s="6"/>
       <c r="F465" s="5"/>
@@ -8811,10 +9942,10 @@
       <c r="L465" s="5"/>
       <c r="M465" s="5"/>
     </row>
-    <row r="466" spans="1:13" ht="49.65" customHeight="1">
+    <row r="466" spans="1:13" ht="49.7" customHeight="1">
       <c r="A466" s="10"/>
       <c r="B466" s="4"/>
-      <c r="C466" s="5"/>
+      <c r="C466" s="6"/>
       <c r="D466" s="5"/>
       <c r="E466" s="6"/>
       <c r="F466" s="5"/>
@@ -8826,10 +9957,10 @@
       <c r="L466" s="5"/>
       <c r="M466" s="5"/>
     </row>
-    <row r="467" spans="1:13" ht="49.65" customHeight="1">
+    <row r="467" spans="1:13" ht="49.7" customHeight="1">
       <c r="A467" s="10"/>
       <c r="B467" s="4"/>
-      <c r="C467" s="5"/>
+      <c r="C467" s="6"/>
       <c r="D467" s="5"/>
       <c r="E467" s="6"/>
       <c r="F467" s="5"/>
@@ -8841,10 +9972,10 @@
       <c r="L467" s="5"/>
       <c r="M467" s="5"/>
     </row>
-    <row r="468" spans="1:13" ht="49.65" customHeight="1">
+    <row r="468" spans="1:13" ht="49.7" customHeight="1">
       <c r="A468" s="10"/>
       <c r="B468" s="4"/>
-      <c r="C468" s="5"/>
+      <c r="C468" s="6"/>
       <c r="D468" s="5"/>
       <c r="E468" s="6"/>
       <c r="F468" s="5"/>
@@ -8856,10 +9987,10 @@
       <c r="L468" s="5"/>
       <c r="M468" s="5"/>
     </row>
-    <row r="469" spans="1:13" ht="49.65" customHeight="1">
+    <row r="469" spans="1:13" ht="49.7" customHeight="1">
       <c r="A469" s="10"/>
       <c r="B469" s="4"/>
-      <c r="C469" s="5"/>
+      <c r="C469" s="6"/>
       <c r="D469" s="5"/>
       <c r="E469" s="6"/>
       <c r="F469" s="5"/>
@@ -8871,10 +10002,10 @@
       <c r="L469" s="9"/>
       <c r="M469" s="5"/>
     </row>
-    <row r="470" spans="1:13" ht="49.65" customHeight="1">
+    <row r="470" spans="1:13" ht="49.7" customHeight="1">
       <c r="A470" s="10"/>
       <c r="B470" s="4"/>
-      <c r="C470" s="5"/>
+      <c r="C470" s="6"/>
       <c r="D470" s="5"/>
       <c r="E470" s="6"/>
       <c r="F470" s="5"/>
@@ -8886,10 +10017,10 @@
       <c r="L470" s="9"/>
       <c r="M470" s="5"/>
     </row>
-    <row r="471" spans="1:13" ht="49.65" customHeight="1">
+    <row r="471" spans="1:13" ht="49.7" customHeight="1">
       <c r="A471" s="10"/>
       <c r="B471" s="4"/>
-      <c r="C471" s="5"/>
+      <c r="C471" s="6"/>
       <c r="D471" s="5"/>
       <c r="E471" s="6"/>
       <c r="F471" s="5"/>
@@ -8901,10 +10032,10 @@
       <c r="L471" s="9"/>
       <c r="M471" s="5"/>
     </row>
-    <row r="472" spans="1:13" ht="49.65" customHeight="1">
+    <row r="472" spans="1:13" ht="49.7" customHeight="1">
       <c r="A472" s="10"/>
       <c r="B472" s="4"/>
-      <c r="C472" s="5"/>
+      <c r="C472" s="6"/>
       <c r="D472" s="5"/>
       <c r="E472" s="6"/>
       <c r="F472" s="5"/>
@@ -8916,10 +10047,10 @@
       <c r="L472" s="5"/>
       <c r="M472" s="5"/>
     </row>
-    <row r="473" spans="1:13" ht="49.65" customHeight="1">
+    <row r="473" spans="1:13" ht="49.7" customHeight="1">
       <c r="A473" s="10"/>
       <c r="B473" s="4"/>
-      <c r="C473" s="5"/>
+      <c r="C473" s="6"/>
       <c r="D473" s="5"/>
       <c r="E473" s="6"/>
       <c r="F473" s="5"/>
@@ -8931,10 +10062,10 @@
       <c r="L473" s="5"/>
       <c r="M473" s="5"/>
     </row>
-    <row r="474" spans="1:13" ht="49.65" customHeight="1">
+    <row r="474" spans="1:13" ht="49.7" customHeight="1">
       <c r="A474" s="10"/>
       <c r="B474" s="4"/>
-      <c r="C474" s="5"/>
+      <c r="C474" s="6"/>
       <c r="D474" s="5"/>
       <c r="E474" s="6"/>
       <c r="F474" s="5"/>
@@ -8946,10 +10077,10 @@
       <c r="L474" s="5"/>
       <c r="M474" s="5"/>
     </row>
-    <row r="475" spans="1:13" ht="49.65" customHeight="1">
+    <row r="475" spans="1:13" ht="49.7" customHeight="1">
       <c r="A475" s="10"/>
       <c r="B475" s="4"/>
-      <c r="C475" s="5"/>
+      <c r="C475" s="6"/>
       <c r="D475" s="5"/>
       <c r="E475" s="6"/>
       <c r="F475" s="5"/>
@@ -8961,10 +10092,10 @@
       <c r="L475" s="5"/>
       <c r="M475" s="9"/>
     </row>
-    <row r="476" spans="1:13" ht="49.65" customHeight="1">
+    <row r="476" spans="1:13" ht="49.7" customHeight="1">
       <c r="A476" s="10"/>
       <c r="B476" s="4"/>
-      <c r="C476" s="5"/>
+      <c r="C476" s="6"/>
       <c r="D476" s="5"/>
       <c r="E476" s="6"/>
       <c r="F476" s="5"/>
@@ -8976,10 +10107,10 @@
       <c r="L476" s="5"/>
       <c r="M476" s="9"/>
     </row>
-    <row r="477" spans="1:13" ht="49.65" customHeight="1">
+    <row r="477" spans="1:13" ht="49.7" customHeight="1">
       <c r="A477" s="10"/>
       <c r="B477" s="4"/>
-      <c r="C477" s="5"/>
+      <c r="C477" s="6"/>
       <c r="D477" s="5"/>
       <c r="E477" s="6"/>
       <c r="F477" s="5"/>
@@ -8991,10 +10122,10 @@
       <c r="L477" s="5"/>
       <c r="M477" s="9"/>
     </row>
-    <row r="478" spans="1:13" ht="49.65" customHeight="1">
+    <row r="478" spans="1:13" ht="49.7" customHeight="1">
       <c r="A478" s="10"/>
       <c r="B478" s="4"/>
-      <c r="C478" s="5"/>
+      <c r="C478" s="6"/>
       <c r="D478" s="5"/>
       <c r="E478" s="6"/>
       <c r="F478" s="5"/>
@@ -9006,10 +10137,10 @@
       <c r="L478" s="5"/>
       <c r="M478" s="9"/>
     </row>
-    <row r="479" spans="1:13" ht="49.65" customHeight="1">
+    <row r="479" spans="1:13" ht="49.7" customHeight="1">
       <c r="A479" s="10"/>
       <c r="B479" s="4"/>
-      <c r="C479" s="5"/>
+      <c r="C479" s="6"/>
       <c r="D479" s="5"/>
       <c r="E479" s="6"/>
       <c r="F479" s="5"/>
@@ -9021,10 +10152,10 @@
       <c r="L479" s="5"/>
       <c r="M479" s="9"/>
     </row>
-    <row r="480" spans="1:13" ht="49.65" customHeight="1">
+    <row r="480" spans="1:13" ht="49.7" customHeight="1">
       <c r="A480" s="10"/>
       <c r="B480" s="4"/>
-      <c r="C480" s="5"/>
+      <c r="C480" s="6"/>
       <c r="D480" s="5"/>
       <c r="E480" s="6"/>
       <c r="F480" s="5"/>
@@ -9036,10 +10167,10 @@
       <c r="L480" s="5"/>
       <c r="M480" s="5"/>
     </row>
-    <row r="481" spans="1:13" ht="49.65" customHeight="1">
+    <row r="481" spans="1:13" ht="49.7" customHeight="1">
       <c r="A481" s="10"/>
       <c r="B481" s="4"/>
-      <c r="C481" s="5"/>
+      <c r="C481" s="6"/>
       <c r="D481" s="5"/>
       <c r="E481" s="6"/>
       <c r="F481" s="5"/>
@@ -9051,10 +10182,10 @@
       <c r="L481" s="5"/>
       <c r="M481" s="5"/>
     </row>
-    <row r="482" spans="1:13" ht="49.65" customHeight="1">
+    <row r="482" spans="1:13" ht="49.7" customHeight="1">
       <c r="A482" s="10"/>
       <c r="B482" s="4"/>
-      <c r="C482" s="5"/>
+      <c r="C482" s="6"/>
       <c r="D482" s="5"/>
       <c r="E482" s="6"/>
       <c r="F482" s="5"/>
@@ -9066,10 +10197,10 @@
       <c r="L482" s="5"/>
       <c r="M482" s="5"/>
     </row>
-    <row r="483" spans="1:13" ht="49.65" customHeight="1">
+    <row r="483" spans="1:13" ht="49.7" customHeight="1">
       <c r="A483" s="10"/>
       <c r="B483" s="4"/>
-      <c r="C483" s="5"/>
+      <c r="C483" s="6"/>
       <c r="D483" s="5"/>
       <c r="E483" s="6"/>
       <c r="F483" s="5"/>
@@ -9081,10 +10212,10 @@
       <c r="L483" s="5"/>
       <c r="M483" s="5"/>
     </row>
-    <row r="484" spans="1:13" ht="49.65" customHeight="1">
+    <row r="484" spans="1:13" ht="49.7" customHeight="1">
       <c r="A484" s="10"/>
       <c r="B484" s="4"/>
-      <c r="C484" s="5"/>
+      <c r="C484" s="6"/>
       <c r="D484" s="5"/>
       <c r="E484" s="6"/>
       <c r="F484" s="5"/>
@@ -9096,10 +10227,10 @@
       <c r="L484" s="5"/>
       <c r="M484" s="5"/>
     </row>
-    <row r="485" spans="1:13" ht="49.65" customHeight="1">
+    <row r="485" spans="1:13" ht="49.7" customHeight="1">
       <c r="A485" s="10"/>
       <c r="B485" s="4"/>
-      <c r="C485" s="5"/>
+      <c r="C485" s="6"/>
       <c r="D485" s="5"/>
       <c r="E485" s="6"/>
       <c r="F485" s="5"/>
@@ -9111,10 +10242,10 @@
       <c r="L485" s="5"/>
       <c r="M485" s="5"/>
     </row>
-    <row r="486" spans="1:13" ht="49.65" customHeight="1">
+    <row r="486" spans="1:13" ht="49.7" customHeight="1">
       <c r="A486" s="10"/>
       <c r="B486" s="4"/>
-      <c r="C486" s="5"/>
+      <c r="C486" s="6"/>
       <c r="D486" s="5"/>
       <c r="E486" s="6"/>
       <c r="F486" s="5"/>
@@ -9126,10 +10257,10 @@
       <c r="L486" s="5"/>
       <c r="M486" s="5"/>
     </row>
-    <row r="487" spans="1:13" ht="49.65" customHeight="1">
+    <row r="487" spans="1:13" ht="49.7" customHeight="1">
       <c r="A487" s="10"/>
       <c r="B487" s="4"/>
-      <c r="C487" s="5"/>
+      <c r="C487" s="6"/>
       <c r="D487" s="5"/>
       <c r="E487" s="6"/>
       <c r="F487" s="5"/>
@@ -9141,10 +10272,10 @@
       <c r="L487" s="5"/>
       <c r="M487" s="5"/>
     </row>
-    <row r="488" spans="1:13" ht="49.65" customHeight="1">
+    <row r="488" spans="1:13" ht="49.7" customHeight="1">
       <c r="A488" s="10"/>
       <c r="B488" s="4"/>
-      <c r="C488" s="5"/>
+      <c r="C488" s="6"/>
       <c r="D488" s="5"/>
       <c r="E488" s="6"/>
       <c r="F488" s="5"/>
@@ -9156,10 +10287,10 @@
       <c r="L488" s="5"/>
       <c r="M488" s="5"/>
     </row>
-    <row r="489" spans="1:13" ht="49.65" customHeight="1">
+    <row r="489" spans="1:13" ht="49.7" customHeight="1">
       <c r="A489" s="10"/>
       <c r="B489" s="4"/>
-      <c r="C489" s="5"/>
+      <c r="C489" s="6"/>
       <c r="D489" s="5"/>
       <c r="E489" s="6"/>
       <c r="F489" s="5"/>
@@ -9173,7 +10304,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Data_file/import_SO1.xlsx
+++ b/Data_file/import_SO1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18090"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="148">
   <si>
     <t>date_order</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>บริทาเนียโฮมบางนา</t>
+  </si>
+  <si>
+    <t>OB-SO</t>
+  </si>
+  <si>
+    <t>tags</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -623,6 +629,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1754,22 +1763,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O489"/>
+  <dimension ref="A1:P489"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G34" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="12" customWidth="1"/>
-    <col min="4" max="14" width="16.28515625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.28515625" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="12" customWidth="1"/>
+    <col min="4" max="14" width="16.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" customHeight="1">
+    <row r="1" spans="1:16" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1815,8 +1824,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="63.95" customHeight="1">
+      <c r="P1" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="63.9" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1860,8 +1872,11 @@
       <c r="O2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="63.6" customHeight="1">
+      <c r="P2" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="63.6" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1905,8 +1920,11 @@
       <c r="O3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="49.7" customHeight="1">
+      <c r="P3" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="49.65" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -1950,8 +1968,11 @@
       <c r="O4" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="49.7" customHeight="1">
+      <c r="P4" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="49.65" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1995,8 +2016,11 @@
       <c r="O5" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="49.7" customHeight="1">
+      <c r="P5" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="49.65" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -2040,8 +2064,11 @@
       <c r="O6" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="61.7" customHeight="1">
+      <c r="P6" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="61.65" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2112,11 @@
       <c r="O7" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="49.7" customHeight="1">
+      <c r="P7" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="49.65" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>47</v>
       </c>
@@ -2130,8 +2160,11 @@
       <c r="O8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="49.7" customHeight="1">
+      <c r="P8" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="49.65" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -2175,8 +2208,11 @@
       <c r="O9" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="49.7" customHeight="1">
+      <c r="P9" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="49.65" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -2220,8 +2256,11 @@
       <c r="O10" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="49.7" customHeight="1">
+      <c r="P10" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="49.65" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -2265,8 +2304,11 @@
       <c r="O11" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="49.7" customHeight="1">
+      <c r="P11" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="49.65" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -2310,8 +2352,11 @@
       <c r="O12" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="49.7" customHeight="1">
+      <c r="P12" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="49.65" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>68</v>
       </c>
@@ -2355,8 +2400,11 @@
       <c r="O13" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="77.650000000000006" customHeight="1">
+      <c r="P13" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="77.7" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -2400,8 +2448,11 @@
       <c r="O14" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="77.650000000000006" customHeight="1">
+      <c r="P14" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="77.7" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>68</v>
       </c>
@@ -2445,8 +2496,11 @@
       <c r="O15" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="63.6" customHeight="1">
+      <c r="P15" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="63.6" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>68</v>
       </c>
@@ -2490,8 +2544,11 @@
       <c r="O16" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="48" customHeight="1">
+      <c r="P16" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="48" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>80</v>
       </c>
@@ -2535,8 +2592,11 @@
       <c r="O17" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="48" customHeight="1">
+      <c r="P17" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="48" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>84</v>
       </c>
@@ -2580,8 +2640,11 @@
       <c r="O18" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="47.65" customHeight="1">
+      <c r="P18" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="47.7" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -2625,8 +2688,11 @@
       <c r="O19" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="48" customHeight="1">
+      <c r="P19" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="48" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -2670,8 +2736,11 @@
       <c r="O20" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="48" customHeight="1">
+      <c r="P20" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="48" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
@@ -2715,8 +2784,11 @@
       <c r="O21" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="48" customHeight="1">
+      <c r="P21" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="48" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>96</v>
       </c>
@@ -2760,8 +2832,11 @@
       <c r="O22" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" ht="48" customHeight="1">
+      <c r="P22" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="48" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>96</v>
       </c>
@@ -2805,8 +2880,11 @@
       <c r="O23" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" ht="48" customHeight="1">
+      <c r="P23" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="48" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
@@ -2850,8 +2928,11 @@
       <c r="O24" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="49.7" customHeight="1">
+      <c r="P24" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="49.65" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>99</v>
       </c>
@@ -2895,8 +2976,11 @@
       <c r="O25" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" ht="49.7" customHeight="1">
+      <c r="P25" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="49.65" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>102</v>
       </c>
@@ -2936,8 +3020,11 @@
       <c r="M26" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="60" customHeight="1">
+      <c r="P26" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="60" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>106</v>
       </c>
@@ -2981,8 +3068,11 @@
       <c r="O27" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="60" customHeight="1">
+      <c r="P27" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="60" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>106</v>
       </c>
@@ -3026,8 +3116,11 @@
       <c r="O28" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="35.65" customHeight="1">
+      <c r="P28" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="35.700000000000003" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>114</v>
       </c>
@@ -3071,8 +3164,11 @@
       <c r="O29" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" ht="35.65" customHeight="1">
+      <c r="P29" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="35.700000000000003" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>114</v>
       </c>
@@ -3116,8 +3212,11 @@
       <c r="O30" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="62.1" customHeight="1">
+      <c r="P30" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="62.1" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>114</v>
       </c>
@@ -3161,8 +3260,11 @@
       <c r="O31" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="62.1" customHeight="1">
+      <c r="P31" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="62.1" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>114</v>
       </c>
@@ -3206,8 +3308,11 @@
       <c r="O32" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="62.1" customHeight="1">
+      <c r="P32" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="62.1" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>114</v>
       </c>
@@ -3251,8 +3356,11 @@
       <c r="O33" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="62.1" customHeight="1">
+      <c r="P33" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="62.1" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>114</v>
       </c>
@@ -3296,8 +3404,11 @@
       <c r="O34" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="48" customHeight="1">
+      <c r="P34" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="48" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
@@ -3341,8 +3452,11 @@
       <c r="O35" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="48" customHeight="1">
+      <c r="P35" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="48" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>114</v>
       </c>
@@ -3386,8 +3500,11 @@
       <c r="O36" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="48" customHeight="1">
+      <c r="P36" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="48" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>128</v>
       </c>
@@ -3431,8 +3548,11 @@
       <c r="O37" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="48" customHeight="1">
+      <c r="P37" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="48" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>128</v>
       </c>
@@ -3476,8 +3596,11 @@
       <c r="O38" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="48" customHeight="1">
+      <c r="P38" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="48" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>137</v>
       </c>
@@ -3521,8 +3644,11 @@
       <c r="O39" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="48" customHeight="1">
+      <c r="P39" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="48" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>142</v>
       </c>
@@ -3566,8 +3692,11 @@
       <c r="O40" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="48" customHeight="1">
+      <c r="P40" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="48" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="6"/>
@@ -3582,7 +3711,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:15" ht="48" customHeight="1">
+    <row r="42" spans="1:16" ht="48" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="6"/>
@@ -3597,7 +3726,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:15" ht="48" customHeight="1">
+    <row r="43" spans="1:16" ht="48" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="6"/>
@@ -3612,7 +3741,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:15" ht="48" customHeight="1">
+    <row r="44" spans="1:16" ht="48" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="6"/>
@@ -3627,7 +3756,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:15" ht="48" customHeight="1">
+    <row r="45" spans="1:16" ht="48" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="6"/>
@@ -3642,7 +3771,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:15" ht="48" customHeight="1">
+    <row r="46" spans="1:16" ht="48" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="6"/>
@@ -3657,7 +3786,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:15" ht="48" customHeight="1">
+    <row r="47" spans="1:16" ht="48" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="6"/>
@@ -3672,7 +3801,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:15" ht="48" customHeight="1">
+    <row r="48" spans="1:16" ht="48" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="6"/>
@@ -3747,7 +3876,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13" ht="49.7" customHeight="1">
+    <row r="53" spans="1:13" ht="49.65" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="6"/>
@@ -3762,7 +3891,7 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:13" ht="49.7" customHeight="1">
+    <row r="54" spans="1:13" ht="49.65" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="6"/>
@@ -3852,7 +3981,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
-    <row r="60" spans="1:13" ht="89.65" customHeight="1">
+    <row r="60" spans="1:13" ht="89.7" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="6"/>
@@ -3867,7 +3996,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
     </row>
-    <row r="61" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="61" spans="1:13" ht="77.7" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="6"/>
@@ -3882,7 +4011,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="62" spans="1:13" ht="77.7" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="6"/>
@@ -3897,7 +4026,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="63" spans="1:13" ht="77.7" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="6"/>
@@ -3912,7 +4041,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
     </row>
-    <row r="64" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="64" spans="1:13" ht="77.7" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="6"/>
@@ -3927,7 +4056,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="65" spans="1:13" ht="77.7" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="6"/>
@@ -3942,7 +4071,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
     </row>
-    <row r="66" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="66" spans="1:13" ht="77.7" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="6"/>
@@ -3957,7 +4086,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
-    <row r="67" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="67" spans="1:13" ht="77.7" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="6"/>
@@ -3972,7 +4101,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
     </row>
-    <row r="68" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="68" spans="1:13" ht="77.7" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="6"/>
@@ -3987,7 +4116,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
     </row>
-    <row r="69" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="69" spans="1:13" ht="77.7" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="6"/>
@@ -4002,7 +4131,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
     </row>
-    <row r="70" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="70" spans="1:13" ht="77.7" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="6"/>
@@ -4017,7 +4146,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
     </row>
-    <row r="71" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="71" spans="1:13" ht="77.7" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="6"/>
@@ -4077,7 +4206,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
     </row>
-    <row r="75" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="75" spans="1:13" ht="77.7" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="6"/>
@@ -4092,7 +4221,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
     </row>
-    <row r="76" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="76" spans="1:13" ht="77.7" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="6"/>
@@ -4107,7 +4236,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
-    <row r="77" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="77" spans="1:13" ht="77.7" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="6"/>
@@ -4122,7 +4251,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="78" spans="1:13" ht="77.7" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="6"/>
@@ -4137,7 +4266,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
     </row>
-    <row r="79" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="79" spans="1:13" ht="77.7" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="6"/>
@@ -4152,7 +4281,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
     </row>
-    <row r="80" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="80" spans="1:13" ht="77.7" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="6"/>
@@ -4167,7 +4296,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
     </row>
-    <row r="81" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="81" spans="1:13" ht="77.7" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="6"/>
@@ -4182,7 +4311,7 @@
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
     </row>
-    <row r="82" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="82" spans="1:13" ht="77.7" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="6"/>
@@ -4197,7 +4326,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
     </row>
-    <row r="83" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="83" spans="1:13" ht="77.7" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="6"/>
@@ -4212,7 +4341,7 @@
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
     </row>
-    <row r="84" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="84" spans="1:13" ht="77.7" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="6"/>
@@ -4227,7 +4356,7 @@
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
     </row>
-    <row r="85" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="85" spans="1:13" ht="77.7" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="6"/>
@@ -4242,7 +4371,7 @@
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
     </row>
-    <row r="86" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="86" spans="1:13" ht="77.7" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="6"/>
@@ -4257,7 +4386,7 @@
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
     </row>
-    <row r="87" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="87" spans="1:13" ht="77.7" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="6"/>
@@ -4272,7 +4401,7 @@
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
     </row>
-    <row r="88" spans="1:13" ht="133.69999999999999" customHeight="1">
+    <row r="88" spans="1:13" ht="133.65" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="6"/>
@@ -4302,7 +4431,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="90" spans="1:13" ht="77.7" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="6"/>
@@ -4317,7 +4446,7 @@
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
     </row>
-    <row r="91" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="91" spans="1:13" ht="77.7" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="6"/>
@@ -4332,7 +4461,7 @@
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
     </row>
-    <row r="92" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="92" spans="1:13" ht="77.7" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="6"/>
@@ -4347,7 +4476,7 @@
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
     </row>
-    <row r="93" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="93" spans="1:13" ht="77.7" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="6"/>
@@ -4362,7 +4491,7 @@
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
     </row>
-    <row r="94" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="94" spans="1:13" ht="77.7" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="6"/>
@@ -4377,7 +4506,7 @@
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
     </row>
-    <row r="95" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="95" spans="1:13" ht="77.7" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="6"/>
@@ -4452,7 +4581,7 @@
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
     </row>
-    <row r="100" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="100" spans="1:13" ht="77.7" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="6"/>
@@ -4467,7 +4596,7 @@
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
     </row>
-    <row r="101" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="101" spans="1:13" ht="77.7" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="6"/>
@@ -4482,7 +4611,7 @@
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
     </row>
-    <row r="102" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="102" spans="1:13" ht="77.7" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="6"/>
@@ -4497,7 +4626,7 @@
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
     </row>
-    <row r="103" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="103" spans="1:13" ht="77.7" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="6"/>
@@ -4512,7 +4641,7 @@
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
     </row>
-    <row r="104" spans="1:13" ht="97.7" customHeight="1">
+    <row r="104" spans="1:13" ht="97.65" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="6"/>
@@ -4527,7 +4656,7 @@
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
     </row>
-    <row r="105" spans="1:13" ht="61.7" customHeight="1">
+    <row r="105" spans="1:13" ht="61.65" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="6"/>
@@ -4617,7 +4746,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
     </row>
-    <row r="111" spans="1:13" ht="49.7" customHeight="1">
+    <row r="111" spans="1:13" ht="49.65" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="6"/>
@@ -4632,7 +4761,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
     </row>
-    <row r="112" spans="1:13" ht="76.150000000000006" customHeight="1">
+    <row r="112" spans="1:13" ht="76.2" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="6"/>
@@ -4647,7 +4776,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
     </row>
-    <row r="113" spans="1:13" ht="76.150000000000006" customHeight="1">
+    <row r="113" spans="1:13" ht="76.2" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="6"/>
@@ -4662,7 +4791,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
     </row>
-    <row r="114" spans="1:13" ht="76.150000000000006" customHeight="1">
+    <row r="114" spans="1:13" ht="76.2" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="6"/>
@@ -4677,7 +4806,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
     </row>
-    <row r="115" spans="1:13" ht="76.150000000000006" customHeight="1">
+    <row r="115" spans="1:13" ht="76.2" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="6"/>
@@ -4692,7 +4821,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
     </row>
-    <row r="116" spans="1:13" ht="76.150000000000006" customHeight="1">
+    <row r="116" spans="1:13" ht="76.2" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="6"/>
@@ -4782,7 +4911,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
-    <row r="122" spans="1:13" ht="61.7" customHeight="1">
+    <row r="122" spans="1:13" ht="61.65" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="6"/>
@@ -4797,7 +4926,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
     </row>
-    <row r="123" spans="1:13" ht="35.65" customHeight="1">
+    <row r="123" spans="1:13" ht="35.700000000000003" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="6"/>
@@ -4812,7 +4941,7 @@
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
     </row>
-    <row r="124" spans="1:13" ht="49.7" customHeight="1">
+    <row r="124" spans="1:13" ht="49.65" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="6"/>
@@ -4827,7 +4956,7 @@
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
     </row>
-    <row r="125" spans="1:13" ht="59.65" customHeight="1">
+    <row r="125" spans="1:13" ht="59.7" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="6"/>
@@ -4842,7 +4971,7 @@
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
     </row>
-    <row r="126" spans="1:13" ht="59.65" customHeight="1">
+    <row r="126" spans="1:13" ht="59.7" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="6"/>
@@ -4917,7 +5046,7 @@
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
     </row>
-    <row r="131" spans="1:13" ht="89.65" customHeight="1">
+    <row r="131" spans="1:13" ht="89.7" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="6"/>
@@ -5007,7 +5136,7 @@
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="77.650000000000006" customHeight="1">
+    <row r="137" spans="1:13" ht="77.7" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="6"/>
@@ -5022,7 +5151,7 @@
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
     </row>
-    <row r="138" spans="1:13" ht="49.7" customHeight="1">
+    <row r="138" spans="1:13" ht="49.65" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="6"/>
@@ -5052,7 +5181,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="9"/>
     </row>
-    <row r="140" spans="1:13" ht="49.7" customHeight="1">
+    <row r="140" spans="1:13" ht="49.65" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="6"/>
@@ -5067,7 +5196,7 @@
       <c r="L140" s="5"/>
       <c r="M140" s="9"/>
     </row>
-    <row r="141" spans="1:13" ht="49.7" customHeight="1">
+    <row r="141" spans="1:13" ht="49.65" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="6"/>
@@ -5082,7 +5211,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="49.7" customHeight="1">
+    <row r="142" spans="1:13" ht="49.65" customHeight="1">
       <c r="A142" s="10"/>
       <c r="B142" s="4"/>
       <c r="C142" s="6"/>
@@ -5097,7 +5226,7 @@
       <c r="L142" s="9"/>
       <c r="M142" s="5"/>
     </row>
-    <row r="143" spans="1:13" ht="49.7" customHeight="1">
+    <row r="143" spans="1:13" ht="49.65" customHeight="1">
       <c r="A143" s="10"/>
       <c r="B143" s="4"/>
       <c r="C143" s="6"/>
@@ -5112,7 +5241,7 @@
       <c r="L143" s="9"/>
       <c r="M143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="49.7" customHeight="1">
+    <row r="144" spans="1:13" ht="49.65" customHeight="1">
       <c r="A144" s="10"/>
       <c r="B144" s="4"/>
       <c r="C144" s="6"/>
@@ -5127,7 +5256,7 @@
       <c r="L144" s="9"/>
       <c r="M144" s="5"/>
     </row>
-    <row r="145" spans="1:13" ht="49.7" customHeight="1">
+    <row r="145" spans="1:13" ht="49.65" customHeight="1">
       <c r="A145" s="10"/>
       <c r="B145" s="4"/>
       <c r="C145" s="6"/>
@@ -5142,7 +5271,7 @@
       <c r="L145" s="9"/>
       <c r="M145" s="5"/>
     </row>
-    <row r="146" spans="1:13" ht="49.7" customHeight="1">
+    <row r="146" spans="1:13" ht="49.65" customHeight="1">
       <c r="A146" s="10"/>
       <c r="B146" s="4"/>
       <c r="C146" s="6"/>
@@ -5157,7 +5286,7 @@
       <c r="L146" s="9"/>
       <c r="M146" s="5"/>
     </row>
-    <row r="147" spans="1:13" ht="49.7" customHeight="1">
+    <row r="147" spans="1:13" ht="49.65" customHeight="1">
       <c r="A147" s="10"/>
       <c r="B147" s="4"/>
       <c r="C147" s="6"/>
@@ -5172,7 +5301,7 @@
       <c r="L147" s="9"/>
       <c r="M147" s="5"/>
     </row>
-    <row r="148" spans="1:13" ht="49.7" customHeight="1">
+    <row r="148" spans="1:13" ht="49.65" customHeight="1">
       <c r="A148" s="10"/>
       <c r="B148" s="4"/>
       <c r="C148" s="6"/>
@@ -5187,7 +5316,7 @@
       <c r="L148" s="9"/>
       <c r="M148" s="5"/>
     </row>
-    <row r="149" spans="1:13" ht="49.7" customHeight="1">
+    <row r="149" spans="1:13" ht="49.65" customHeight="1">
       <c r="A149" s="10"/>
       <c r="B149" s="4"/>
       <c r="C149" s="6"/>
@@ -5202,7 +5331,7 @@
       <c r="L149" s="9"/>
       <c r="M149" s="5"/>
     </row>
-    <row r="150" spans="1:13" ht="49.7" customHeight="1">
+    <row r="150" spans="1:13" ht="49.65" customHeight="1">
       <c r="A150" s="10"/>
       <c r="B150" s="4"/>
       <c r="C150" s="6"/>
@@ -5217,7 +5346,7 @@
       <c r="L150" s="9"/>
       <c r="M150" s="5"/>
     </row>
-    <row r="151" spans="1:13" ht="49.7" customHeight="1">
+    <row r="151" spans="1:13" ht="49.65" customHeight="1">
       <c r="A151" s="10"/>
       <c r="B151" s="4"/>
       <c r="C151" s="6"/>
@@ -5232,7 +5361,7 @@
       <c r="L151" s="9"/>
       <c r="M151" s="5"/>
     </row>
-    <row r="152" spans="1:13" ht="49.7" customHeight="1">
+    <row r="152" spans="1:13" ht="49.65" customHeight="1">
       <c r="A152" s="10"/>
       <c r="B152" s="4"/>
       <c r="C152" s="6"/>
@@ -5247,7 +5376,7 @@
       <c r="L152" s="9"/>
       <c r="M152" s="5"/>
     </row>
-    <row r="153" spans="1:13" ht="49.7" customHeight="1">
+    <row r="153" spans="1:13" ht="49.65" customHeight="1">
       <c r="A153" s="10"/>
       <c r="B153" s="4"/>
       <c r="C153" s="6"/>
@@ -5262,7 +5391,7 @@
       <c r="L153" s="9"/>
       <c r="M153" s="5"/>
     </row>
-    <row r="154" spans="1:13" ht="49.7" customHeight="1">
+    <row r="154" spans="1:13" ht="49.65" customHeight="1">
       <c r="A154" s="10"/>
       <c r="B154" s="4"/>
       <c r="C154" s="6"/>
@@ -5277,7 +5406,7 @@
       <c r="L154" s="9"/>
       <c r="M154" s="5"/>
     </row>
-    <row r="155" spans="1:13" ht="49.7" customHeight="1">
+    <row r="155" spans="1:13" ht="49.65" customHeight="1">
       <c r="A155" s="10"/>
       <c r="B155" s="4"/>
       <c r="C155" s="6"/>
@@ -5292,7 +5421,7 @@
       <c r="L155" s="9"/>
       <c r="M155" s="5"/>
     </row>
-    <row r="156" spans="1:13" ht="49.7" customHeight="1">
+    <row r="156" spans="1:13" ht="49.65" customHeight="1">
       <c r="A156" s="10"/>
       <c r="B156" s="4"/>
       <c r="C156" s="6"/>
@@ -5307,7 +5436,7 @@
       <c r="L156" s="9"/>
       <c r="M156" s="5"/>
     </row>
-    <row r="157" spans="1:13" ht="49.7" customHeight="1">
+    <row r="157" spans="1:13" ht="49.65" customHeight="1">
       <c r="A157" s="10"/>
       <c r="B157" s="4"/>
       <c r="C157" s="6"/>
@@ -5322,7 +5451,7 @@
       <c r="L157" s="9"/>
       <c r="M157" s="5"/>
     </row>
-    <row r="158" spans="1:13" ht="49.7" customHeight="1">
+    <row r="158" spans="1:13" ht="49.65" customHeight="1">
       <c r="A158" s="10"/>
       <c r="B158" s="4"/>
       <c r="C158" s="6"/>
@@ -5337,7 +5466,7 @@
       <c r="L158" s="9"/>
       <c r="M158" s="5"/>
     </row>
-    <row r="159" spans="1:13" ht="49.7" customHeight="1">
+    <row r="159" spans="1:13" ht="49.65" customHeight="1">
       <c r="A159" s="10"/>
       <c r="B159" s="4"/>
       <c r="C159" s="6"/>
@@ -5352,7 +5481,7 @@
       <c r="L159" s="9"/>
       <c r="M159" s="5"/>
     </row>
-    <row r="160" spans="1:13" ht="49.7" customHeight="1">
+    <row r="160" spans="1:13" ht="49.65" customHeight="1">
       <c r="A160" s="10"/>
       <c r="B160" s="4"/>
       <c r="C160" s="6"/>
@@ -5367,7 +5496,7 @@
       <c r="L160" s="9"/>
       <c r="M160" s="5"/>
     </row>
-    <row r="161" spans="1:13" ht="49.7" customHeight="1">
+    <row r="161" spans="1:13" ht="49.65" customHeight="1">
       <c r="A161" s="10"/>
       <c r="B161" s="4"/>
       <c r="C161" s="6"/>
@@ -5382,7 +5511,7 @@
       <c r="L161" s="9"/>
       <c r="M161" s="5"/>
     </row>
-    <row r="162" spans="1:13" ht="49.7" customHeight="1">
+    <row r="162" spans="1:13" ht="49.65" customHeight="1">
       <c r="A162" s="10"/>
       <c r="B162" s="4"/>
       <c r="C162" s="6"/>
@@ -5397,7 +5526,7 @@
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
     </row>
-    <row r="163" spans="1:13" ht="49.7" customHeight="1">
+    <row r="163" spans="1:13" ht="49.65" customHeight="1">
       <c r="A163" s="10"/>
       <c r="B163" s="4"/>
       <c r="C163" s="6"/>
@@ -5412,7 +5541,7 @@
       <c r="L163" s="9"/>
       <c r="M163" s="9"/>
     </row>
-    <row r="164" spans="1:13" ht="49.7" customHeight="1">
+    <row r="164" spans="1:13" ht="49.65" customHeight="1">
       <c r="A164" s="10"/>
       <c r="B164" s="4"/>
       <c r="C164" s="6"/>
@@ -5427,7 +5556,7 @@
       <c r="L164" s="9"/>
       <c r="M164" s="5"/>
     </row>
-    <row r="165" spans="1:13" ht="49.7" customHeight="1">
+    <row r="165" spans="1:13" ht="49.65" customHeight="1">
       <c r="A165" s="10"/>
       <c r="B165" s="4"/>
       <c r="C165" s="6"/>
@@ -5442,7 +5571,7 @@
       <c r="L165" s="9"/>
       <c r="M165" s="5"/>
     </row>
-    <row r="166" spans="1:13" ht="49.7" customHeight="1">
+    <row r="166" spans="1:13" ht="49.65" customHeight="1">
       <c r="A166" s="10"/>
       <c r="B166" s="4"/>
       <c r="C166" s="6"/>
@@ -5457,7 +5586,7 @@
       <c r="L166" s="9"/>
       <c r="M166" s="5"/>
     </row>
-    <row r="167" spans="1:13" ht="49.7" customHeight="1">
+    <row r="167" spans="1:13" ht="49.65" customHeight="1">
       <c r="A167" s="10"/>
       <c r="B167" s="4"/>
       <c r="C167" s="6"/>
@@ -5472,7 +5601,7 @@
       <c r="L167" s="9"/>
       <c r="M167" s="5"/>
     </row>
-    <row r="168" spans="1:13" ht="49.7" customHeight="1">
+    <row r="168" spans="1:13" ht="49.65" customHeight="1">
       <c r="A168" s="10"/>
       <c r="B168" s="4"/>
       <c r="C168" s="6"/>
@@ -5487,7 +5616,7 @@
       <c r="L168" s="9"/>
       <c r="M168" s="5"/>
     </row>
-    <row r="169" spans="1:13" ht="49.7" customHeight="1">
+    <row r="169" spans="1:13" ht="49.65" customHeight="1">
       <c r="A169" s="10"/>
       <c r="B169" s="4"/>
       <c r="C169" s="6"/>
@@ -5502,7 +5631,7 @@
       <c r="L169" s="9"/>
       <c r="M169" s="5"/>
     </row>
-    <row r="170" spans="1:13" ht="49.7" customHeight="1">
+    <row r="170" spans="1:13" ht="49.65" customHeight="1">
       <c r="A170" s="10"/>
       <c r="B170" s="4"/>
       <c r="C170" s="6"/>
@@ -5517,7 +5646,7 @@
       <c r="L170" s="5"/>
       <c r="M170" s="5"/>
     </row>
-    <row r="171" spans="1:13" ht="49.7" customHeight="1">
+    <row r="171" spans="1:13" ht="49.65" customHeight="1">
       <c r="A171" s="10"/>
       <c r="B171" s="4"/>
       <c r="C171" s="6"/>
@@ -5532,7 +5661,7 @@
       <c r="L171" s="5"/>
       <c r="M171" s="5"/>
     </row>
-    <row r="172" spans="1:13" ht="49.7" customHeight="1">
+    <row r="172" spans="1:13" ht="49.65" customHeight="1">
       <c r="A172" s="10"/>
       <c r="B172" s="4"/>
       <c r="C172" s="6"/>
@@ -5547,7 +5676,7 @@
       <c r="L172" s="5"/>
       <c r="M172" s="5"/>
     </row>
-    <row r="173" spans="1:13" ht="49.7" customHeight="1">
+    <row r="173" spans="1:13" ht="49.65" customHeight="1">
       <c r="A173" s="10"/>
       <c r="B173" s="4"/>
       <c r="C173" s="6"/>
@@ -5562,7 +5691,7 @@
       <c r="L173" s="9"/>
       <c r="M173" s="9"/>
     </row>
-    <row r="174" spans="1:13" ht="49.7" customHeight="1">
+    <row r="174" spans="1:13" ht="49.65" customHeight="1">
       <c r="A174" s="10"/>
       <c r="B174" s="4"/>
       <c r="C174" s="6"/>
@@ -5577,7 +5706,7 @@
       <c r="L174" s="9"/>
       <c r="M174" s="9"/>
     </row>
-    <row r="175" spans="1:13" ht="49.7" customHeight="1">
+    <row r="175" spans="1:13" ht="49.65" customHeight="1">
       <c r="A175" s="10"/>
       <c r="B175" s="4"/>
       <c r="C175" s="6"/>
@@ -5592,7 +5721,7 @@
       <c r="L175" s="9"/>
       <c r="M175" s="9"/>
     </row>
-    <row r="176" spans="1:13" ht="49.7" customHeight="1">
+    <row r="176" spans="1:13" ht="49.65" customHeight="1">
       <c r="A176" s="10"/>
       <c r="B176" s="4"/>
       <c r="C176" s="6"/>
@@ -5607,7 +5736,7 @@
       <c r="L176" s="9"/>
       <c r="M176" s="9"/>
     </row>
-    <row r="177" spans="1:13" ht="49.7" customHeight="1">
+    <row r="177" spans="1:13" ht="49.65" customHeight="1">
       <c r="A177" s="10"/>
       <c r="B177" s="4"/>
       <c r="C177" s="6"/>
@@ -5622,7 +5751,7 @@
       <c r="L177" s="9"/>
       <c r="M177" s="5"/>
     </row>
-    <row r="178" spans="1:13" ht="49.7" customHeight="1">
+    <row r="178" spans="1:13" ht="49.65" customHeight="1">
       <c r="A178" s="10"/>
       <c r="B178" s="4"/>
       <c r="C178" s="6"/>
@@ -5637,7 +5766,7 @@
       <c r="L178" s="9"/>
       <c r="M178" s="5"/>
     </row>
-    <row r="179" spans="1:13" ht="49.7" customHeight="1">
+    <row r="179" spans="1:13" ht="49.65" customHeight="1">
       <c r="A179" s="10"/>
       <c r="B179" s="4"/>
       <c r="C179" s="6"/>
@@ -5652,7 +5781,7 @@
       <c r="L179" s="9"/>
       <c r="M179" s="5"/>
     </row>
-    <row r="180" spans="1:13" ht="49.7" customHeight="1">
+    <row r="180" spans="1:13" ht="49.65" customHeight="1">
       <c r="A180" s="10"/>
       <c r="B180" s="4"/>
       <c r="C180" s="6"/>
@@ -5667,7 +5796,7 @@
       <c r="L180" s="9"/>
       <c r="M180" s="5"/>
     </row>
-    <row r="181" spans="1:13" ht="49.7" customHeight="1">
+    <row r="181" spans="1:13" ht="49.65" customHeight="1">
       <c r="A181" s="10"/>
       <c r="B181" s="4"/>
       <c r="C181" s="6"/>
@@ -5682,7 +5811,7 @@
       <c r="L181" s="9"/>
       <c r="M181" s="5"/>
     </row>
-    <row r="182" spans="1:13" ht="49.7" customHeight="1">
+    <row r="182" spans="1:13" ht="49.65" customHeight="1">
       <c r="A182" s="10"/>
       <c r="B182" s="4"/>
       <c r="C182" s="6"/>
@@ -5697,7 +5826,7 @@
       <c r="L182" s="9"/>
       <c r="M182" s="5"/>
     </row>
-    <row r="183" spans="1:13" ht="49.7" customHeight="1">
+    <row r="183" spans="1:13" ht="49.65" customHeight="1">
       <c r="A183" s="10"/>
       <c r="B183" s="4"/>
       <c r="C183" s="6"/>
@@ -5712,7 +5841,7 @@
       <c r="L183" s="9"/>
       <c r="M183" s="5"/>
     </row>
-    <row r="184" spans="1:13" ht="49.7" customHeight="1">
+    <row r="184" spans="1:13" ht="49.65" customHeight="1">
       <c r="A184" s="10"/>
       <c r="B184" s="4"/>
       <c r="C184" s="6"/>
@@ -5727,7 +5856,7 @@
       <c r="L184" s="9"/>
       <c r="M184" s="5"/>
     </row>
-    <row r="185" spans="1:13" ht="49.7" customHeight="1">
+    <row r="185" spans="1:13" ht="49.65" customHeight="1">
       <c r="A185" s="10"/>
       <c r="B185" s="4"/>
       <c r="C185" s="6"/>
@@ -5742,7 +5871,7 @@
       <c r="L185" s="9"/>
       <c r="M185" s="5"/>
     </row>
-    <row r="186" spans="1:13" ht="49.7" customHeight="1">
+    <row r="186" spans="1:13" ht="49.65" customHeight="1">
       <c r="A186" s="10"/>
       <c r="B186" s="4"/>
       <c r="C186" s="6"/>
@@ -5757,7 +5886,7 @@
       <c r="L186" s="9"/>
       <c r="M186" s="9"/>
     </row>
-    <row r="187" spans="1:13" ht="49.7" customHeight="1">
+    <row r="187" spans="1:13" ht="49.65" customHeight="1">
       <c r="A187" s="10"/>
       <c r="B187" s="4"/>
       <c r="C187" s="6"/>
@@ -5772,7 +5901,7 @@
       <c r="L187" s="9"/>
       <c r="M187" s="9"/>
     </row>
-    <row r="188" spans="1:13" ht="49.7" customHeight="1">
+    <row r="188" spans="1:13" ht="49.65" customHeight="1">
       <c r="A188" s="10"/>
       <c r="B188" s="4"/>
       <c r="C188" s="6"/>
@@ -5787,7 +5916,7 @@
       <c r="L188" s="9"/>
       <c r="M188" s="9"/>
     </row>
-    <row r="189" spans="1:13" ht="49.7" customHeight="1">
+    <row r="189" spans="1:13" ht="49.65" customHeight="1">
       <c r="A189" s="10"/>
       <c r="B189" s="4"/>
       <c r="C189" s="6"/>
@@ -5802,7 +5931,7 @@
       <c r="L189" s="9"/>
       <c r="M189" s="9"/>
     </row>
-    <row r="190" spans="1:13" ht="49.7" customHeight="1">
+    <row r="190" spans="1:13" ht="49.65" customHeight="1">
       <c r="A190" s="10"/>
       <c r="B190" s="4"/>
       <c r="C190" s="6"/>
@@ -5817,7 +5946,7 @@
       <c r="L190" s="9"/>
       <c r="M190" s="9"/>
     </row>
-    <row r="191" spans="1:13" ht="49.7" customHeight="1">
+    <row r="191" spans="1:13" ht="49.65" customHeight="1">
       <c r="A191" s="10"/>
       <c r="B191" s="4"/>
       <c r="C191" s="6"/>
@@ -5832,7 +5961,7 @@
       <c r="L191" s="9"/>
       <c r="M191" s="9"/>
     </row>
-    <row r="192" spans="1:13" ht="49.7" customHeight="1">
+    <row r="192" spans="1:13" ht="49.65" customHeight="1">
       <c r="A192" s="10"/>
       <c r="B192" s="4"/>
       <c r="C192" s="6"/>
@@ -5847,7 +5976,7 @@
       <c r="L192" s="9"/>
       <c r="M192" s="9"/>
     </row>
-    <row r="193" spans="1:13" ht="49.7" customHeight="1">
+    <row r="193" spans="1:13" ht="49.65" customHeight="1">
       <c r="A193" s="10"/>
       <c r="B193" s="4"/>
       <c r="C193" s="6"/>
@@ -5862,7 +5991,7 @@
       <c r="L193" s="9"/>
       <c r="M193" s="9"/>
     </row>
-    <row r="194" spans="1:13" ht="49.7" customHeight="1">
+    <row r="194" spans="1:13" ht="49.65" customHeight="1">
       <c r="A194" s="10"/>
       <c r="B194" s="4"/>
       <c r="C194" s="6"/>
@@ -5877,7 +6006,7 @@
       <c r="L194" s="9"/>
       <c r="M194" s="9"/>
     </row>
-    <row r="195" spans="1:13" ht="49.7" customHeight="1">
+    <row r="195" spans="1:13" ht="49.65" customHeight="1">
       <c r="A195" s="10"/>
       <c r="B195" s="4"/>
       <c r="C195" s="6"/>
@@ -5892,7 +6021,7 @@
       <c r="L195" s="5"/>
       <c r="M195" s="5"/>
     </row>
-    <row r="196" spans="1:13" ht="49.7" customHeight="1">
+    <row r="196" spans="1:13" ht="49.65" customHeight="1">
       <c r="A196" s="10"/>
       <c r="B196" s="4"/>
       <c r="C196" s="6"/>
@@ -5907,7 +6036,7 @@
       <c r="L196" s="9"/>
       <c r="M196" s="5"/>
     </row>
-    <row r="197" spans="1:13" ht="49.7" customHeight="1">
+    <row r="197" spans="1:13" ht="49.65" customHeight="1">
       <c r="A197" s="10"/>
       <c r="B197" s="4"/>
       <c r="C197" s="6"/>
@@ -5922,7 +6051,7 @@
       <c r="L197" s="9"/>
       <c r="M197" s="9"/>
     </row>
-    <row r="198" spans="1:13" ht="49.7" customHeight="1">
+    <row r="198" spans="1:13" ht="49.65" customHeight="1">
       <c r="A198" s="10"/>
       <c r="B198" s="4"/>
       <c r="C198" s="6"/>
@@ -5937,7 +6066,7 @@
       <c r="L198" s="9"/>
       <c r="M198" s="9"/>
     </row>
-    <row r="199" spans="1:13" ht="49.7" customHeight="1">
+    <row r="199" spans="1:13" ht="49.65" customHeight="1">
       <c r="A199" s="10"/>
       <c r="B199" s="4"/>
       <c r="C199" s="6"/>
@@ -5952,7 +6081,7 @@
       <c r="L199" s="9"/>
       <c r="M199" s="9"/>
     </row>
-    <row r="200" spans="1:13" ht="49.7" customHeight="1">
+    <row r="200" spans="1:13" ht="49.65" customHeight="1">
       <c r="A200" s="10"/>
       <c r="B200" s="4"/>
       <c r="C200" s="6"/>
@@ -5967,7 +6096,7 @@
       <c r="L200" s="9"/>
       <c r="M200" s="9"/>
     </row>
-    <row r="201" spans="1:13" ht="49.7" customHeight="1">
+    <row r="201" spans="1:13" ht="49.65" customHeight="1">
       <c r="A201" s="10"/>
       <c r="B201" s="4"/>
       <c r="C201" s="6"/>
@@ -5982,7 +6111,7 @@
       <c r="L201" s="9"/>
       <c r="M201" s="9"/>
     </row>
-    <row r="202" spans="1:13" ht="49.7" customHeight="1">
+    <row r="202" spans="1:13" ht="49.65" customHeight="1">
       <c r="A202" s="10"/>
       <c r="B202" s="4"/>
       <c r="C202" s="6"/>
@@ -5997,7 +6126,7 @@
       <c r="L202" s="9"/>
       <c r="M202" s="9"/>
     </row>
-    <row r="203" spans="1:13" ht="49.7" customHeight="1">
+    <row r="203" spans="1:13" ht="49.65" customHeight="1">
       <c r="A203" s="10"/>
       <c r="B203" s="4"/>
       <c r="C203" s="6"/>
@@ -6012,7 +6141,7 @@
       <c r="L203" s="9"/>
       <c r="M203" s="9"/>
     </row>
-    <row r="204" spans="1:13" ht="49.7" customHeight="1">
+    <row r="204" spans="1:13" ht="49.65" customHeight="1">
       <c r="A204" s="10"/>
       <c r="B204" s="4"/>
       <c r="C204" s="6"/>
@@ -6027,7 +6156,7 @@
       <c r="L204" s="9"/>
       <c r="M204" s="9"/>
     </row>
-    <row r="205" spans="1:13" ht="49.7" customHeight="1">
+    <row r="205" spans="1:13" ht="49.65" customHeight="1">
       <c r="A205" s="10"/>
       <c r="B205" s="4"/>
       <c r="C205" s="6"/>
@@ -6042,7 +6171,7 @@
       <c r="L205" s="5"/>
       <c r="M205" s="5"/>
     </row>
-    <row r="206" spans="1:13" ht="49.7" customHeight="1">
+    <row r="206" spans="1:13" ht="49.65" customHeight="1">
       <c r="A206" s="10"/>
       <c r="B206" s="4"/>
       <c r="C206" s="6"/>
@@ -6057,7 +6186,7 @@
       <c r="L206" s="9"/>
       <c r="M206" s="5"/>
     </row>
-    <row r="207" spans="1:13" ht="49.7" customHeight="1">
+    <row r="207" spans="1:13" ht="49.65" customHeight="1">
       <c r="A207" s="10"/>
       <c r="B207" s="4"/>
       <c r="C207" s="6"/>
@@ -6072,7 +6201,7 @@
       <c r="L207" s="9"/>
       <c r="M207" s="5"/>
     </row>
-    <row r="208" spans="1:13" ht="49.7" customHeight="1">
+    <row r="208" spans="1:13" ht="49.65" customHeight="1">
       <c r="A208" s="10"/>
       <c r="B208" s="4"/>
       <c r="C208" s="6"/>
@@ -6087,7 +6216,7 @@
       <c r="L208" s="9"/>
       <c r="M208" s="9"/>
     </row>
-    <row r="209" spans="1:13" ht="49.7" customHeight="1">
+    <row r="209" spans="1:13" ht="49.65" customHeight="1">
       <c r="A209" s="10"/>
       <c r="B209" s="4"/>
       <c r="C209" s="6"/>
@@ -6102,7 +6231,7 @@
       <c r="L209" s="9"/>
       <c r="M209" s="9"/>
     </row>
-    <row r="210" spans="1:13" ht="49.7" customHeight="1">
+    <row r="210" spans="1:13" ht="49.65" customHeight="1">
       <c r="A210" s="10"/>
       <c r="B210" s="4"/>
       <c r="C210" s="6"/>
@@ -6117,7 +6246,7 @@
       <c r="L210" s="9"/>
       <c r="M210" s="9"/>
     </row>
-    <row r="211" spans="1:13" ht="49.7" customHeight="1">
+    <row r="211" spans="1:13" ht="49.65" customHeight="1">
       <c r="A211" s="10"/>
       <c r="B211" s="4"/>
       <c r="C211" s="6"/>
@@ -6132,7 +6261,7 @@
       <c r="L211" s="9"/>
       <c r="M211" s="5"/>
     </row>
-    <row r="212" spans="1:13" ht="49.7" customHeight="1">
+    <row r="212" spans="1:13" ht="49.65" customHeight="1">
       <c r="A212" s="10"/>
       <c r="B212" s="4"/>
       <c r="C212" s="6"/>
@@ -6147,7 +6276,7 @@
       <c r="L212" s="9"/>
       <c r="M212" s="5"/>
     </row>
-    <row r="213" spans="1:13" ht="49.7" customHeight="1">
+    <row r="213" spans="1:13" ht="49.65" customHeight="1">
       <c r="A213" s="10"/>
       <c r="B213" s="4"/>
       <c r="C213" s="6"/>
@@ -6162,7 +6291,7 @@
       <c r="L213" s="9"/>
       <c r="M213" s="5"/>
     </row>
-    <row r="214" spans="1:13" ht="49.7" customHeight="1">
+    <row r="214" spans="1:13" ht="49.65" customHeight="1">
       <c r="A214" s="10"/>
       <c r="B214" s="4"/>
       <c r="C214" s="6"/>
@@ -6177,7 +6306,7 @@
       <c r="L214" s="9"/>
       <c r="M214" s="5"/>
     </row>
-    <row r="215" spans="1:13" ht="49.7" customHeight="1">
+    <row r="215" spans="1:13" ht="49.65" customHeight="1">
       <c r="A215" s="10"/>
       <c r="B215" s="4"/>
       <c r="C215" s="6"/>
@@ -6192,7 +6321,7 @@
       <c r="L215" s="9"/>
       <c r="M215" s="5"/>
     </row>
-    <row r="216" spans="1:13" ht="49.7" customHeight="1">
+    <row r="216" spans="1:13" ht="49.65" customHeight="1">
       <c r="A216" s="10"/>
       <c r="B216" s="4"/>
       <c r="C216" s="6"/>
@@ -6207,7 +6336,7 @@
       <c r="L216" s="9"/>
       <c r="M216" s="5"/>
     </row>
-    <row r="217" spans="1:13" ht="49.7" customHeight="1">
+    <row r="217" spans="1:13" ht="49.65" customHeight="1">
       <c r="A217" s="10"/>
       <c r="B217" s="4"/>
       <c r="C217" s="6"/>
@@ -6222,7 +6351,7 @@
       <c r="L217" s="9"/>
       <c r="M217" s="5"/>
     </row>
-    <row r="218" spans="1:13" ht="49.7" customHeight="1">
+    <row r="218" spans="1:13" ht="49.65" customHeight="1">
       <c r="A218" s="10"/>
       <c r="B218" s="4"/>
       <c r="C218" s="6"/>
@@ -6237,7 +6366,7 @@
       <c r="L218" s="9"/>
       <c r="M218" s="5"/>
     </row>
-    <row r="219" spans="1:13" ht="49.7" customHeight="1">
+    <row r="219" spans="1:13" ht="49.65" customHeight="1">
       <c r="A219" s="10"/>
       <c r="B219" s="4"/>
       <c r="C219" s="6"/>
@@ -6252,7 +6381,7 @@
       <c r="L219" s="9"/>
       <c r="M219" s="5"/>
     </row>
-    <row r="220" spans="1:13" ht="49.7" customHeight="1">
+    <row r="220" spans="1:13" ht="49.65" customHeight="1">
       <c r="A220" s="10"/>
       <c r="B220" s="4"/>
       <c r="C220" s="6"/>
@@ -6267,7 +6396,7 @@
       <c r="L220" s="9"/>
       <c r="M220" s="5"/>
     </row>
-    <row r="221" spans="1:13" ht="49.7" customHeight="1">
+    <row r="221" spans="1:13" ht="49.65" customHeight="1">
       <c r="A221" s="10"/>
       <c r="B221" s="4"/>
       <c r="C221" s="6"/>
@@ -6282,7 +6411,7 @@
       <c r="L221" s="9"/>
       <c r="M221" s="5"/>
     </row>
-    <row r="222" spans="1:13" ht="49.7" customHeight="1">
+    <row r="222" spans="1:13" ht="49.65" customHeight="1">
       <c r="A222" s="10"/>
       <c r="B222" s="4"/>
       <c r="C222" s="6"/>
@@ -6297,7 +6426,7 @@
       <c r="L222" s="9"/>
       <c r="M222" s="5"/>
     </row>
-    <row r="223" spans="1:13" ht="49.7" customHeight="1">
+    <row r="223" spans="1:13" ht="49.65" customHeight="1">
       <c r="A223" s="10"/>
       <c r="B223" s="4"/>
       <c r="C223" s="6"/>
@@ -6312,7 +6441,7 @@
       <c r="L223" s="9"/>
       <c r="M223" s="5"/>
     </row>
-    <row r="224" spans="1:13" ht="49.7" customHeight="1">
+    <row r="224" spans="1:13" ht="49.65" customHeight="1">
       <c r="A224" s="10"/>
       <c r="B224" s="4"/>
       <c r="C224" s="6"/>
@@ -6327,7 +6456,7 @@
       <c r="L224" s="9"/>
       <c r="M224" s="5"/>
     </row>
-    <row r="225" spans="1:13" ht="49.7" customHeight="1">
+    <row r="225" spans="1:13" ht="49.65" customHeight="1">
       <c r="A225" s="10"/>
       <c r="B225" s="4"/>
       <c r="C225" s="6"/>
@@ -6342,7 +6471,7 @@
       <c r="L225" s="9"/>
       <c r="M225" s="5"/>
     </row>
-    <row r="226" spans="1:13" ht="49.7" customHeight="1">
+    <row r="226" spans="1:13" ht="49.65" customHeight="1">
       <c r="A226" s="10"/>
       <c r="B226" s="4"/>
       <c r="C226" s="6"/>
@@ -6357,7 +6486,7 @@
       <c r="L226" s="9"/>
       <c r="M226" s="5"/>
     </row>
-    <row r="227" spans="1:13" ht="49.7" customHeight="1">
+    <row r="227" spans="1:13" ht="49.65" customHeight="1">
       <c r="A227" s="10"/>
       <c r="B227" s="4"/>
       <c r="C227" s="6"/>
@@ -6372,7 +6501,7 @@
       <c r="L227" s="9"/>
       <c r="M227" s="5"/>
     </row>
-    <row r="228" spans="1:13" ht="49.7" customHeight="1">
+    <row r="228" spans="1:13" ht="49.65" customHeight="1">
       <c r="A228" s="10"/>
       <c r="B228" s="4"/>
       <c r="C228" s="6"/>
@@ -6387,7 +6516,7 @@
       <c r="L228" s="9"/>
       <c r="M228" s="5"/>
     </row>
-    <row r="229" spans="1:13" ht="49.7" customHeight="1">
+    <row r="229" spans="1:13" ht="49.65" customHeight="1">
       <c r="A229" s="10"/>
       <c r="B229" s="4"/>
       <c r="C229" s="6"/>
@@ -6402,7 +6531,7 @@
       <c r="L229" s="9"/>
       <c r="M229" s="5"/>
     </row>
-    <row r="230" spans="1:13" ht="49.7" customHeight="1">
+    <row r="230" spans="1:13" ht="49.65" customHeight="1">
       <c r="A230" s="10"/>
       <c r="B230" s="4"/>
       <c r="C230" s="6"/>
@@ -6417,7 +6546,7 @@
       <c r="L230" s="9"/>
       <c r="M230" s="5"/>
     </row>
-    <row r="231" spans="1:13" ht="49.7" customHeight="1">
+    <row r="231" spans="1:13" ht="49.65" customHeight="1">
       <c r="A231" s="10"/>
       <c r="B231" s="4"/>
       <c r="C231" s="6"/>
@@ -6432,7 +6561,7 @@
       <c r="L231" s="9"/>
       <c r="M231" s="5"/>
     </row>
-    <row r="232" spans="1:13" ht="49.7" customHeight="1">
+    <row r="232" spans="1:13" ht="49.65" customHeight="1">
       <c r="A232" s="10"/>
       <c r="B232" s="4"/>
       <c r="C232" s="6"/>
@@ -6447,7 +6576,7 @@
       <c r="L232" s="9"/>
       <c r="M232" s="5"/>
     </row>
-    <row r="233" spans="1:13" ht="49.7" customHeight="1">
+    <row r="233" spans="1:13" ht="49.65" customHeight="1">
       <c r="A233" s="10"/>
       <c r="B233" s="4"/>
       <c r="C233" s="6"/>
@@ -6462,7 +6591,7 @@
       <c r="L233" s="9"/>
       <c r="M233" s="9"/>
     </row>
-    <row r="234" spans="1:13" ht="49.7" customHeight="1">
+    <row r="234" spans="1:13" ht="49.65" customHeight="1">
       <c r="A234" s="10"/>
       <c r="B234" s="4"/>
       <c r="C234" s="6"/>
@@ -6477,7 +6606,7 @@
       <c r="L234" s="9"/>
       <c r="M234" s="5"/>
     </row>
-    <row r="235" spans="1:13" ht="49.7" customHeight="1">
+    <row r="235" spans="1:13" ht="49.65" customHeight="1">
       <c r="A235" s="10"/>
       <c r="B235" s="4"/>
       <c r="C235" s="6"/>
@@ -6492,7 +6621,7 @@
       <c r="L235" s="9"/>
       <c r="M235" s="5"/>
     </row>
-    <row r="236" spans="1:13" ht="49.7" customHeight="1">
+    <row r="236" spans="1:13" ht="49.65" customHeight="1">
       <c r="A236" s="10"/>
       <c r="B236" s="4"/>
       <c r="C236" s="6"/>
@@ -6507,7 +6636,7 @@
       <c r="L236" s="9"/>
       <c r="M236" s="5"/>
     </row>
-    <row r="237" spans="1:13" ht="49.7" customHeight="1">
+    <row r="237" spans="1:13" ht="49.65" customHeight="1">
       <c r="A237" s="10"/>
       <c r="B237" s="4"/>
       <c r="C237" s="6"/>
@@ -6522,7 +6651,7 @@
       <c r="L237" s="9"/>
       <c r="M237" s="5"/>
     </row>
-    <row r="238" spans="1:13" ht="49.7" customHeight="1">
+    <row r="238" spans="1:13" ht="49.65" customHeight="1">
       <c r="A238" s="10"/>
       <c r="B238" s="4"/>
       <c r="C238" s="6"/>
@@ -6537,7 +6666,7 @@
       <c r="L238" s="9"/>
       <c r="M238" s="5"/>
     </row>
-    <row r="239" spans="1:13" ht="49.7" customHeight="1">
+    <row r="239" spans="1:13" ht="49.65" customHeight="1">
       <c r="A239" s="10"/>
       <c r="B239" s="4"/>
       <c r="C239" s="6"/>
@@ -6552,7 +6681,7 @@
       <c r="L239" s="9"/>
       <c r="M239" s="5"/>
     </row>
-    <row r="240" spans="1:13" ht="49.7" customHeight="1">
+    <row r="240" spans="1:13" ht="49.65" customHeight="1">
       <c r="A240" s="10"/>
       <c r="B240" s="4"/>
       <c r="C240" s="6"/>
@@ -6567,7 +6696,7 @@
       <c r="L240" s="9"/>
       <c r="M240" s="5"/>
     </row>
-    <row r="241" spans="1:13" ht="49.7" customHeight="1">
+    <row r="241" spans="1:13" ht="49.65" customHeight="1">
       <c r="A241" s="10"/>
       <c r="B241" s="4"/>
       <c r="C241" s="6"/>
@@ -6582,7 +6711,7 @@
       <c r="L241" s="9"/>
       <c r="M241" s="5"/>
     </row>
-    <row r="242" spans="1:13" ht="49.7" customHeight="1">
+    <row r="242" spans="1:13" ht="49.65" customHeight="1">
       <c r="A242" s="10"/>
       <c r="B242" s="4"/>
       <c r="C242" s="6"/>
@@ -6597,7 +6726,7 @@
       <c r="L242" s="9"/>
       <c r="M242" s="5"/>
     </row>
-    <row r="243" spans="1:13" ht="49.7" customHeight="1">
+    <row r="243" spans="1:13" ht="49.65" customHeight="1">
       <c r="A243" s="10"/>
       <c r="B243" s="4"/>
       <c r="C243" s="6"/>
@@ -6612,7 +6741,7 @@
       <c r="L243" s="9"/>
       <c r="M243" s="5"/>
     </row>
-    <row r="244" spans="1:13" ht="49.7" customHeight="1">
+    <row r="244" spans="1:13" ht="49.65" customHeight="1">
       <c r="A244" s="10"/>
       <c r="B244" s="4"/>
       <c r="C244" s="6"/>
@@ -6627,7 +6756,7 @@
       <c r="L244" s="9"/>
       <c r="M244" s="5"/>
     </row>
-    <row r="245" spans="1:13" ht="49.7" customHeight="1">
+    <row r="245" spans="1:13" ht="49.65" customHeight="1">
       <c r="A245" s="10"/>
       <c r="B245" s="4"/>
       <c r="C245" s="6"/>
@@ -6642,7 +6771,7 @@
       <c r="L245" s="9"/>
       <c r="M245" s="5"/>
     </row>
-    <row r="246" spans="1:13" ht="49.7" customHeight="1">
+    <row r="246" spans="1:13" ht="49.65" customHeight="1">
       <c r="A246" s="10"/>
       <c r="B246" s="4"/>
       <c r="C246" s="6"/>
@@ -6657,7 +6786,7 @@
       <c r="L246" s="9"/>
       <c r="M246" s="5"/>
     </row>
-    <row r="247" spans="1:13" ht="49.7" customHeight="1">
+    <row r="247" spans="1:13" ht="49.65" customHeight="1">
       <c r="A247" s="10"/>
       <c r="B247" s="4"/>
       <c r="C247" s="6"/>
@@ -6672,7 +6801,7 @@
       <c r="L247" s="9"/>
       <c r="M247" s="5"/>
     </row>
-    <row r="248" spans="1:13" ht="49.7" customHeight="1">
+    <row r="248" spans="1:13" ht="49.65" customHeight="1">
       <c r="A248" s="10"/>
       <c r="B248" s="4"/>
       <c r="C248" s="6"/>
@@ -6687,7 +6816,7 @@
       <c r="L248" s="9"/>
       <c r="M248" s="5"/>
     </row>
-    <row r="249" spans="1:13" ht="49.7" customHeight="1">
+    <row r="249" spans="1:13" ht="49.65" customHeight="1">
       <c r="A249" s="10"/>
       <c r="B249" s="4"/>
       <c r="C249" s="6"/>
@@ -6702,7 +6831,7 @@
       <c r="L249" s="9"/>
       <c r="M249" s="5"/>
     </row>
-    <row r="250" spans="1:13" ht="49.7" customHeight="1">
+    <row r="250" spans="1:13" ht="49.65" customHeight="1">
       <c r="A250" s="10"/>
       <c r="B250" s="4"/>
       <c r="C250" s="6"/>
@@ -6717,7 +6846,7 @@
       <c r="L250" s="9"/>
       <c r="M250" s="5"/>
     </row>
-    <row r="251" spans="1:13" ht="49.7" customHeight="1">
+    <row r="251" spans="1:13" ht="49.65" customHeight="1">
       <c r="A251" s="10"/>
       <c r="B251" s="4"/>
       <c r="C251" s="6"/>
@@ -6732,7 +6861,7 @@
       <c r="L251" s="9"/>
       <c r="M251" s="5"/>
     </row>
-    <row r="252" spans="1:13" ht="49.7" customHeight="1">
+    <row r="252" spans="1:13" ht="49.65" customHeight="1">
       <c r="A252" s="10"/>
       <c r="B252" s="4"/>
       <c r="C252" s="6"/>
@@ -6747,7 +6876,7 @@
       <c r="L252" s="9"/>
       <c r="M252" s="5"/>
     </row>
-    <row r="253" spans="1:13" ht="49.7" customHeight="1">
+    <row r="253" spans="1:13" ht="49.65" customHeight="1">
       <c r="A253" s="10"/>
       <c r="B253" s="4"/>
       <c r="C253" s="6"/>
@@ -6762,7 +6891,7 @@
       <c r="L253" s="9"/>
       <c r="M253" s="5"/>
     </row>
-    <row r="254" spans="1:13" ht="49.7" customHeight="1">
+    <row r="254" spans="1:13" ht="49.65" customHeight="1">
       <c r="A254" s="10"/>
       <c r="B254" s="4"/>
       <c r="C254" s="6"/>
@@ -6777,7 +6906,7 @@
       <c r="L254" s="9"/>
       <c r="M254" s="5"/>
     </row>
-    <row r="255" spans="1:13" ht="49.7" customHeight="1">
+    <row r="255" spans="1:13" ht="49.65" customHeight="1">
       <c r="A255" s="10"/>
       <c r="B255" s="4"/>
       <c r="C255" s="6"/>
@@ -6792,7 +6921,7 @@
       <c r="L255" s="9"/>
       <c r="M255" s="5"/>
     </row>
-    <row r="256" spans="1:13" ht="49.7" customHeight="1">
+    <row r="256" spans="1:13" ht="49.65" customHeight="1">
       <c r="A256" s="10"/>
       <c r="B256" s="4"/>
       <c r="C256" s="6"/>
@@ -6807,7 +6936,7 @@
       <c r="L256" s="9"/>
       <c r="M256" s="9"/>
     </row>
-    <row r="257" spans="1:13" ht="49.7" customHeight="1">
+    <row r="257" spans="1:13" ht="49.65" customHeight="1">
       <c r="A257" s="10"/>
       <c r="B257" s="4"/>
       <c r="C257" s="6"/>
@@ -6822,7 +6951,7 @@
       <c r="L257" s="9"/>
       <c r="M257" s="9"/>
     </row>
-    <row r="258" spans="1:13" ht="49.7" customHeight="1">
+    <row r="258" spans="1:13" ht="49.65" customHeight="1">
       <c r="A258" s="10"/>
       <c r="B258" s="4"/>
       <c r="C258" s="6"/>
@@ -6837,7 +6966,7 @@
       <c r="L258" s="9"/>
       <c r="M258" s="9"/>
     </row>
-    <row r="259" spans="1:13" ht="49.7" customHeight="1">
+    <row r="259" spans="1:13" ht="49.65" customHeight="1">
       <c r="A259" s="10"/>
       <c r="B259" s="4"/>
       <c r="C259" s="6"/>
@@ -6852,7 +6981,7 @@
       <c r="L259" s="9"/>
       <c r="M259" s="9"/>
     </row>
-    <row r="260" spans="1:13" ht="49.7" customHeight="1">
+    <row r="260" spans="1:13" ht="49.65" customHeight="1">
       <c r="A260" s="10"/>
       <c r="B260" s="4"/>
       <c r="C260" s="6"/>
@@ -6867,7 +6996,7 @@
       <c r="L260" s="9"/>
       <c r="M260" s="9"/>
     </row>
-    <row r="261" spans="1:13" ht="49.7" customHeight="1">
+    <row r="261" spans="1:13" ht="49.65" customHeight="1">
       <c r="A261" s="10"/>
       <c r="B261" s="4"/>
       <c r="C261" s="6"/>
@@ -6882,7 +7011,7 @@
       <c r="L261" s="9"/>
       <c r="M261" s="9"/>
     </row>
-    <row r="262" spans="1:13" ht="49.7" customHeight="1">
+    <row r="262" spans="1:13" ht="49.65" customHeight="1">
       <c r="A262" s="10"/>
       <c r="B262" s="4"/>
       <c r="C262" s="6"/>
@@ -6897,7 +7026,7 @@
       <c r="L262" s="9"/>
       <c r="M262" s="9"/>
     </row>
-    <row r="263" spans="1:13" ht="49.7" customHeight="1">
+    <row r="263" spans="1:13" ht="49.65" customHeight="1">
       <c r="A263" s="10"/>
       <c r="B263" s="4"/>
       <c r="C263" s="6"/>
@@ -6912,7 +7041,7 @@
       <c r="L263" s="9"/>
       <c r="M263" s="9"/>
     </row>
-    <row r="264" spans="1:13" ht="49.7" customHeight="1">
+    <row r="264" spans="1:13" ht="49.65" customHeight="1">
       <c r="A264" s="10"/>
       <c r="B264" s="4"/>
       <c r="C264" s="6"/>
@@ -6927,7 +7056,7 @@
       <c r="L264" s="9"/>
       <c r="M264" s="9"/>
     </row>
-    <row r="265" spans="1:13" ht="49.7" customHeight="1">
+    <row r="265" spans="1:13" ht="49.65" customHeight="1">
       <c r="A265" s="10"/>
       <c r="B265" s="4"/>
       <c r="C265" s="6"/>
@@ -6942,7 +7071,7 @@
       <c r="L265" s="9"/>
       <c r="M265" s="9"/>
     </row>
-    <row r="266" spans="1:13" ht="49.7" customHeight="1">
+    <row r="266" spans="1:13" ht="49.65" customHeight="1">
       <c r="A266" s="10"/>
       <c r="B266" s="4"/>
       <c r="C266" s="6"/>
@@ -6957,7 +7086,7 @@
       <c r="L266" s="9"/>
       <c r="M266" s="9"/>
     </row>
-    <row r="267" spans="1:13" ht="49.7" customHeight="1">
+    <row r="267" spans="1:13" ht="49.65" customHeight="1">
       <c r="A267" s="10"/>
       <c r="B267" s="4"/>
       <c r="C267" s="6"/>
@@ -6972,7 +7101,7 @@
       <c r="L267" s="9"/>
       <c r="M267" s="9"/>
     </row>
-    <row r="268" spans="1:13" ht="49.7" customHeight="1">
+    <row r="268" spans="1:13" ht="49.65" customHeight="1">
       <c r="A268" s="10"/>
       <c r="B268" s="4"/>
       <c r="C268" s="6"/>
@@ -6987,7 +7116,7 @@
       <c r="L268" s="9"/>
       <c r="M268" s="9"/>
     </row>
-    <row r="269" spans="1:13" ht="49.7" customHeight="1">
+    <row r="269" spans="1:13" ht="49.65" customHeight="1">
       <c r="A269" s="10"/>
       <c r="B269" s="4"/>
       <c r="C269" s="6"/>
@@ -7002,7 +7131,7 @@
       <c r="L269" s="9"/>
       <c r="M269" s="9"/>
     </row>
-    <row r="270" spans="1:13" ht="49.7" customHeight="1">
+    <row r="270" spans="1:13" ht="49.65" customHeight="1">
       <c r="A270" s="10"/>
       <c r="B270" s="4"/>
       <c r="C270" s="6"/>
@@ -7017,7 +7146,7 @@
       <c r="L270" s="9"/>
       <c r="M270" s="9"/>
     </row>
-    <row r="271" spans="1:13" ht="49.7" customHeight="1">
+    <row r="271" spans="1:13" ht="49.65" customHeight="1">
       <c r="A271" s="10"/>
       <c r="B271" s="4"/>
       <c r="C271" s="6"/>
@@ -7032,7 +7161,7 @@
       <c r="L271" s="9"/>
       <c r="M271" s="9"/>
     </row>
-    <row r="272" spans="1:13" ht="49.7" customHeight="1">
+    <row r="272" spans="1:13" ht="49.65" customHeight="1">
       <c r="A272" s="10"/>
       <c r="B272" s="4"/>
       <c r="C272" s="6"/>
@@ -7047,7 +7176,7 @@
       <c r="L272" s="9"/>
       <c r="M272" s="9"/>
     </row>
-    <row r="273" spans="1:13" ht="49.7" customHeight="1">
+    <row r="273" spans="1:13" ht="49.65" customHeight="1">
       <c r="A273" s="10"/>
       <c r="B273" s="4"/>
       <c r="C273" s="6"/>
@@ -7062,7 +7191,7 @@
       <c r="L273" s="9"/>
       <c r="M273" s="9"/>
     </row>
-    <row r="274" spans="1:13" ht="49.7" customHeight="1">
+    <row r="274" spans="1:13" ht="49.65" customHeight="1">
       <c r="A274" s="10"/>
       <c r="B274" s="4"/>
       <c r="C274" s="6"/>
@@ -7077,7 +7206,7 @@
       <c r="L274" s="9"/>
       <c r="M274" s="9"/>
     </row>
-    <row r="275" spans="1:13" ht="49.7" customHeight="1">
+    <row r="275" spans="1:13" ht="49.65" customHeight="1">
       <c r="A275" s="10"/>
       <c r="B275" s="4"/>
       <c r="C275" s="6"/>
@@ -7092,7 +7221,7 @@
       <c r="L275" s="9"/>
       <c r="M275" s="9"/>
     </row>
-    <row r="276" spans="1:13" ht="49.7" customHeight="1">
+    <row r="276" spans="1:13" ht="49.65" customHeight="1">
       <c r="A276" s="10"/>
       <c r="B276" s="4"/>
       <c r="C276" s="6"/>
@@ -7107,7 +7236,7 @@
       <c r="L276" s="9"/>
       <c r="M276" s="9"/>
     </row>
-    <row r="277" spans="1:13" ht="49.7" customHeight="1">
+    <row r="277" spans="1:13" ht="49.65" customHeight="1">
       <c r="A277" s="10"/>
       <c r="B277" s="4"/>
       <c r="C277" s="6"/>
@@ -7122,7 +7251,7 @@
       <c r="L277" s="9"/>
       <c r="M277" s="9"/>
     </row>
-    <row r="278" spans="1:13" ht="49.7" customHeight="1">
+    <row r="278" spans="1:13" ht="49.65" customHeight="1">
       <c r="A278" s="10"/>
       <c r="B278" s="4"/>
       <c r="C278" s="6"/>
@@ -7137,7 +7266,7 @@
       <c r="L278" s="9"/>
       <c r="M278" s="9"/>
     </row>
-    <row r="279" spans="1:13" ht="49.7" customHeight="1">
+    <row r="279" spans="1:13" ht="49.65" customHeight="1">
       <c r="A279" s="10"/>
       <c r="B279" s="4"/>
       <c r="C279" s="6"/>
@@ -7152,7 +7281,7 @@
       <c r="L279" s="9"/>
       <c r="M279" s="9"/>
     </row>
-    <row r="280" spans="1:13" ht="49.7" customHeight="1">
+    <row r="280" spans="1:13" ht="49.65" customHeight="1">
       <c r="A280" s="10"/>
       <c r="B280" s="4"/>
       <c r="C280" s="6"/>
@@ -7167,7 +7296,7 @@
       <c r="L280" s="9"/>
       <c r="M280" s="9"/>
     </row>
-    <row r="281" spans="1:13" ht="49.7" customHeight="1">
+    <row r="281" spans="1:13" ht="49.65" customHeight="1">
       <c r="A281" s="10"/>
       <c r="B281" s="4"/>
       <c r="C281" s="6"/>
@@ -7182,7 +7311,7 @@
       <c r="L281" s="9"/>
       <c r="M281" s="9"/>
     </row>
-    <row r="282" spans="1:13" ht="49.7" customHeight="1">
+    <row r="282" spans="1:13" ht="49.65" customHeight="1">
       <c r="A282" s="10"/>
       <c r="B282" s="4"/>
       <c r="C282" s="6"/>
@@ -7197,7 +7326,7 @@
       <c r="L282" s="9"/>
       <c r="M282" s="9"/>
     </row>
-    <row r="283" spans="1:13" ht="49.7" customHeight="1">
+    <row r="283" spans="1:13" ht="49.65" customHeight="1">
       <c r="A283" s="10"/>
       <c r="B283" s="4"/>
       <c r="C283" s="6"/>
@@ -7212,7 +7341,7 @@
       <c r="L283" s="9"/>
       <c r="M283" s="9"/>
     </row>
-    <row r="284" spans="1:13" ht="49.7" customHeight="1">
+    <row r="284" spans="1:13" ht="49.65" customHeight="1">
       <c r="A284" s="10"/>
       <c r="B284" s="4"/>
       <c r="C284" s="6"/>
@@ -7227,7 +7356,7 @@
       <c r="L284" s="9"/>
       <c r="M284" s="9"/>
     </row>
-    <row r="285" spans="1:13" ht="49.7" customHeight="1">
+    <row r="285" spans="1:13" ht="49.65" customHeight="1">
       <c r="A285" s="10"/>
       <c r="B285" s="4"/>
       <c r="C285" s="6"/>
@@ -7242,7 +7371,7 @@
       <c r="L285" s="9"/>
       <c r="M285" s="9"/>
     </row>
-    <row r="286" spans="1:13" ht="49.7" customHeight="1">
+    <row r="286" spans="1:13" ht="49.65" customHeight="1">
       <c r="A286" s="10"/>
       <c r="B286" s="4"/>
       <c r="C286" s="6"/>
@@ -7257,7 +7386,7 @@
       <c r="L286" s="9"/>
       <c r="M286" s="9"/>
     </row>
-    <row r="287" spans="1:13" ht="49.7" customHeight="1">
+    <row r="287" spans="1:13" ht="49.65" customHeight="1">
       <c r="A287" s="10"/>
       <c r="B287" s="4"/>
       <c r="C287" s="6"/>
@@ -7272,7 +7401,7 @@
       <c r="L287" s="9"/>
       <c r="M287" s="9"/>
     </row>
-    <row r="288" spans="1:13" ht="49.7" customHeight="1">
+    <row r="288" spans="1:13" ht="49.65" customHeight="1">
       <c r="A288" s="10"/>
       <c r="B288" s="4"/>
       <c r="C288" s="6"/>
@@ -7287,7 +7416,7 @@
       <c r="L288" s="9"/>
       <c r="M288" s="9"/>
     </row>
-    <row r="289" spans="1:13" ht="49.7" customHeight="1">
+    <row r="289" spans="1:13" ht="49.65" customHeight="1">
       <c r="A289" s="10"/>
       <c r="B289" s="4"/>
       <c r="C289" s="6"/>
@@ -7302,7 +7431,7 @@
       <c r="L289" s="9"/>
       <c r="M289" s="9"/>
     </row>
-    <row r="290" spans="1:13" ht="49.7" customHeight="1">
+    <row r="290" spans="1:13" ht="49.65" customHeight="1">
       <c r="A290" s="10"/>
       <c r="B290" s="4"/>
       <c r="C290" s="6"/>
@@ -7317,7 +7446,7 @@
       <c r="L290" s="9"/>
       <c r="M290" s="9"/>
     </row>
-    <row r="291" spans="1:13" ht="49.7" customHeight="1">
+    <row r="291" spans="1:13" ht="49.65" customHeight="1">
       <c r="A291" s="10"/>
       <c r="B291" s="4"/>
       <c r="C291" s="6"/>
@@ -7332,7 +7461,7 @@
       <c r="L291" s="9"/>
       <c r="M291" s="9"/>
     </row>
-    <row r="292" spans="1:13" ht="49.7" customHeight="1">
+    <row r="292" spans="1:13" ht="49.65" customHeight="1">
       <c r="A292" s="10"/>
       <c r="B292" s="4"/>
       <c r="C292" s="6"/>
@@ -7347,7 +7476,7 @@
       <c r="L292" s="9"/>
       <c r="M292" s="9"/>
     </row>
-    <row r="293" spans="1:13" ht="49.7" customHeight="1">
+    <row r="293" spans="1:13" ht="49.65" customHeight="1">
       <c r="A293" s="10"/>
       <c r="B293" s="4"/>
       <c r="C293" s="6"/>
@@ -7362,7 +7491,7 @@
       <c r="L293" s="9"/>
       <c r="M293" s="9"/>
     </row>
-    <row r="294" spans="1:13" ht="49.7" customHeight="1">
+    <row r="294" spans="1:13" ht="49.65" customHeight="1">
       <c r="A294" s="10"/>
       <c r="B294" s="4"/>
       <c r="C294" s="6"/>
@@ -7377,7 +7506,7 @@
       <c r="L294" s="9"/>
       <c r="M294" s="9"/>
     </row>
-    <row r="295" spans="1:13" ht="49.7" customHeight="1">
+    <row r="295" spans="1:13" ht="49.65" customHeight="1">
       <c r="A295" s="10"/>
       <c r="B295" s="4"/>
       <c r="C295" s="6"/>
@@ -7392,7 +7521,7 @@
       <c r="L295" s="9"/>
       <c r="M295" s="9"/>
     </row>
-    <row r="296" spans="1:13" ht="49.7" customHeight="1">
+    <row r="296" spans="1:13" ht="49.65" customHeight="1">
       <c r="A296" s="10"/>
       <c r="B296" s="4"/>
       <c r="C296" s="6"/>
@@ -7407,7 +7536,7 @@
       <c r="L296" s="9"/>
       <c r="M296" s="9"/>
     </row>
-    <row r="297" spans="1:13" ht="49.7" customHeight="1">
+    <row r="297" spans="1:13" ht="49.65" customHeight="1">
       <c r="A297" s="10"/>
       <c r="B297" s="4"/>
       <c r="C297" s="6"/>
@@ -7422,7 +7551,7 @@
       <c r="L297" s="9"/>
       <c r="M297" s="9"/>
     </row>
-    <row r="298" spans="1:13" ht="49.7" customHeight="1">
+    <row r="298" spans="1:13" ht="49.65" customHeight="1">
       <c r="A298" s="10"/>
       <c r="B298" s="4"/>
       <c r="C298" s="6"/>
@@ -7437,7 +7566,7 @@
       <c r="L298" s="9"/>
       <c r="M298" s="9"/>
     </row>
-    <row r="299" spans="1:13" ht="49.7" customHeight="1">
+    <row r="299" spans="1:13" ht="49.65" customHeight="1">
       <c r="A299" s="10"/>
       <c r="B299" s="4"/>
       <c r="C299" s="6"/>
@@ -7452,7 +7581,7 @@
       <c r="L299" s="9"/>
       <c r="M299" s="9"/>
     </row>
-    <row r="300" spans="1:13" ht="49.7" customHeight="1">
+    <row r="300" spans="1:13" ht="49.65" customHeight="1">
       <c r="A300" s="10"/>
       <c r="B300" s="4"/>
       <c r="C300" s="6"/>
@@ -7467,7 +7596,7 @@
       <c r="L300" s="9"/>
       <c r="M300" s="9"/>
     </row>
-    <row r="301" spans="1:13" ht="49.7" customHeight="1">
+    <row r="301" spans="1:13" ht="49.65" customHeight="1">
       <c r="A301" s="10"/>
       <c r="B301" s="4"/>
       <c r="C301" s="6"/>
@@ -7482,7 +7611,7 @@
       <c r="L301" s="9"/>
       <c r="M301" s="9"/>
     </row>
-    <row r="302" spans="1:13" ht="49.7" customHeight="1">
+    <row r="302" spans="1:13" ht="49.65" customHeight="1">
       <c r="A302" s="10"/>
       <c r="B302" s="4"/>
       <c r="C302" s="6"/>
@@ -7497,7 +7626,7 @@
       <c r="L302" s="9"/>
       <c r="M302" s="9"/>
     </row>
-    <row r="303" spans="1:13" ht="49.7" customHeight="1">
+    <row r="303" spans="1:13" ht="49.65" customHeight="1">
       <c r="A303" s="10"/>
       <c r="B303" s="4"/>
       <c r="C303" s="6"/>
@@ -7512,7 +7641,7 @@
       <c r="L303" s="9"/>
       <c r="M303" s="9"/>
     </row>
-    <row r="304" spans="1:13" ht="49.7" customHeight="1">
+    <row r="304" spans="1:13" ht="49.65" customHeight="1">
       <c r="A304" s="10"/>
       <c r="B304" s="4"/>
       <c r="C304" s="6"/>
@@ -7527,7 +7656,7 @@
       <c r="L304" s="9"/>
       <c r="M304" s="9"/>
     </row>
-    <row r="305" spans="1:13" ht="49.7" customHeight="1">
+    <row r="305" spans="1:13" ht="49.65" customHeight="1">
       <c r="A305" s="10"/>
       <c r="B305" s="4"/>
       <c r="C305" s="6"/>
@@ -7542,7 +7671,7 @@
       <c r="L305" s="9"/>
       <c r="M305" s="9"/>
     </row>
-    <row r="306" spans="1:13" ht="49.7" customHeight="1">
+    <row r="306" spans="1:13" ht="49.65" customHeight="1">
       <c r="A306" s="10"/>
       <c r="B306" s="4"/>
       <c r="C306" s="6"/>
@@ -7557,7 +7686,7 @@
       <c r="L306" s="9"/>
       <c r="M306" s="9"/>
     </row>
-    <row r="307" spans="1:13" ht="49.7" customHeight="1">
+    <row r="307" spans="1:13" ht="49.65" customHeight="1">
       <c r="A307" s="10"/>
       <c r="B307" s="4"/>
       <c r="C307" s="6"/>
@@ -7572,7 +7701,7 @@
       <c r="L307" s="9"/>
       <c r="M307" s="9"/>
     </row>
-    <row r="308" spans="1:13" ht="49.7" customHeight="1">
+    <row r="308" spans="1:13" ht="49.65" customHeight="1">
       <c r="A308" s="10"/>
       <c r="B308" s="4"/>
       <c r="C308" s="6"/>
@@ -7587,7 +7716,7 @@
       <c r="L308" s="9"/>
       <c r="M308" s="9"/>
     </row>
-    <row r="309" spans="1:13" ht="49.7" customHeight="1">
+    <row r="309" spans="1:13" ht="49.65" customHeight="1">
       <c r="A309" s="10"/>
       <c r="B309" s="4"/>
       <c r="C309" s="6"/>
@@ -7602,7 +7731,7 @@
       <c r="L309" s="9"/>
       <c r="M309" s="9"/>
     </row>
-    <row r="310" spans="1:13" ht="49.7" customHeight="1">
+    <row r="310" spans="1:13" ht="49.65" customHeight="1">
       <c r="A310" s="10"/>
       <c r="B310" s="4"/>
       <c r="C310" s="6"/>
@@ -7617,7 +7746,7 @@
       <c r="L310" s="9"/>
       <c r="M310" s="9"/>
     </row>
-    <row r="311" spans="1:13" ht="49.7" customHeight="1">
+    <row r="311" spans="1:13" ht="49.65" customHeight="1">
       <c r="A311" s="10"/>
       <c r="B311" s="4"/>
       <c r="C311" s="6"/>
@@ -7632,7 +7761,7 @@
       <c r="L311" s="9"/>
       <c r="M311" s="9"/>
     </row>
-    <row r="312" spans="1:13" ht="49.7" customHeight="1">
+    <row r="312" spans="1:13" ht="49.65" customHeight="1">
       <c r="A312" s="10"/>
       <c r="B312" s="4"/>
       <c r="C312" s="6"/>
@@ -7647,7 +7776,7 @@
       <c r="L312" s="9"/>
       <c r="M312" s="9"/>
     </row>
-    <row r="313" spans="1:13" ht="49.7" customHeight="1">
+    <row r="313" spans="1:13" ht="49.65" customHeight="1">
       <c r="A313" s="10"/>
       <c r="B313" s="4"/>
       <c r="C313" s="6"/>
@@ -7662,7 +7791,7 @@
       <c r="L313" s="9"/>
       <c r="M313" s="9"/>
     </row>
-    <row r="314" spans="1:13" ht="49.7" customHeight="1">
+    <row r="314" spans="1:13" ht="49.65" customHeight="1">
       <c r="A314" s="10"/>
       <c r="B314" s="4"/>
       <c r="C314" s="6"/>
@@ -7677,7 +7806,7 @@
       <c r="L314" s="9"/>
       <c r="M314" s="9"/>
     </row>
-    <row r="315" spans="1:13" ht="49.7" customHeight="1">
+    <row r="315" spans="1:13" ht="49.65" customHeight="1">
       <c r="A315" s="10"/>
       <c r="B315" s="4"/>
       <c r="C315" s="6"/>
@@ -7692,7 +7821,7 @@
       <c r="L315" s="9"/>
       <c r="M315" s="9"/>
     </row>
-    <row r="316" spans="1:13" ht="49.7" customHeight="1">
+    <row r="316" spans="1:13" ht="49.65" customHeight="1">
       <c r="A316" s="10"/>
       <c r="B316" s="4"/>
       <c r="C316" s="6"/>
@@ -7707,7 +7836,7 @@
       <c r="L316" s="9"/>
       <c r="M316" s="9"/>
     </row>
-    <row r="317" spans="1:13" ht="49.7" customHeight="1">
+    <row r="317" spans="1:13" ht="49.65" customHeight="1">
       <c r="A317" s="10"/>
       <c r="B317" s="4"/>
       <c r="C317" s="6"/>
@@ -7722,7 +7851,7 @@
       <c r="L317" s="9"/>
       <c r="M317" s="9"/>
     </row>
-    <row r="318" spans="1:13" ht="49.7" customHeight="1">
+    <row r="318" spans="1:13" ht="49.65" customHeight="1">
       <c r="A318" s="10"/>
       <c r="B318" s="4"/>
       <c r="C318" s="6"/>
@@ -7737,7 +7866,7 @@
       <c r="L318" s="9"/>
       <c r="M318" s="9"/>
     </row>
-    <row r="319" spans="1:13" ht="49.7" customHeight="1">
+    <row r="319" spans="1:13" ht="49.65" customHeight="1">
       <c r="A319" s="10"/>
       <c r="B319" s="4"/>
       <c r="C319" s="6"/>
@@ -7752,7 +7881,7 @@
       <c r="L319" s="9"/>
       <c r="M319" s="9"/>
     </row>
-    <row r="320" spans="1:13" ht="49.7" customHeight="1">
+    <row r="320" spans="1:13" ht="49.65" customHeight="1">
       <c r="A320" s="10"/>
       <c r="B320" s="4"/>
       <c r="C320" s="6"/>
@@ -7767,7 +7896,7 @@
       <c r="L320" s="9"/>
       <c r="M320" s="9"/>
     </row>
-    <row r="321" spans="1:13" ht="49.7" customHeight="1">
+    <row r="321" spans="1:13" ht="49.65" customHeight="1">
       <c r="A321" s="10"/>
       <c r="B321" s="4"/>
       <c r="C321" s="6"/>
@@ -7782,7 +7911,7 @@
       <c r="L321" s="9"/>
       <c r="M321" s="9"/>
     </row>
-    <row r="322" spans="1:13" ht="49.7" customHeight="1">
+    <row r="322" spans="1:13" ht="49.65" customHeight="1">
       <c r="A322" s="10"/>
       <c r="B322" s="4"/>
       <c r="C322" s="6"/>
@@ -7797,7 +7926,7 @@
       <c r="L322" s="9"/>
       <c r="M322" s="9"/>
     </row>
-    <row r="323" spans="1:13" ht="49.7" customHeight="1">
+    <row r="323" spans="1:13" ht="49.65" customHeight="1">
       <c r="A323" s="10"/>
       <c r="B323" s="4"/>
       <c r="C323" s="6"/>
@@ -7812,7 +7941,7 @@
       <c r="L323" s="9"/>
       <c r="M323" s="9"/>
     </row>
-    <row r="324" spans="1:13" ht="49.7" customHeight="1">
+    <row r="324" spans="1:13" ht="49.65" customHeight="1">
       <c r="A324" s="10"/>
       <c r="B324" s="4"/>
       <c r="C324" s="6"/>
@@ -7827,7 +7956,7 @@
       <c r="L324" s="9"/>
       <c r="M324" s="9"/>
     </row>
-    <row r="325" spans="1:13" ht="49.7" customHeight="1">
+    <row r="325" spans="1:13" ht="49.65" customHeight="1">
       <c r="A325" s="10"/>
       <c r="B325" s="4"/>
       <c r="C325" s="6"/>
@@ -7842,7 +7971,7 @@
       <c r="L325" s="9"/>
       <c r="M325" s="9"/>
     </row>
-    <row r="326" spans="1:13" ht="49.7" customHeight="1">
+    <row r="326" spans="1:13" ht="49.65" customHeight="1">
       <c r="A326" s="10"/>
       <c r="B326" s="4"/>
       <c r="C326" s="6"/>
@@ -7857,7 +7986,7 @@
       <c r="L326" s="9"/>
       <c r="M326" s="9"/>
     </row>
-    <row r="327" spans="1:13" ht="49.7" customHeight="1">
+    <row r="327" spans="1:13" ht="49.65" customHeight="1">
       <c r="A327" s="10"/>
       <c r="B327" s="4"/>
       <c r="C327" s="6"/>
@@ -7872,7 +8001,7 @@
       <c r="L327" s="9"/>
       <c r="M327" s="9"/>
     </row>
-    <row r="328" spans="1:13" ht="49.7" customHeight="1">
+    <row r="328" spans="1:13" ht="49.65" customHeight="1">
       <c r="A328" s="10"/>
       <c r="B328" s="4"/>
       <c r="C328" s="6"/>
@@ -7887,7 +8016,7 @@
       <c r="L328" s="9"/>
       <c r="M328" s="9"/>
     </row>
-    <row r="329" spans="1:13" ht="49.7" customHeight="1">
+    <row r="329" spans="1:13" ht="49.65" customHeight="1">
       <c r="A329" s="10"/>
       <c r="B329" s="4"/>
       <c r="C329" s="6"/>
@@ -7902,7 +8031,7 @@
       <c r="L329" s="9"/>
       <c r="M329" s="5"/>
     </row>
-    <row r="330" spans="1:13" ht="49.7" customHeight="1">
+    <row r="330" spans="1:13" ht="49.65" customHeight="1">
       <c r="A330" s="10"/>
       <c r="B330" s="4"/>
       <c r="C330" s="6"/>
@@ -7917,7 +8046,7 @@
       <c r="L330" s="9"/>
       <c r="M330" s="5"/>
     </row>
-    <row r="331" spans="1:13" ht="49.7" customHeight="1">
+    <row r="331" spans="1:13" ht="49.65" customHeight="1">
       <c r="A331" s="10"/>
       <c r="B331" s="4"/>
       <c r="C331" s="6"/>
@@ -7932,7 +8061,7 @@
       <c r="L331" s="9"/>
       <c r="M331" s="5"/>
     </row>
-    <row r="332" spans="1:13" ht="49.7" customHeight="1">
+    <row r="332" spans="1:13" ht="49.65" customHeight="1">
       <c r="A332" s="10"/>
       <c r="B332" s="4"/>
       <c r="C332" s="6"/>
@@ -7947,7 +8076,7 @@
       <c r="L332" s="9"/>
       <c r="M332" s="5"/>
     </row>
-    <row r="333" spans="1:13" ht="49.7" customHeight="1">
+    <row r="333" spans="1:13" ht="49.65" customHeight="1">
       <c r="A333" s="10"/>
       <c r="B333" s="4"/>
       <c r="C333" s="6"/>
@@ -7962,7 +8091,7 @@
       <c r="L333" s="9"/>
       <c r="M333" s="5"/>
     </row>
-    <row r="334" spans="1:13" ht="49.7" customHeight="1">
+    <row r="334" spans="1:13" ht="49.65" customHeight="1">
       <c r="A334" s="10"/>
       <c r="B334" s="4"/>
       <c r="C334" s="6"/>
@@ -7977,7 +8106,7 @@
       <c r="L334" s="9"/>
       <c r="M334" s="5"/>
     </row>
-    <row r="335" spans="1:13" ht="49.7" customHeight="1">
+    <row r="335" spans="1:13" ht="49.65" customHeight="1">
       <c r="A335" s="10"/>
       <c r="B335" s="4"/>
       <c r="C335" s="6"/>
@@ -7992,7 +8121,7 @@
       <c r="L335" s="9"/>
       <c r="M335" s="5"/>
     </row>
-    <row r="336" spans="1:13" ht="49.7" customHeight="1">
+    <row r="336" spans="1:13" ht="49.65" customHeight="1">
       <c r="A336" s="10"/>
       <c r="B336" s="4"/>
       <c r="C336" s="6"/>
@@ -8007,7 +8136,7 @@
       <c r="L336" s="9"/>
       <c r="M336" s="5"/>
     </row>
-    <row r="337" spans="1:13" ht="49.7" customHeight="1">
+    <row r="337" spans="1:13" ht="49.65" customHeight="1">
       <c r="A337" s="10"/>
       <c r="B337" s="4"/>
       <c r="C337" s="6"/>
@@ -8022,7 +8151,7 @@
       <c r="L337" s="9"/>
       <c r="M337" s="5"/>
     </row>
-    <row r="338" spans="1:13" ht="49.7" customHeight="1">
+    <row r="338" spans="1:13" ht="49.65" customHeight="1">
       <c r="A338" s="10"/>
       <c r="B338" s="4"/>
       <c r="C338" s="6"/>
@@ -8037,7 +8166,7 @@
       <c r="L338" s="9"/>
       <c r="M338" s="5"/>
     </row>
-    <row r="339" spans="1:13" ht="49.7" customHeight="1">
+    <row r="339" spans="1:13" ht="49.65" customHeight="1">
       <c r="A339" s="10"/>
       <c r="B339" s="4"/>
       <c r="C339" s="6"/>
@@ -8052,7 +8181,7 @@
       <c r="L339" s="9"/>
       <c r="M339" s="5"/>
     </row>
-    <row r="340" spans="1:13" ht="49.7" customHeight="1">
+    <row r="340" spans="1:13" ht="49.65" customHeight="1">
       <c r="A340" s="10"/>
       <c r="B340" s="4"/>
       <c r="C340" s="6"/>
@@ -8067,7 +8196,7 @@
       <c r="L340" s="9"/>
       <c r="M340" s="5"/>
     </row>
-    <row r="341" spans="1:13" ht="49.7" customHeight="1">
+    <row r="341" spans="1:13" ht="49.65" customHeight="1">
       <c r="A341" s="10"/>
       <c r="B341" s="4"/>
       <c r="C341" s="6"/>
@@ -8082,7 +8211,7 @@
       <c r="L341" s="9"/>
       <c r="M341" s="5"/>
     </row>
-    <row r="342" spans="1:13" ht="49.7" customHeight="1">
+    <row r="342" spans="1:13" ht="49.65" customHeight="1">
       <c r="A342" s="10"/>
       <c r="B342" s="4"/>
       <c r="C342" s="6"/>
@@ -8097,7 +8226,7 @@
       <c r="L342" s="9"/>
       <c r="M342" s="5"/>
     </row>
-    <row r="343" spans="1:13" ht="49.7" customHeight="1">
+    <row r="343" spans="1:13" ht="49.65" customHeight="1">
       <c r="A343" s="10"/>
       <c r="B343" s="4"/>
       <c r="C343" s="6"/>
@@ -8112,7 +8241,7 @@
       <c r="L343" s="9"/>
       <c r="M343" s="5"/>
     </row>
-    <row r="344" spans="1:13" ht="49.7" customHeight="1">
+    <row r="344" spans="1:13" ht="49.65" customHeight="1">
       <c r="A344" s="10"/>
       <c r="B344" s="4"/>
       <c r="C344" s="6"/>
@@ -8127,7 +8256,7 @@
       <c r="L344" s="9"/>
       <c r="M344" s="5"/>
     </row>
-    <row r="345" spans="1:13" ht="49.7" customHeight="1">
+    <row r="345" spans="1:13" ht="49.65" customHeight="1">
       <c r="A345" s="10"/>
       <c r="B345" s="4"/>
       <c r="C345" s="6"/>
@@ -8142,7 +8271,7 @@
       <c r="L345" s="9"/>
       <c r="M345" s="5"/>
     </row>
-    <row r="346" spans="1:13" ht="49.7" customHeight="1">
+    <row r="346" spans="1:13" ht="49.65" customHeight="1">
       <c r="A346" s="10"/>
       <c r="B346" s="4"/>
       <c r="C346" s="6"/>
@@ -8157,7 +8286,7 @@
       <c r="L346" s="9"/>
       <c r="M346" s="5"/>
     </row>
-    <row r="347" spans="1:13" ht="49.7" customHeight="1">
+    <row r="347" spans="1:13" ht="49.65" customHeight="1">
       <c r="A347" s="10"/>
       <c r="B347" s="4"/>
       <c r="C347" s="6"/>
@@ -8172,7 +8301,7 @@
       <c r="L347" s="9"/>
       <c r="M347" s="5"/>
     </row>
-    <row r="348" spans="1:13" ht="49.7" customHeight="1">
+    <row r="348" spans="1:13" ht="49.65" customHeight="1">
       <c r="A348" s="10"/>
       <c r="B348" s="4"/>
       <c r="C348" s="6"/>
@@ -8187,7 +8316,7 @@
       <c r="L348" s="9"/>
       <c r="M348" s="5"/>
     </row>
-    <row r="349" spans="1:13" ht="49.7" customHeight="1">
+    <row r="349" spans="1:13" ht="49.65" customHeight="1">
       <c r="A349" s="10"/>
       <c r="B349" s="4"/>
       <c r="C349" s="6"/>
@@ -8202,7 +8331,7 @@
       <c r="L349" s="9"/>
       <c r="M349" s="5"/>
     </row>
-    <row r="350" spans="1:13" ht="49.7" customHeight="1">
+    <row r="350" spans="1:13" ht="49.65" customHeight="1">
       <c r="A350" s="10"/>
       <c r="B350" s="4"/>
       <c r="C350" s="6"/>
@@ -8217,7 +8346,7 @@
       <c r="L350" s="9"/>
       <c r="M350" s="5"/>
     </row>
-    <row r="351" spans="1:13" ht="49.7" customHeight="1">
+    <row r="351" spans="1:13" ht="49.65" customHeight="1">
       <c r="A351" s="10"/>
       <c r="B351" s="4"/>
       <c r="C351" s="6"/>
@@ -8232,7 +8361,7 @@
       <c r="L351" s="9"/>
       <c r="M351" s="5"/>
     </row>
-    <row r="352" spans="1:13" ht="49.7" customHeight="1">
+    <row r="352" spans="1:13" ht="49.65" customHeight="1">
       <c r="A352" s="10"/>
       <c r="B352" s="4"/>
       <c r="C352" s="6"/>
@@ -8247,7 +8376,7 @@
       <c r="L352" s="9"/>
       <c r="M352" s="5"/>
     </row>
-    <row r="353" spans="1:13" ht="49.7" customHeight="1">
+    <row r="353" spans="1:13" ht="49.65" customHeight="1">
       <c r="A353" s="10"/>
       <c r="B353" s="4"/>
       <c r="C353" s="6"/>
@@ -8262,7 +8391,7 @@
       <c r="L353" s="9"/>
       <c r="M353" s="5"/>
     </row>
-    <row r="354" spans="1:13" ht="49.7" customHeight="1">
+    <row r="354" spans="1:13" ht="49.65" customHeight="1">
       <c r="A354" s="10"/>
       <c r="B354" s="4"/>
       <c r="C354" s="6"/>
@@ -8277,7 +8406,7 @@
       <c r="L354" s="9"/>
       <c r="M354" s="5"/>
     </row>
-    <row r="355" spans="1:13" ht="49.7" customHeight="1">
+    <row r="355" spans="1:13" ht="49.65" customHeight="1">
       <c r="A355" s="10"/>
       <c r="B355" s="4"/>
       <c r="C355" s="6"/>
@@ -8292,7 +8421,7 @@
       <c r="L355" s="9"/>
       <c r="M355" s="5"/>
     </row>
-    <row r="356" spans="1:13" ht="49.7" customHeight="1">
+    <row r="356" spans="1:13" ht="49.65" customHeight="1">
       <c r="A356" s="10"/>
       <c r="B356" s="4"/>
       <c r="C356" s="6"/>
@@ -8307,7 +8436,7 @@
       <c r="L356" s="9"/>
       <c r="M356" s="5"/>
     </row>
-    <row r="357" spans="1:13" ht="49.7" customHeight="1">
+    <row r="357" spans="1:13" ht="49.65" customHeight="1">
       <c r="A357" s="10"/>
       <c r="B357" s="4"/>
       <c r="C357" s="6"/>
@@ -8322,7 +8451,7 @@
       <c r="L357" s="9"/>
       <c r="M357" s="5"/>
     </row>
-    <row r="358" spans="1:13" ht="49.7" customHeight="1">
+    <row r="358" spans="1:13" ht="49.65" customHeight="1">
       <c r="A358" s="10"/>
       <c r="B358" s="4"/>
       <c r="C358" s="6"/>
@@ -8337,7 +8466,7 @@
       <c r="L358" s="9"/>
       <c r="M358" s="5"/>
     </row>
-    <row r="359" spans="1:13" ht="49.7" customHeight="1">
+    <row r="359" spans="1:13" ht="49.65" customHeight="1">
       <c r="A359" s="10"/>
       <c r="B359" s="4"/>
       <c r="C359" s="6"/>
@@ -8352,7 +8481,7 @@
       <c r="L359" s="9"/>
       <c r="M359" s="5"/>
     </row>
-    <row r="360" spans="1:13" ht="49.7" customHeight="1">
+    <row r="360" spans="1:13" ht="49.65" customHeight="1">
       <c r="A360" s="10"/>
       <c r="B360" s="4"/>
       <c r="C360" s="6"/>
@@ -8367,7 +8496,7 @@
       <c r="L360" s="9"/>
       <c r="M360" s="5"/>
     </row>
-    <row r="361" spans="1:13" ht="49.7" customHeight="1">
+    <row r="361" spans="1:13" ht="49.65" customHeight="1">
       <c r="A361" s="10"/>
       <c r="B361" s="4"/>
       <c r="C361" s="6"/>
@@ -8382,7 +8511,7 @@
       <c r="L361" s="9"/>
       <c r="M361" s="5"/>
     </row>
-    <row r="362" spans="1:13" ht="49.7" customHeight="1">
+    <row r="362" spans="1:13" ht="49.65" customHeight="1">
       <c r="A362" s="10"/>
       <c r="B362" s="4"/>
       <c r="C362" s="6"/>
@@ -8397,7 +8526,7 @@
       <c r="L362" s="9"/>
       <c r="M362" s="9"/>
     </row>
-    <row r="363" spans="1:13" ht="49.7" customHeight="1">
+    <row r="363" spans="1:13" ht="49.65" customHeight="1">
       <c r="A363" s="10"/>
       <c r="B363" s="4"/>
       <c r="C363" s="6"/>
@@ -8412,7 +8541,7 @@
       <c r="L363" s="9"/>
       <c r="M363" s="9"/>
     </row>
-    <row r="364" spans="1:13" ht="49.7" customHeight="1">
+    <row r="364" spans="1:13" ht="49.65" customHeight="1">
       <c r="A364" s="10"/>
       <c r="B364" s="4"/>
       <c r="C364" s="6"/>
@@ -8427,7 +8556,7 @@
       <c r="L364" s="9"/>
       <c r="M364" s="9"/>
     </row>
-    <row r="365" spans="1:13" ht="49.7" customHeight="1">
+    <row r="365" spans="1:13" ht="49.65" customHeight="1">
       <c r="A365" s="10"/>
       <c r="B365" s="4"/>
       <c r="C365" s="6"/>
@@ -8442,7 +8571,7 @@
       <c r="L365" s="9"/>
       <c r="M365" s="9"/>
     </row>
-    <row r="366" spans="1:13" ht="49.7" customHeight="1">
+    <row r="366" spans="1:13" ht="49.65" customHeight="1">
       <c r="A366" s="10"/>
       <c r="B366" s="4"/>
       <c r="C366" s="6"/>
@@ -8457,7 +8586,7 @@
       <c r="L366" s="9"/>
       <c r="M366" s="9"/>
     </row>
-    <row r="367" spans="1:13" ht="49.7" customHeight="1">
+    <row r="367" spans="1:13" ht="49.65" customHeight="1">
       <c r="A367" s="10"/>
       <c r="B367" s="4"/>
       <c r="C367" s="6"/>
@@ -8472,7 +8601,7 @@
       <c r="L367" s="9"/>
       <c r="M367" s="9"/>
     </row>
-    <row r="368" spans="1:13" ht="49.7" customHeight="1">
+    <row r="368" spans="1:13" ht="49.65" customHeight="1">
       <c r="A368" s="10"/>
       <c r="B368" s="4"/>
       <c r="C368" s="6"/>
@@ -8487,7 +8616,7 @@
       <c r="L368" s="9"/>
       <c r="M368" s="9"/>
     </row>
-    <row r="369" spans="1:13" ht="49.7" customHeight="1">
+    <row r="369" spans="1:13" ht="49.65" customHeight="1">
       <c r="A369" s="10"/>
       <c r="B369" s="4"/>
       <c r="C369" s="6"/>
@@ -8502,7 +8631,7 @@
       <c r="L369" s="9"/>
       <c r="M369" s="9"/>
     </row>
-    <row r="370" spans="1:13" ht="49.7" customHeight="1">
+    <row r="370" spans="1:13" ht="49.65" customHeight="1">
       <c r="A370" s="10"/>
       <c r="B370" s="4"/>
       <c r="C370" s="6"/>
@@ -8517,7 +8646,7 @@
       <c r="L370" s="9"/>
       <c r="M370" s="9"/>
     </row>
-    <row r="371" spans="1:13" ht="49.7" customHeight="1">
+    <row r="371" spans="1:13" ht="49.65" customHeight="1">
       <c r="A371" s="10"/>
       <c r="B371" s="4"/>
       <c r="C371" s="6"/>
@@ -8532,7 +8661,7 @@
       <c r="L371" s="9"/>
       <c r="M371" s="9"/>
     </row>
-    <row r="372" spans="1:13" ht="49.7" customHeight="1">
+    <row r="372" spans="1:13" ht="49.65" customHeight="1">
       <c r="A372" s="10"/>
       <c r="B372" s="4"/>
       <c r="C372" s="6"/>
@@ -8547,7 +8676,7 @@
       <c r="L372" s="9"/>
       <c r="M372" s="9"/>
     </row>
-    <row r="373" spans="1:13" ht="49.7" customHeight="1">
+    <row r="373" spans="1:13" ht="49.65" customHeight="1">
       <c r="A373" s="10"/>
       <c r="B373" s="4"/>
       <c r="C373" s="6"/>
@@ -8562,7 +8691,7 @@
       <c r="L373" s="9"/>
       <c r="M373" s="9"/>
     </row>
-    <row r="374" spans="1:13" ht="49.7" customHeight="1">
+    <row r="374" spans="1:13" ht="49.65" customHeight="1">
       <c r="A374" s="10"/>
       <c r="B374" s="4"/>
       <c r="C374" s="6"/>
@@ -8577,7 +8706,7 @@
       <c r="L374" s="9"/>
       <c r="M374" s="9"/>
     </row>
-    <row r="375" spans="1:13" ht="49.7" customHeight="1">
+    <row r="375" spans="1:13" ht="49.65" customHeight="1">
       <c r="A375" s="10"/>
       <c r="B375" s="4"/>
       <c r="C375" s="6"/>
@@ -8592,7 +8721,7 @@
       <c r="L375" s="9"/>
       <c r="M375" s="9"/>
     </row>
-    <row r="376" spans="1:13" ht="49.7" customHeight="1">
+    <row r="376" spans="1:13" ht="49.65" customHeight="1">
       <c r="A376" s="10"/>
       <c r="B376" s="4"/>
       <c r="C376" s="6"/>
@@ -8607,7 +8736,7 @@
       <c r="L376" s="9"/>
       <c r="M376" s="9"/>
     </row>
-    <row r="377" spans="1:13" ht="49.7" customHeight="1">
+    <row r="377" spans="1:13" ht="49.65" customHeight="1">
       <c r="A377" s="10"/>
       <c r="B377" s="4"/>
       <c r="C377" s="6"/>
@@ -8622,7 +8751,7 @@
       <c r="L377" s="9"/>
       <c r="M377" s="9"/>
     </row>
-    <row r="378" spans="1:13" ht="49.7" customHeight="1">
+    <row r="378" spans="1:13" ht="49.65" customHeight="1">
       <c r="A378" s="10"/>
       <c r="B378" s="4"/>
       <c r="C378" s="6"/>
@@ -8637,7 +8766,7 @@
       <c r="L378" s="9"/>
       <c r="M378" s="9"/>
     </row>
-    <row r="379" spans="1:13" ht="49.7" customHeight="1">
+    <row r="379" spans="1:13" ht="49.65" customHeight="1">
       <c r="A379" s="10"/>
       <c r="B379" s="4"/>
       <c r="C379" s="6"/>
@@ -8652,7 +8781,7 @@
       <c r="L379" s="9"/>
       <c r="M379" s="9"/>
     </row>
-    <row r="380" spans="1:13" ht="49.7" customHeight="1">
+    <row r="380" spans="1:13" ht="49.65" customHeight="1">
       <c r="A380" s="10"/>
       <c r="B380" s="4"/>
       <c r="C380" s="6"/>
@@ -8667,7 +8796,7 @@
       <c r="L380" s="9"/>
       <c r="M380" s="9"/>
     </row>
-    <row r="381" spans="1:13" ht="49.7" customHeight="1">
+    <row r="381" spans="1:13" ht="49.65" customHeight="1">
       <c r="A381" s="10"/>
       <c r="B381" s="4"/>
       <c r="C381" s="6"/>
@@ -8682,7 +8811,7 @@
       <c r="L381" s="9"/>
       <c r="M381" s="9"/>
     </row>
-    <row r="382" spans="1:13" ht="49.7" customHeight="1">
+    <row r="382" spans="1:13" ht="49.65" customHeight="1">
       <c r="A382" s="10"/>
       <c r="B382" s="4"/>
       <c r="C382" s="6"/>
@@ -8697,7 +8826,7 @@
       <c r="L382" s="9"/>
       <c r="M382" s="9"/>
     </row>
-    <row r="383" spans="1:13" ht="49.7" customHeight="1">
+    <row r="383" spans="1:13" ht="49.65" customHeight="1">
       <c r="A383" s="10"/>
       <c r="B383" s="4"/>
       <c r="C383" s="6"/>
@@ -8712,7 +8841,7 @@
       <c r="L383" s="9"/>
       <c r="M383" s="9"/>
     </row>
-    <row r="384" spans="1:13" ht="49.7" customHeight="1">
+    <row r="384" spans="1:13" ht="49.65" customHeight="1">
       <c r="A384" s="10"/>
       <c r="B384" s="4"/>
       <c r="C384" s="6"/>
@@ -8727,7 +8856,7 @@
       <c r="L384" s="9"/>
       <c r="M384" s="9"/>
     </row>
-    <row r="385" spans="1:13" ht="49.7" customHeight="1">
+    <row r="385" spans="1:13" ht="49.65" customHeight="1">
       <c r="A385" s="10"/>
       <c r="B385" s="4"/>
       <c r="C385" s="6"/>
@@ -8742,7 +8871,7 @@
       <c r="L385" s="9"/>
       <c r="M385" s="9"/>
     </row>
-    <row r="386" spans="1:13" ht="49.7" customHeight="1">
+    <row r="386" spans="1:13" ht="49.65" customHeight="1">
       <c r="A386" s="10"/>
       <c r="B386" s="4"/>
       <c r="C386" s="6"/>
@@ -8757,7 +8886,7 @@
       <c r="L386" s="9"/>
       <c r="M386" s="9"/>
     </row>
-    <row r="387" spans="1:13" ht="49.7" customHeight="1">
+    <row r="387" spans="1:13" ht="49.65" customHeight="1">
       <c r="A387" s="10"/>
       <c r="B387" s="4"/>
       <c r="C387" s="6"/>
@@ -8772,7 +8901,7 @@
       <c r="L387" s="9"/>
       <c r="M387" s="9"/>
     </row>
-    <row r="388" spans="1:13" ht="49.7" customHeight="1">
+    <row r="388" spans="1:13" ht="49.65" customHeight="1">
       <c r="A388" s="10"/>
       <c r="B388" s="4"/>
       <c r="C388" s="6"/>
@@ -8787,7 +8916,7 @@
       <c r="L388" s="9"/>
       <c r="M388" s="9"/>
     </row>
-    <row r="389" spans="1:13" ht="49.7" customHeight="1">
+    <row r="389" spans="1:13" ht="49.65" customHeight="1">
       <c r="A389" s="10"/>
       <c r="B389" s="4"/>
       <c r="C389" s="6"/>
@@ -8802,7 +8931,7 @@
       <c r="L389" s="9"/>
       <c r="M389" s="9"/>
     </row>
-    <row r="390" spans="1:13" ht="49.7" customHeight="1">
+    <row r="390" spans="1:13" ht="49.65" customHeight="1">
       <c r="A390" s="10"/>
       <c r="B390" s="4"/>
       <c r="C390" s="6"/>
@@ -8817,7 +8946,7 @@
       <c r="L390" s="9"/>
       <c r="M390" s="9"/>
     </row>
-    <row r="391" spans="1:13" ht="49.7" customHeight="1">
+    <row r="391" spans="1:13" ht="49.65" customHeight="1">
       <c r="A391" s="10"/>
       <c r="B391" s="4"/>
       <c r="C391" s="6"/>
@@ -8832,7 +8961,7 @@
       <c r="L391" s="9"/>
       <c r="M391" s="9"/>
     </row>
-    <row r="392" spans="1:13" ht="49.7" customHeight="1">
+    <row r="392" spans="1:13" ht="49.65" customHeight="1">
       <c r="A392" s="10"/>
       <c r="B392" s="4"/>
       <c r="C392" s="6"/>
@@ -8847,7 +8976,7 @@
       <c r="L392" s="9"/>
       <c r="M392" s="9"/>
     </row>
-    <row r="393" spans="1:13" ht="49.7" customHeight="1">
+    <row r="393" spans="1:13" ht="49.65" customHeight="1">
       <c r="A393" s="10"/>
       <c r="B393" s="4"/>
       <c r="C393" s="6"/>
@@ -8862,7 +8991,7 @@
       <c r="L393" s="9"/>
       <c r="M393" s="9"/>
     </row>
-    <row r="394" spans="1:13" ht="49.7" customHeight="1">
+    <row r="394" spans="1:13" ht="49.65" customHeight="1">
       <c r="A394" s="10"/>
       <c r="B394" s="4"/>
       <c r="C394" s="6"/>
@@ -8877,7 +9006,7 @@
       <c r="L394" s="9"/>
       <c r="M394" s="9"/>
     </row>
-    <row r="395" spans="1:13" ht="49.7" customHeight="1">
+    <row r="395" spans="1:13" ht="49.65" customHeight="1">
       <c r="A395" s="10"/>
       <c r="B395" s="4"/>
       <c r="C395" s="6"/>
@@ -8892,7 +9021,7 @@
       <c r="L395" s="9"/>
       <c r="M395" s="9"/>
     </row>
-    <row r="396" spans="1:13" ht="49.7" customHeight="1">
+    <row r="396" spans="1:13" ht="49.65" customHeight="1">
       <c r="A396" s="10"/>
       <c r="B396" s="4"/>
       <c r="C396" s="6"/>
@@ -8907,7 +9036,7 @@
       <c r="L396" s="9"/>
       <c r="M396" s="9"/>
     </row>
-    <row r="397" spans="1:13" ht="49.7" customHeight="1">
+    <row r="397" spans="1:13" ht="49.65" customHeight="1">
       <c r="A397" s="10"/>
       <c r="B397" s="4"/>
       <c r="C397" s="6"/>
@@ -8922,7 +9051,7 @@
       <c r="L397" s="9"/>
       <c r="M397" s="9"/>
     </row>
-    <row r="398" spans="1:13" ht="49.7" customHeight="1">
+    <row r="398" spans="1:13" ht="49.65" customHeight="1">
       <c r="A398" s="10"/>
       <c r="B398" s="4"/>
       <c r="C398" s="6"/>
@@ -8937,7 +9066,7 @@
       <c r="L398" s="9"/>
       <c r="M398" s="9"/>
     </row>
-    <row r="399" spans="1:13" ht="49.7" customHeight="1">
+    <row r="399" spans="1:13" ht="49.65" customHeight="1">
       <c r="A399" s="10"/>
       <c r="B399" s="4"/>
       <c r="C399" s="6"/>
@@ -8952,7 +9081,7 @@
       <c r="L399" s="9"/>
       <c r="M399" s="9"/>
     </row>
-    <row r="400" spans="1:13" ht="49.7" customHeight="1">
+    <row r="400" spans="1:13" ht="49.65" customHeight="1">
       <c r="A400" s="10"/>
       <c r="B400" s="4"/>
       <c r="C400" s="6"/>
@@ -8967,7 +9096,7 @@
       <c r="L400" s="9"/>
       <c r="M400" s="9"/>
     </row>
-    <row r="401" spans="1:13" ht="49.7" customHeight="1">
+    <row r="401" spans="1:13" ht="49.65" customHeight="1">
       <c r="A401" s="10"/>
       <c r="B401" s="4"/>
       <c r="C401" s="6"/>
@@ -8982,7 +9111,7 @@
       <c r="L401" s="9"/>
       <c r="M401" s="9"/>
     </row>
-    <row r="402" spans="1:13" ht="49.7" customHeight="1">
+    <row r="402" spans="1:13" ht="49.65" customHeight="1">
       <c r="A402" s="10"/>
       <c r="B402" s="4"/>
       <c r="C402" s="6"/>
@@ -8997,7 +9126,7 @@
       <c r="L402" s="9"/>
       <c r="M402" s="9"/>
     </row>
-    <row r="403" spans="1:13" ht="49.7" customHeight="1">
+    <row r="403" spans="1:13" ht="49.65" customHeight="1">
       <c r="A403" s="10"/>
       <c r="B403" s="4"/>
       <c r="C403" s="6"/>
@@ -9012,7 +9141,7 @@
       <c r="L403" s="9"/>
       <c r="M403" s="9"/>
     </row>
-    <row r="404" spans="1:13" ht="49.7" customHeight="1">
+    <row r="404" spans="1:13" ht="49.65" customHeight="1">
       <c r="A404" s="10"/>
       <c r="B404" s="4"/>
       <c r="C404" s="6"/>
@@ -9027,7 +9156,7 @@
       <c r="L404" s="9"/>
       <c r="M404" s="9"/>
     </row>
-    <row r="405" spans="1:13" ht="49.7" customHeight="1">
+    <row r="405" spans="1:13" ht="49.65" customHeight="1">
       <c r="A405" s="10"/>
       <c r="B405" s="4"/>
       <c r="C405" s="6"/>
@@ -9042,7 +9171,7 @@
       <c r="L405" s="9"/>
       <c r="M405" s="9"/>
     </row>
-    <row r="406" spans="1:13" ht="49.7" customHeight="1">
+    <row r="406" spans="1:13" ht="49.65" customHeight="1">
       <c r="A406" s="10"/>
       <c r="B406" s="4"/>
       <c r="C406" s="6"/>
@@ -9057,7 +9186,7 @@
       <c r="L406" s="9"/>
       <c r="M406" s="9"/>
     </row>
-    <row r="407" spans="1:13" ht="49.7" customHeight="1">
+    <row r="407" spans="1:13" ht="49.65" customHeight="1">
       <c r="A407" s="10"/>
       <c r="B407" s="4"/>
       <c r="C407" s="6"/>
@@ -9072,7 +9201,7 @@
       <c r="L407" s="9"/>
       <c r="M407" s="9"/>
     </row>
-    <row r="408" spans="1:13" ht="49.7" customHeight="1">
+    <row r="408" spans="1:13" ht="49.65" customHeight="1">
       <c r="A408" s="10"/>
       <c r="B408" s="4"/>
       <c r="C408" s="6"/>
@@ -9087,7 +9216,7 @@
       <c r="L408" s="9"/>
       <c r="M408" s="9"/>
     </row>
-    <row r="409" spans="1:13" ht="49.7" customHeight="1">
+    <row r="409" spans="1:13" ht="49.65" customHeight="1">
       <c r="A409" s="10"/>
       <c r="B409" s="4"/>
       <c r="C409" s="6"/>
@@ -9102,7 +9231,7 @@
       <c r="L409" s="9"/>
       <c r="M409" s="9"/>
     </row>
-    <row r="410" spans="1:13" ht="49.7" customHeight="1">
+    <row r="410" spans="1:13" ht="49.65" customHeight="1">
       <c r="A410" s="10"/>
       <c r="B410" s="4"/>
       <c r="C410" s="6"/>
@@ -9117,7 +9246,7 @@
       <c r="L410" s="9"/>
       <c r="M410" s="9"/>
     </row>
-    <row r="411" spans="1:13" ht="49.7" customHeight="1">
+    <row r="411" spans="1:13" ht="49.65" customHeight="1">
       <c r="A411" s="10"/>
       <c r="B411" s="4"/>
       <c r="C411" s="6"/>
@@ -9132,7 +9261,7 @@
       <c r="L411" s="9"/>
       <c r="M411" s="9"/>
     </row>
-    <row r="412" spans="1:13" ht="49.7" customHeight="1">
+    <row r="412" spans="1:13" ht="49.65" customHeight="1">
       <c r="A412" s="10"/>
       <c r="B412" s="4"/>
       <c r="C412" s="6"/>
@@ -9147,7 +9276,7 @@
       <c r="L412" s="9"/>
       <c r="M412" s="9"/>
     </row>
-    <row r="413" spans="1:13" ht="49.7" customHeight="1">
+    <row r="413" spans="1:13" ht="49.65" customHeight="1">
       <c r="A413" s="10"/>
       <c r="B413" s="4"/>
       <c r="C413" s="6"/>
@@ -9162,7 +9291,7 @@
       <c r="L413" s="5"/>
       <c r="M413" s="9"/>
     </row>
-    <row r="414" spans="1:13" ht="49.7" customHeight="1">
+    <row r="414" spans="1:13" ht="49.65" customHeight="1">
       <c r="A414" s="10"/>
       <c r="B414" s="4"/>
       <c r="C414" s="6"/>
@@ -9177,7 +9306,7 @@
       <c r="L414" s="5"/>
       <c r="M414" s="9"/>
     </row>
-    <row r="415" spans="1:13" ht="49.7" customHeight="1">
+    <row r="415" spans="1:13" ht="49.65" customHeight="1">
       <c r="A415" s="10"/>
       <c r="B415" s="4"/>
       <c r="C415" s="6"/>
@@ -9192,7 +9321,7 @@
       <c r="L415" s="5"/>
       <c r="M415" s="5"/>
     </row>
-    <row r="416" spans="1:13" ht="49.7" customHeight="1">
+    <row r="416" spans="1:13" ht="49.65" customHeight="1">
       <c r="A416" s="10"/>
       <c r="B416" s="4"/>
       <c r="C416" s="6"/>
@@ -9207,7 +9336,7 @@
       <c r="L416" s="5"/>
       <c r="M416" s="5"/>
     </row>
-    <row r="417" spans="1:13" ht="49.7" customHeight="1">
+    <row r="417" spans="1:13" ht="49.65" customHeight="1">
       <c r="A417" s="10"/>
       <c r="B417" s="4"/>
       <c r="C417" s="6"/>
@@ -9222,7 +9351,7 @@
       <c r="L417" s="5"/>
       <c r="M417" s="5"/>
     </row>
-    <row r="418" spans="1:13" ht="49.7" customHeight="1">
+    <row r="418" spans="1:13" ht="49.65" customHeight="1">
       <c r="A418" s="10"/>
       <c r="B418" s="4"/>
       <c r="C418" s="6"/>
@@ -9237,7 +9366,7 @@
       <c r="L418" s="5"/>
       <c r="M418" s="5"/>
     </row>
-    <row r="419" spans="1:13" ht="49.7" customHeight="1">
+    <row r="419" spans="1:13" ht="49.65" customHeight="1">
       <c r="A419" s="10"/>
       <c r="B419" s="4"/>
       <c r="C419" s="6"/>
@@ -9252,7 +9381,7 @@
       <c r="L419" s="5"/>
       <c r="M419" s="5"/>
     </row>
-    <row r="420" spans="1:13" ht="49.7" customHeight="1">
+    <row r="420" spans="1:13" ht="49.65" customHeight="1">
       <c r="A420" s="10"/>
       <c r="B420" s="4"/>
       <c r="C420" s="6"/>
@@ -9267,7 +9396,7 @@
       <c r="L420" s="5"/>
       <c r="M420" s="5"/>
     </row>
-    <row r="421" spans="1:13" ht="49.7" customHeight="1">
+    <row r="421" spans="1:13" ht="49.65" customHeight="1">
       <c r="A421" s="10"/>
       <c r="B421" s="4"/>
       <c r="C421" s="6"/>
@@ -9282,7 +9411,7 @@
       <c r="L421" s="5"/>
       <c r="M421" s="5"/>
     </row>
-    <row r="422" spans="1:13" ht="49.7" customHeight="1">
+    <row r="422" spans="1:13" ht="49.65" customHeight="1">
       <c r="A422" s="10"/>
       <c r="B422" s="4"/>
       <c r="C422" s="6"/>
@@ -9297,7 +9426,7 @@
       <c r="L422" s="5"/>
       <c r="M422" s="5"/>
     </row>
-    <row r="423" spans="1:13" ht="49.7" customHeight="1">
+    <row r="423" spans="1:13" ht="49.65" customHeight="1">
       <c r="A423" s="10"/>
       <c r="B423" s="4"/>
       <c r="C423" s="6"/>
@@ -9312,7 +9441,7 @@
       <c r="L423" s="5"/>
       <c r="M423" s="5"/>
     </row>
-    <row r="424" spans="1:13" ht="49.7" customHeight="1">
+    <row r="424" spans="1:13" ht="49.65" customHeight="1">
       <c r="A424" s="10"/>
       <c r="B424" s="4"/>
       <c r="C424" s="6"/>
@@ -9327,7 +9456,7 @@
       <c r="L424" s="5"/>
       <c r="M424" s="5"/>
     </row>
-    <row r="425" spans="1:13" ht="49.7" customHeight="1">
+    <row r="425" spans="1:13" ht="49.65" customHeight="1">
       <c r="A425" s="10"/>
       <c r="B425" s="4"/>
       <c r="C425" s="6"/>
@@ -9342,7 +9471,7 @@
       <c r="L425" s="5"/>
       <c r="M425" s="5"/>
     </row>
-    <row r="426" spans="1:13" ht="49.7" customHeight="1">
+    <row r="426" spans="1:13" ht="49.65" customHeight="1">
       <c r="A426" s="10"/>
       <c r="B426" s="4"/>
       <c r="C426" s="6"/>
@@ -9357,7 +9486,7 @@
       <c r="L426" s="5"/>
       <c r="M426" s="5"/>
     </row>
-    <row r="427" spans="1:13" ht="49.7" customHeight="1">
+    <row r="427" spans="1:13" ht="49.65" customHeight="1">
       <c r="A427" s="10"/>
       <c r="B427" s="4"/>
       <c r="C427" s="6"/>
@@ -9372,7 +9501,7 @@
       <c r="L427" s="5"/>
       <c r="M427" s="5"/>
     </row>
-    <row r="428" spans="1:13" ht="49.7" customHeight="1">
+    <row r="428" spans="1:13" ht="49.65" customHeight="1">
       <c r="A428" s="10"/>
       <c r="B428" s="4"/>
       <c r="C428" s="6"/>
@@ -9387,7 +9516,7 @@
       <c r="L428" s="5"/>
       <c r="M428" s="5"/>
     </row>
-    <row r="429" spans="1:13" ht="49.7" customHeight="1">
+    <row r="429" spans="1:13" ht="49.65" customHeight="1">
       <c r="A429" s="10"/>
       <c r="B429" s="4"/>
       <c r="C429" s="6"/>
@@ -9402,7 +9531,7 @@
       <c r="L429" s="5"/>
       <c r="M429" s="5"/>
     </row>
-    <row r="430" spans="1:13" ht="49.7" customHeight="1">
+    <row r="430" spans="1:13" ht="49.65" customHeight="1">
       <c r="A430" s="10"/>
       <c r="B430" s="4"/>
       <c r="C430" s="6"/>
@@ -9417,7 +9546,7 @@
       <c r="L430" s="5"/>
       <c r="M430" s="5"/>
     </row>
-    <row r="431" spans="1:13" ht="49.7" customHeight="1">
+    <row r="431" spans="1:13" ht="49.65" customHeight="1">
       <c r="A431" s="10"/>
       <c r="B431" s="4"/>
       <c r="C431" s="6"/>
@@ -9432,7 +9561,7 @@
       <c r="L431" s="5"/>
       <c r="M431" s="5"/>
     </row>
-    <row r="432" spans="1:13" ht="49.7" customHeight="1">
+    <row r="432" spans="1:13" ht="49.65" customHeight="1">
       <c r="A432" s="10"/>
       <c r="B432" s="4"/>
       <c r="C432" s="6"/>
@@ -9447,7 +9576,7 @@
       <c r="L432" s="5"/>
       <c r="M432" s="5"/>
     </row>
-    <row r="433" spans="1:13" ht="49.7" customHeight="1">
+    <row r="433" spans="1:13" ht="49.65" customHeight="1">
       <c r="A433" s="10"/>
       <c r="B433" s="4"/>
       <c r="C433" s="6"/>
@@ -9462,7 +9591,7 @@
       <c r="L433" s="5"/>
       <c r="M433" s="5"/>
     </row>
-    <row r="434" spans="1:13" ht="49.7" customHeight="1">
+    <row r="434" spans="1:13" ht="49.65" customHeight="1">
       <c r="A434" s="10"/>
       <c r="B434" s="4"/>
       <c r="C434" s="6"/>
@@ -9477,7 +9606,7 @@
       <c r="L434" s="5"/>
       <c r="M434" s="5"/>
     </row>
-    <row r="435" spans="1:13" ht="49.7" customHeight="1">
+    <row r="435" spans="1:13" ht="49.65" customHeight="1">
       <c r="A435" s="10"/>
       <c r="B435" s="4"/>
       <c r="C435" s="6"/>
@@ -9492,7 +9621,7 @@
       <c r="L435" s="5"/>
       <c r="M435" s="5"/>
     </row>
-    <row r="436" spans="1:13" ht="49.7" customHeight="1">
+    <row r="436" spans="1:13" ht="49.65" customHeight="1">
       <c r="A436" s="10"/>
       <c r="B436" s="4"/>
       <c r="C436" s="6"/>
@@ -9507,7 +9636,7 @@
       <c r="L436" s="5"/>
       <c r="M436" s="5"/>
     </row>
-    <row r="437" spans="1:13" ht="49.7" customHeight="1">
+    <row r="437" spans="1:13" ht="49.65" customHeight="1">
       <c r="A437" s="10"/>
       <c r="B437" s="4"/>
       <c r="C437" s="6"/>
@@ -9522,7 +9651,7 @@
       <c r="L437" s="5"/>
       <c r="M437" s="5"/>
     </row>
-    <row r="438" spans="1:13" ht="49.7" customHeight="1">
+    <row r="438" spans="1:13" ht="49.65" customHeight="1">
       <c r="A438" s="10"/>
       <c r="B438" s="4"/>
       <c r="C438" s="6"/>
@@ -9537,7 +9666,7 @@
       <c r="L438" s="5"/>
       <c r="M438" s="5"/>
     </row>
-    <row r="439" spans="1:13" ht="49.7" customHeight="1">
+    <row r="439" spans="1:13" ht="49.65" customHeight="1">
       <c r="A439" s="10"/>
       <c r="B439" s="4"/>
       <c r="C439" s="6"/>
@@ -9552,7 +9681,7 @@
       <c r="L439" s="5"/>
       <c r="M439" s="5"/>
     </row>
-    <row r="440" spans="1:13" ht="49.7" customHeight="1">
+    <row r="440" spans="1:13" ht="49.65" customHeight="1">
       <c r="A440" s="10"/>
       <c r="B440" s="4"/>
       <c r="C440" s="6"/>
@@ -9567,7 +9696,7 @@
       <c r="L440" s="5"/>
       <c r="M440" s="5"/>
     </row>
-    <row r="441" spans="1:13" ht="49.7" customHeight="1">
+    <row r="441" spans="1:13" ht="49.65" customHeight="1">
       <c r="A441" s="10"/>
       <c r="B441" s="4"/>
       <c r="C441" s="6"/>
@@ -9582,7 +9711,7 @@
       <c r="L441" s="5"/>
       <c r="M441" s="5"/>
     </row>
-    <row r="442" spans="1:13" ht="49.7" customHeight="1">
+    <row r="442" spans="1:13" ht="49.65" customHeight="1">
       <c r="A442" s="10"/>
       <c r="B442" s="4"/>
       <c r="C442" s="6"/>
@@ -9597,7 +9726,7 @@
       <c r="L442" s="5"/>
       <c r="M442" s="5"/>
     </row>
-    <row r="443" spans="1:13" ht="49.7" customHeight="1">
+    <row r="443" spans="1:13" ht="49.65" customHeight="1">
       <c r="A443" s="10"/>
       <c r="B443" s="4"/>
       <c r="C443" s="6"/>
@@ -9612,7 +9741,7 @@
       <c r="L443" s="5"/>
       <c r="M443" s="5"/>
     </row>
-    <row r="444" spans="1:13" ht="49.7" customHeight="1">
+    <row r="444" spans="1:13" ht="49.65" customHeight="1">
       <c r="A444" s="10"/>
       <c r="B444" s="4"/>
       <c r="C444" s="6"/>
@@ -9627,7 +9756,7 @@
       <c r="L444" s="5"/>
       <c r="M444" s="5"/>
     </row>
-    <row r="445" spans="1:13" ht="49.7" customHeight="1">
+    <row r="445" spans="1:13" ht="49.65" customHeight="1">
       <c r="A445" s="10"/>
       <c r="B445" s="4"/>
       <c r="C445" s="6"/>
@@ -9642,7 +9771,7 @@
       <c r="L445" s="5"/>
       <c r="M445" s="5"/>
     </row>
-    <row r="446" spans="1:13" ht="49.7" customHeight="1">
+    <row r="446" spans="1:13" ht="49.65" customHeight="1">
       <c r="A446" s="10"/>
       <c r="B446" s="4"/>
       <c r="C446" s="6"/>
@@ -9657,7 +9786,7 @@
       <c r="L446" s="5"/>
       <c r="M446" s="5"/>
     </row>
-    <row r="447" spans="1:13" ht="49.7" customHeight="1">
+    <row r="447" spans="1:13" ht="49.65" customHeight="1">
       <c r="A447" s="10"/>
       <c r="B447" s="4"/>
       <c r="C447" s="6"/>
@@ -9672,7 +9801,7 @@
       <c r="L447" s="5"/>
       <c r="M447" s="5"/>
     </row>
-    <row r="448" spans="1:13" ht="49.7" customHeight="1">
+    <row r="448" spans="1:13" ht="49.65" customHeight="1">
       <c r="A448" s="10"/>
       <c r="B448" s="4"/>
       <c r="C448" s="6"/>
@@ -9687,7 +9816,7 @@
       <c r="L448" s="5"/>
       <c r="M448" s="5"/>
     </row>
-    <row r="449" spans="1:13" ht="49.7" customHeight="1">
+    <row r="449" spans="1:13" ht="49.65" customHeight="1">
       <c r="A449" s="10"/>
       <c r="B449" s="4"/>
       <c r="C449" s="6"/>
@@ -9702,7 +9831,7 @@
       <c r="L449" s="5"/>
       <c r="M449" s="5"/>
     </row>
-    <row r="450" spans="1:13" ht="49.7" customHeight="1">
+    <row r="450" spans="1:13" ht="49.65" customHeight="1">
       <c r="A450" s="10"/>
       <c r="B450" s="4"/>
       <c r="C450" s="6"/>
@@ -9717,7 +9846,7 @@
       <c r="L450" s="5"/>
       <c r="M450" s="5"/>
     </row>
-    <row r="451" spans="1:13" ht="49.7" customHeight="1">
+    <row r="451" spans="1:13" ht="49.65" customHeight="1">
       <c r="A451" s="10"/>
       <c r="B451" s="4"/>
       <c r="C451" s="6"/>
@@ -9732,7 +9861,7 @@
       <c r="L451" s="5"/>
       <c r="M451" s="5"/>
     </row>
-    <row r="452" spans="1:13" ht="49.7" customHeight="1">
+    <row r="452" spans="1:13" ht="49.65" customHeight="1">
       <c r="A452" s="10"/>
       <c r="B452" s="4"/>
       <c r="C452" s="6"/>
@@ -9747,7 +9876,7 @@
       <c r="L452" s="5"/>
       <c r="M452" s="5"/>
     </row>
-    <row r="453" spans="1:13" ht="49.7" customHeight="1">
+    <row r="453" spans="1:13" ht="49.65" customHeight="1">
       <c r="A453" s="10"/>
       <c r="B453" s="4"/>
       <c r="C453" s="6"/>
@@ -9762,7 +9891,7 @@
       <c r="L453" s="5"/>
       <c r="M453" s="5"/>
     </row>
-    <row r="454" spans="1:13" ht="49.7" customHeight="1">
+    <row r="454" spans="1:13" ht="49.65" customHeight="1">
       <c r="A454" s="10"/>
       <c r="B454" s="4"/>
       <c r="C454" s="6"/>
@@ -9777,7 +9906,7 @@
       <c r="L454" s="5"/>
       <c r="M454" s="5"/>
     </row>
-    <row r="455" spans="1:13" ht="49.7" customHeight="1">
+    <row r="455" spans="1:13" ht="49.65" customHeight="1">
       <c r="A455" s="10"/>
       <c r="B455" s="4"/>
       <c r="C455" s="6"/>
@@ -9792,7 +9921,7 @@
       <c r="L455" s="5"/>
       <c r="M455" s="5"/>
     </row>
-    <row r="456" spans="1:13" ht="49.7" customHeight="1">
+    <row r="456" spans="1:13" ht="49.65" customHeight="1">
       <c r="A456" s="10"/>
       <c r="B456" s="4"/>
       <c r="C456" s="6"/>
@@ -9807,7 +9936,7 @@
       <c r="L456" s="5"/>
       <c r="M456" s="5"/>
     </row>
-    <row r="457" spans="1:13" ht="49.7" customHeight="1">
+    <row r="457" spans="1:13" ht="49.65" customHeight="1">
       <c r="A457" s="10"/>
       <c r="B457" s="4"/>
       <c r="C457" s="6"/>
@@ -9822,7 +9951,7 @@
       <c r="L457" s="5"/>
       <c r="M457" s="5"/>
     </row>
-    <row r="458" spans="1:13" ht="49.7" customHeight="1">
+    <row r="458" spans="1:13" ht="49.65" customHeight="1">
       <c r="A458" s="10"/>
       <c r="B458" s="4"/>
       <c r="C458" s="6"/>
@@ -9837,7 +9966,7 @@
       <c r="L458" s="9"/>
       <c r="M458" s="5"/>
     </row>
-    <row r="459" spans="1:13" ht="49.7" customHeight="1">
+    <row r="459" spans="1:13" ht="49.65" customHeight="1">
       <c r="A459" s="10"/>
       <c r="B459" s="4"/>
       <c r="C459" s="6"/>
@@ -9852,7 +9981,7 @@
       <c r="L459" s="9"/>
       <c r="M459" s="5"/>
     </row>
-    <row r="460" spans="1:13" ht="49.7" customHeight="1">
+    <row r="460" spans="1:13" ht="49.65" customHeight="1">
       <c r="A460" s="10"/>
       <c r="B460" s="4"/>
       <c r="C460" s="6"/>
@@ -9867,7 +9996,7 @@
       <c r="L460" s="5"/>
       <c r="M460" s="5"/>
     </row>
-    <row r="461" spans="1:13" ht="49.7" customHeight="1">
+    <row r="461" spans="1:13" ht="49.65" customHeight="1">
       <c r="A461" s="10"/>
       <c r="B461" s="4"/>
       <c r="C461" s="6"/>
@@ -9882,7 +10011,7 @@
       <c r="L461" s="5"/>
       <c r="M461" s="5"/>
     </row>
-    <row r="462" spans="1:13" ht="49.7" customHeight="1">
+    <row r="462" spans="1:13" ht="49.65" customHeight="1">
       <c r="A462" s="10"/>
       <c r="B462" s="4"/>
       <c r="C462" s="6"/>
@@ -9897,7 +10026,7 @@
       <c r="L462" s="5"/>
       <c r="M462" s="5"/>
     </row>
-    <row r="463" spans="1:13" ht="49.7" customHeight="1">
+    <row r="463" spans="1:13" ht="49.65" customHeight="1">
       <c r="A463" s="10"/>
       <c r="B463" s="4"/>
       <c r="C463" s="6"/>
@@ -9912,7 +10041,7 @@
       <c r="L463" s="5"/>
       <c r="M463" s="5"/>
     </row>
-    <row r="464" spans="1:13" ht="49.7" customHeight="1">
+    <row r="464" spans="1:13" ht="49.65" customHeight="1">
       <c r="A464" s="10"/>
       <c r="B464" s="4"/>
       <c r="C464" s="6"/>
@@ -9927,7 +10056,7 @@
       <c r="L464" s="5"/>
       <c r="M464" s="5"/>
     </row>
-    <row r="465" spans="1:13" ht="49.7" customHeight="1">
+    <row r="465" spans="1:13" ht="49.65" customHeight="1">
       <c r="A465" s="10"/>
       <c r="B465" s="4"/>
       <c r="C465" s="6"/>
@@ -9942,7 +10071,7 @@
       <c r="L465" s="5"/>
       <c r="M465" s="5"/>
     </row>
-    <row r="466" spans="1:13" ht="49.7" customHeight="1">
+    <row r="466" spans="1:13" ht="49.65" customHeight="1">
       <c r="A466" s="10"/>
       <c r="B466" s="4"/>
       <c r="C466" s="6"/>
@@ -9957,7 +10086,7 @@
       <c r="L466" s="5"/>
       <c r="M466" s="5"/>
     </row>
-    <row r="467" spans="1:13" ht="49.7" customHeight="1">
+    <row r="467" spans="1:13" ht="49.65" customHeight="1">
       <c r="A467" s="10"/>
       <c r="B467" s="4"/>
       <c r="C467" s="6"/>
@@ -9972,7 +10101,7 @@
       <c r="L467" s="5"/>
       <c r="M467" s="5"/>
     </row>
-    <row r="468" spans="1:13" ht="49.7" customHeight="1">
+    <row r="468" spans="1:13" ht="49.65" customHeight="1">
       <c r="A468" s="10"/>
       <c r="B468" s="4"/>
       <c r="C468" s="6"/>
@@ -9987,7 +10116,7 @@
       <c r="L468" s="5"/>
       <c r="M468" s="5"/>
     </row>
-    <row r="469" spans="1:13" ht="49.7" customHeight="1">
+    <row r="469" spans="1:13" ht="49.65" customHeight="1">
       <c r="A469" s="10"/>
       <c r="B469" s="4"/>
       <c r="C469" s="6"/>
@@ -10002,7 +10131,7 @@
       <c r="L469" s="9"/>
       <c r="M469" s="5"/>
     </row>
-    <row r="470" spans="1:13" ht="49.7" customHeight="1">
+    <row r="470" spans="1:13" ht="49.65" customHeight="1">
       <c r="A470" s="10"/>
       <c r="B470" s="4"/>
       <c r="C470" s="6"/>
@@ -10017,7 +10146,7 @@
       <c r="L470" s="9"/>
       <c r="M470" s="5"/>
     </row>
-    <row r="471" spans="1:13" ht="49.7" customHeight="1">
+    <row r="471" spans="1:13" ht="49.65" customHeight="1">
       <c r="A471" s="10"/>
       <c r="B471" s="4"/>
       <c r="C471" s="6"/>
@@ -10032,7 +10161,7 @@
       <c r="L471" s="9"/>
       <c r="M471" s="5"/>
     </row>
-    <row r="472" spans="1:13" ht="49.7" customHeight="1">
+    <row r="472" spans="1:13" ht="49.65" customHeight="1">
       <c r="A472" s="10"/>
       <c r="B472" s="4"/>
       <c r="C472" s="6"/>
@@ -10047,7 +10176,7 @@
       <c r="L472" s="5"/>
       <c r="M472" s="5"/>
     </row>
-    <row r="473" spans="1:13" ht="49.7" customHeight="1">
+    <row r="473" spans="1:13" ht="49.65" customHeight="1">
       <c r="A473" s="10"/>
       <c r="B473" s="4"/>
       <c r="C473" s="6"/>
@@ -10062,7 +10191,7 @@
       <c r="L473" s="5"/>
       <c r="M473" s="5"/>
     </row>
-    <row r="474" spans="1:13" ht="49.7" customHeight="1">
+    <row r="474" spans="1:13" ht="49.65" customHeight="1">
       <c r="A474" s="10"/>
       <c r="B474" s="4"/>
       <c r="C474" s="6"/>
@@ -10077,7 +10206,7 @@
       <c r="L474" s="5"/>
       <c r="M474" s="5"/>
     </row>
-    <row r="475" spans="1:13" ht="49.7" customHeight="1">
+    <row r="475" spans="1:13" ht="49.65" customHeight="1">
       <c r="A475" s="10"/>
       <c r="B475" s="4"/>
       <c r="C475" s="6"/>
@@ -10092,7 +10221,7 @@
       <c r="L475" s="5"/>
       <c r="M475" s="9"/>
     </row>
-    <row r="476" spans="1:13" ht="49.7" customHeight="1">
+    <row r="476" spans="1:13" ht="49.65" customHeight="1">
       <c r="A476" s="10"/>
       <c r="B476" s="4"/>
       <c r="C476" s="6"/>
@@ -10107,7 +10236,7 @@
       <c r="L476" s="5"/>
       <c r="M476" s="9"/>
     </row>
-    <row r="477" spans="1:13" ht="49.7" customHeight="1">
+    <row r="477" spans="1:13" ht="49.65" customHeight="1">
       <c r="A477" s="10"/>
       <c r="B477" s="4"/>
       <c r="C477" s="6"/>
@@ -10122,7 +10251,7 @@
       <c r="L477" s="5"/>
       <c r="M477" s="9"/>
     </row>
-    <row r="478" spans="1:13" ht="49.7" customHeight="1">
+    <row r="478" spans="1:13" ht="49.65" customHeight="1">
       <c r="A478" s="10"/>
       <c r="B478" s="4"/>
       <c r="C478" s="6"/>
@@ -10137,7 +10266,7 @@
       <c r="L478" s="5"/>
       <c r="M478" s="9"/>
     </row>
-    <row r="479" spans="1:13" ht="49.7" customHeight="1">
+    <row r="479" spans="1:13" ht="49.65" customHeight="1">
       <c r="A479" s="10"/>
       <c r="B479" s="4"/>
       <c r="C479" s="6"/>
@@ -10152,7 +10281,7 @@
       <c r="L479" s="5"/>
       <c r="M479" s="9"/>
     </row>
-    <row r="480" spans="1:13" ht="49.7" customHeight="1">
+    <row r="480" spans="1:13" ht="49.65" customHeight="1">
       <c r="A480" s="10"/>
       <c r="B480" s="4"/>
       <c r="C480" s="6"/>
@@ -10167,7 +10296,7 @@
       <c r="L480" s="5"/>
       <c r="M480" s="5"/>
     </row>
-    <row r="481" spans="1:13" ht="49.7" customHeight="1">
+    <row r="481" spans="1:13" ht="49.65" customHeight="1">
       <c r="A481" s="10"/>
       <c r="B481" s="4"/>
       <c r="C481" s="6"/>
@@ -10182,7 +10311,7 @@
       <c r="L481" s="5"/>
       <c r="M481" s="5"/>
     </row>
-    <row r="482" spans="1:13" ht="49.7" customHeight="1">
+    <row r="482" spans="1:13" ht="49.65" customHeight="1">
       <c r="A482" s="10"/>
       <c r="B482" s="4"/>
       <c r="C482" s="6"/>
@@ -10197,7 +10326,7 @@
       <c r="L482" s="5"/>
       <c r="M482" s="5"/>
     </row>
-    <row r="483" spans="1:13" ht="49.7" customHeight="1">
+    <row r="483" spans="1:13" ht="49.65" customHeight="1">
       <c r="A483" s="10"/>
       <c r="B483" s="4"/>
       <c r="C483" s="6"/>
@@ -10212,7 +10341,7 @@
       <c r="L483" s="5"/>
       <c r="M483" s="5"/>
     </row>
-    <row r="484" spans="1:13" ht="49.7" customHeight="1">
+    <row r="484" spans="1:13" ht="49.65" customHeight="1">
       <c r="A484" s="10"/>
       <c r="B484" s="4"/>
       <c r="C484" s="6"/>
@@ -10227,7 +10356,7 @@
       <c r="L484" s="5"/>
       <c r="M484" s="5"/>
     </row>
-    <row r="485" spans="1:13" ht="49.7" customHeight="1">
+    <row r="485" spans="1:13" ht="49.65" customHeight="1">
       <c r="A485" s="10"/>
       <c r="B485" s="4"/>
       <c r="C485" s="6"/>
@@ -10242,7 +10371,7 @@
       <c r="L485" s="5"/>
       <c r="M485" s="5"/>
     </row>
-    <row r="486" spans="1:13" ht="49.7" customHeight="1">
+    <row r="486" spans="1:13" ht="49.65" customHeight="1">
       <c r="A486" s="10"/>
       <c r="B486" s="4"/>
       <c r="C486" s="6"/>
@@ -10257,7 +10386,7 @@
       <c r="L486" s="5"/>
       <c r="M486" s="5"/>
     </row>
-    <row r="487" spans="1:13" ht="49.7" customHeight="1">
+    <row r="487" spans="1:13" ht="49.65" customHeight="1">
       <c r="A487" s="10"/>
       <c r="B487" s="4"/>
       <c r="C487" s="6"/>
@@ -10272,7 +10401,7 @@
       <c r="L487" s="5"/>
       <c r="M487" s="5"/>
     </row>
-    <row r="488" spans="1:13" ht="49.7" customHeight="1">
+    <row r="488" spans="1:13" ht="49.65" customHeight="1">
       <c r="A488" s="10"/>
       <c r="B488" s="4"/>
       <c r="C488" s="6"/>
@@ -10287,7 +10416,7 @@
       <c r="L488" s="5"/>
       <c r="M488" s="5"/>
     </row>
-    <row r="489" spans="1:13" ht="49.7" customHeight="1">
+    <row r="489" spans="1:13" ht="49.65" customHeight="1">
       <c r="A489" s="10"/>
       <c r="B489" s="4"/>
       <c r="C489" s="6"/>
